--- a/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5414" uniqueCount="1529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5418" uniqueCount="1529">
   <si>
     <t>PS</t>
   </si>
@@ -5348,10 +5348,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1010" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1797" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="M1013" sqref="M1013"/>
+      <selection pane="bottomLeft" activeCell="S1810" sqref="S1810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -54668,7 +54668,9 @@
       <c r="P1320" s="7"/>
       <c r="Q1320" s="7"/>
       <c r="R1320" s="7"/>
-      <c r="S1320" s="7"/>
+      <c r="S1320" s="7" t="s">
+        <v>1502</v>
+      </c>
       <c r="T1320" s="7"/>
       <c r="U1320" s="7"/>
       <c r="V1320" s="43"/>
@@ -55379,7 +55381,9 @@
       <c r="P1339" s="7"/>
       <c r="Q1339" s="7"/>
       <c r="R1339" s="7"/>
-      <c r="S1339" s="7"/>
+      <c r="S1339" s="7" t="s">
+        <v>1502</v>
+      </c>
       <c r="T1339" s="7"/>
       <c r="U1339" s="7"/>
       <c r="V1339" s="43"/>
@@ -55903,7 +55907,9 @@
       <c r="P1353" s="7"/>
       <c r="Q1353" s="7"/>
       <c r="R1353" s="7"/>
-      <c r="S1353" s="7"/>
+      <c r="S1353" s="7" t="s">
+        <v>1502</v>
+      </c>
       <c r="T1353" s="7"/>
       <c r="U1353" s="7"/>
       <c r="V1353" s="43"/>
@@ -71452,6 +71458,9 @@
       <c r="N1809" s="43" t="s">
         <v>1016</v>
       </c>
+      <c r="S1809" s="1" t="s">
+        <v>1502</v>
+      </c>
       <c r="V1809" s="43"/>
     </row>
     <row r="1810" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510E1119-C044-4714-9B24-EBF6617F0628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65747810-ED7B-475E-A85E-8548F43DBF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5424" uniqueCount="1534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5435" uniqueCount="1537">
   <si>
     <t>PS</t>
   </si>
@@ -4529,18 +4529,12 @@
     <t>N</t>
   </si>
   <si>
-    <t>S%N</t>
-  </si>
-  <si>
     <t>GS-4.3-30</t>
   </si>
   <si>
     <t>GS-4.3-31</t>
   </si>
   <si>
-    <t>SE</t>
-  </si>
-  <si>
     <t>GS-4.3-32</t>
   </si>
   <si>
@@ -4565,9 +4559,6 @@
     <t>EL</t>
   </si>
   <si>
-    <t>ngmv%ngmr</t>
-  </si>
-  <si>
     <t>JD-23</t>
   </si>
   <si>
@@ -4601,36 +4592,21 @@
     <t>P[r]</t>
   </si>
   <si>
-    <t>RE</t>
-  </si>
-  <si>
     <t>duqrmaqtim |</t>
   </si>
   <si>
-    <t>NE+NSE?</t>
-  </si>
-  <si>
     <t>NE+NRE</t>
   </si>
   <si>
     <t>ngg</t>
   </si>
   <si>
-    <t>n[s]</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>NSE+NRE</t>
   </si>
   <si>
     <t>NE+NSE</t>
   </si>
   <si>
-    <t>NE+NRE?</t>
-  </si>
-  <si>
     <t>NS</t>
   </si>
   <si>
@@ -4659,19 +4635,58 @@
   </si>
   <si>
     <t>1.43.40</t>
+  </si>
+  <si>
+    <t>1.56.28</t>
+  </si>
+  <si>
+    <t>2.16.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AqsIqdityA#sIt </t>
+  </si>
+  <si>
+    <t>P[r]+S[r]+N[r]</t>
+  </si>
+  <si>
+    <t>2.44.10</t>
+  </si>
+  <si>
+    <t>2.58.49</t>
+  </si>
+  <si>
+    <t>PS-12.3</t>
+  </si>
+  <si>
+    <t>sainA</t>
+  </si>
+  <si>
+    <t>PS-5.17</t>
+  </si>
+  <si>
+    <t>S+N</t>
+  </si>
+  <si>
+    <t>P[r]+S[r]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -4856,13 +4871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4896,203 +4911,203 @@
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5377,15 +5392,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A812" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A817" sqref="A817"/>
+      <selection pane="bottomLeft" activeCell="E1511" sqref="E1511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="67" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="65" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="23" customWidth="1"/>
@@ -5902,7 +5917,7 @@
         <v>11</v>
       </c>
       <c r="S1" s="52" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="T1" s="52" t="s">
         <v>21</v>
@@ -5910,7 +5925,7 @@
       <c r="U1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="63" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8425,7 +8440,7 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="N66" s="66" t="s">
+      <c r="N66" s="64" t="s">
         <v>49</v>
       </c>
       <c r="O66" s="7"/>
@@ -11570,7 +11585,7 @@
         <v>1459</v>
       </c>
       <c r="T147" s="7" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="U147" s="7"/>
       <c r="V147" s="42"/>
@@ -13444,7 +13459,7 @@
         <f t="shared" ref="M196:M259" si="11">+M195+1</f>
         <v>130</v>
       </c>
-      <c r="N196" s="66" t="s">
+      <c r="N196" s="64" t="s">
         <v>1114</v>
       </c>
       <c r="O196" s="7" t="s">
@@ -15472,8 +15487,8 @@
       <c r="D250" s="23"/>
       <c r="E250" s="19"/>
       <c r="F250" s="19"/>
-      <c r="G250" s="58" t="s">
-        <v>1497</v>
+      <c r="G250" s="57" t="s">
+        <v>1495</v>
       </c>
       <c r="H250" s="19"/>
       <c r="I250" s="44" t="s">
@@ -15511,8 +15526,8 @@
       <c r="D251" s="23"/>
       <c r="E251" s="19"/>
       <c r="F251" s="19"/>
-      <c r="G251" s="58" t="s">
-        <v>1497</v>
+      <c r="G251" s="57" t="s">
+        <v>1495</v>
       </c>
       <c r="H251" s="19"/>
       <c r="I251" s="44" t="s">
@@ -15550,8 +15565,8 @@
       <c r="D252" s="23"/>
       <c r="E252" s="19"/>
       <c r="F252" s="19"/>
-      <c r="G252" s="58" t="s">
-        <v>1497</v>
+      <c r="G252" s="57" t="s">
+        <v>1495</v>
       </c>
       <c r="H252" s="19"/>
       <c r="I252" s="44" t="s">
@@ -18317,7 +18332,7 @@
         <f t="shared" ref="M324:M387" si="17">+M323+1</f>
         <v>128</v>
       </c>
-      <c r="N324" s="66" t="s">
+      <c r="N324" s="64" t="s">
         <v>1191</v>
       </c>
       <c r="O324" s="7" t="s">
@@ -20364,7 +20379,7 @@
         <v>53</v>
       </c>
       <c r="N377" s="42" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="O377" s="7" t="s">
         <v>0</v>
@@ -20452,7 +20467,7 @@
         <v>1459</v>
       </c>
       <c r="T379" s="7" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="U379" s="7"/>
       <c r="V379" s="42"/>
@@ -20612,7 +20627,7 @@
         <v>1459</v>
       </c>
       <c r="T383" s="7" t="s">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="U383" s="7"/>
       <c r="V383" s="42"/>
@@ -21221,7 +21236,7 @@
       <c r="S399" s="7"/>
       <c r="T399" s="7"/>
       <c r="U399" s="7" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="V399" s="42"/>
     </row>
@@ -21424,7 +21439,7 @@
     </row>
     <row r="405" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A405" s="7"/>
-      <c r="D405" s="61"/>
+      <c r="D405" s="60"/>
       <c r="E405" s="19"/>
       <c r="F405" s="19"/>
       <c r="G405" s="19"/>
@@ -22300,7 +22315,7 @@
       <c r="S427" s="7"/>
       <c r="T427" s="7"/>
       <c r="U427" s="7" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="V427" s="42"/>
     </row>
@@ -23558,7 +23573,7 @@
       <c r="A460" s="7"/>
       <c r="B460" s="36"/>
       <c r="D460" s="23"/>
-      <c r="E460" s="62"/>
+      <c r="E460" s="61"/>
       <c r="F460" s="19"/>
       <c r="G460" s="19"/>
       <c r="H460" s="19"/>
@@ -23595,7 +23610,7 @@
     <row r="461" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A461" s="7"/>
       <c r="D461" s="23"/>
-      <c r="E461" s="62"/>
+      <c r="E461" s="61"/>
       <c r="F461" s="19"/>
       <c r="G461" s="19"/>
       <c r="H461" s="19"/>
@@ -24057,7 +24072,7 @@
         <v>1459</v>
       </c>
       <c r="T472" s="7" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="U472" s="7"/>
       <c r="V472" s="42"/>
@@ -24784,7 +24799,7 @@
     </row>
     <row r="491" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A491" s="7" t="s">
-        <v>1528</v>
+        <v>1520</v>
       </c>
       <c r="D491" s="23"/>
       <c r="E491" s="19"/>
@@ -24811,7 +24826,7 @@
         <f t="shared" si="23"/>
         <v>167</v>
       </c>
-      <c r="N491" s="66" t="s">
+      <c r="N491" s="64" t="s">
         <v>311</v>
       </c>
       <c r="O491" s="6"/>
@@ -27666,7 +27681,7 @@
     </row>
     <row r="567" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
-        <v>1529</v>
+        <v>1521</v>
       </c>
       <c r="D567" s="23"/>
       <c r="E567" s="19"/>
@@ -27691,7 +27706,7 @@
         <f t="shared" si="26"/>
         <v>76</v>
       </c>
-      <c r="N567" s="66" t="s">
+      <c r="N567" s="64" t="s">
         <v>49</v>
       </c>
       <c r="O567" s="6"/>
@@ -28288,8 +28303,8 @@
     </row>
     <row r="583" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A583" s="7"/>
-      <c r="D583" s="60" t="s">
-        <v>1505</v>
+      <c r="D583" s="59" t="s">
+        <v>1502</v>
       </c>
       <c r="E583" s="19"/>
       <c r="F583" s="19"/>
@@ -28760,7 +28775,7 @@
     </row>
     <row r="595" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A595" s="7" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="D595" s="23"/>
       <c r="E595" s="19"/>
@@ -28801,7 +28816,7 @@
     </row>
     <row r="596" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A596" s="7" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="D596" s="23"/>
       <c r="E596" s="19"/>
@@ -28834,10 +28849,10 @@
       <c r="O596" s="6"/>
       <c r="P596" s="7"/>
       <c r="Q596" s="7" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="R596" s="7" t="s">
-        <v>1530</v>
+        <v>1522</v>
       </c>
       <c r="S596" s="7"/>
       <c r="T596" s="7"/>
@@ -29180,7 +29195,7 @@
       <c r="T605" s="7"/>
       <c r="U605" s="7"/>
       <c r="V605" s="43" t="s">
-        <v>1526</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="606" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30866,8 +30881,8 @@
     <row r="650" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A650" s="7"/>
       <c r="D650" s="23"/>
-      <c r="E650" s="63" t="s">
-        <v>1510</v>
+      <c r="E650" s="62" t="s">
+        <v>1507</v>
       </c>
       <c r="F650" s="19"/>
       <c r="G650" s="19"/>
@@ -31723,8 +31738,8 @@
       <c r="V672" s="42"/>
     </row>
     <row r="673" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A673" s="67" t="s">
-        <v>1531</v>
+      <c r="A673" s="65" t="s">
+        <v>1523</v>
       </c>
       <c r="E673" s="19"/>
       <c r="F673" s="19"/>
@@ -31748,7 +31763,7 @@
         <f t="shared" si="32"/>
         <v>106</v>
       </c>
-      <c r="N673" s="66" t="s">
+      <c r="N673" s="64" t="s">
         <v>385</v>
       </c>
       <c r="O673" s="6"/>
@@ -35470,8 +35485,8 @@
       <c r="V778" s="42"/>
     </row>
     <row r="779" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A779" s="67" t="s">
-        <v>1532</v>
+      <c r="A779" s="65" t="s">
+        <v>1524</v>
       </c>
       <c r="E779" s="19"/>
       <c r="F779" s="19"/>
@@ -35495,7 +35510,7 @@
         <f t="shared" si="38"/>
         <v>106</v>
       </c>
-      <c r="N779" s="66" t="s">
+      <c r="N779" s="64" t="s">
         <v>231</v>
       </c>
       <c r="O779" s="6"/>
@@ -36861,8 +36876,8 @@
       <c r="V815" s="42"/>
     </row>
     <row r="816" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A816" s="67" t="s">
-        <v>1533</v>
+      <c r="A816" s="65" t="s">
+        <v>1525</v>
       </c>
       <c r="E816" s="19"/>
       <c r="F816" s="19"/>
@@ -36886,7 +36901,7 @@
         <f t="shared" si="38"/>
         <v>37</v>
       </c>
-      <c r="N816" s="66" t="s">
+      <c r="N816" s="64" t="s">
         <v>1263</v>
       </c>
       <c r="O816" s="7" t="s">
@@ -39775,7 +39790,7 @@
       <c r="U896" s="7"/>
       <c r="V896" s="42"/>
     </row>
-    <row r="897" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E897" s="19"/>
       <c r="F897" s="19"/>
       <c r="G897" s="19"/>
@@ -39814,7 +39829,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="898" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E898" s="19"/>
       <c r="F898" s="19"/>
       <c r="G898" s="19"/>
@@ -39853,7 +39868,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="899" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E899" s="19"/>
       <c r="F899" s="19"/>
       <c r="G899" s="19"/>
@@ -39888,7 +39903,7 @@
       <c r="U899" s="7"/>
       <c r="V899" s="42"/>
     </row>
-    <row r="900" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E900" s="19"/>
       <c r="F900" s="19"/>
       <c r="G900" s="19"/>
@@ -39927,7 +39942,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="901" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E901" s="19"/>
       <c r="F901" s="19"/>
       <c r="G901" s="19"/>
@@ -39962,7 +39977,7 @@
       <c r="U901" s="7"/>
       <c r="V901" s="42"/>
     </row>
-    <row r="902" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E902" s="19"/>
       <c r="F902" s="19"/>
       <c r="G902" s="19"/>
@@ -39997,7 +40012,7 @@
       <c r="U902" s="7"/>
       <c r="V902" s="42"/>
     </row>
-    <row r="903" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E903" s="19"/>
       <c r="F903" s="19"/>
       <c r="G903" s="19"/>
@@ -40032,7 +40047,7 @@
       <c r="U903" s="7"/>
       <c r="V903" s="42"/>
     </row>
-    <row r="904" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E904" s="19"/>
       <c r="F904" s="19"/>
       <c r="G904" s="19"/>
@@ -40067,7 +40082,7 @@
       <c r="U904" s="7"/>
       <c r="V904" s="42"/>
     </row>
-    <row r="905" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E905" s="19"/>
       <c r="F905" s="19"/>
       <c r="G905" s="19"/>
@@ -40102,7 +40117,7 @@
       <c r="U905" s="7"/>
       <c r="V905" s="42"/>
     </row>
-    <row r="906" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E906" s="19"/>
       <c r="F906" s="19"/>
       <c r="G906" s="19"/>
@@ -40137,7 +40152,7 @@
       <c r="U906" s="7"/>
       <c r="V906" s="42"/>
     </row>
-    <row r="907" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E907" s="19"/>
       <c r="F907" s="19"/>
       <c r="G907" s="19"/>
@@ -40176,7 +40191,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="908" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E908" s="19"/>
       <c r="F908" s="19"/>
       <c r="G908" s="19"/>
@@ -40211,7 +40226,7 @@
       <c r="U908" s="7"/>
       <c r="V908" s="42"/>
     </row>
-    <row r="909" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D909" s="39"/>
       <c r="E909" s="19"/>
       <c r="F909" s="19"/>
@@ -40251,7 +40266,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="910" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="D910" s="39"/>
       <c r="E910" s="19"/>
       <c r="F910" s="19"/>
@@ -40287,7 +40302,7 @@
       <c r="U910" s="7"/>
       <c r="V910" s="42"/>
     </row>
-    <row r="911" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E911" s="19"/>
       <c r="F911" s="19"/>
       <c r="G911" s="19"/>
@@ -40326,7 +40341,10 @@
         <v>442</v>
       </c>
     </row>
-    <row r="912" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A912" s="65" t="s">
+        <v>1526</v>
+      </c>
       <c r="E912" s="19"/>
       <c r="F912" s="19"/>
       <c r="G912" s="19"/>
@@ -40349,7 +40367,7 @@
         <f t="shared" si="44"/>
         <v>96</v>
       </c>
-      <c r="N912" s="42" t="s">
+      <c r="N912" s="64" t="s">
         <v>487</v>
       </c>
       <c r="O912" s="6"/>
@@ -40386,7 +40404,7 @@
       <c r="M913" s="16">
         <v>1</v>
       </c>
-      <c r="N913" s="42" t="s">
+      <c r="N913" s="66" t="s">
         <v>488</v>
       </c>
       <c r="O913" s="6"/>
@@ -40421,7 +40439,7 @@
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
-      <c r="N914" s="42" t="s">
+      <c r="N914" s="66" t="s">
         <v>489</v>
       </c>
       <c r="O914" s="6"/>
@@ -40800,7 +40818,7 @@
         <v>1459</v>
       </c>
       <c r="T924" s="7" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="U924" s="7"/>
       <c r="V924" s="42"/>
@@ -41293,9 +41311,7 @@
       <c r="R937" s="7"/>
       <c r="S937" s="7"/>
       <c r="T937" s="7"/>
-      <c r="U937" s="7" t="s">
-        <v>1514</v>
-      </c>
+      <c r="U937" s="7"/>
       <c r="V937" s="42"/>
     </row>
     <row r="938" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41369,9 +41385,7 @@
       <c r="R939" s="7"/>
       <c r="S939" s="7"/>
       <c r="T939" s="7"/>
-      <c r="U939" s="7" t="s">
-        <v>1514</v>
-      </c>
+      <c r="U939" s="7"/>
       <c r="V939" s="42"/>
     </row>
     <row r="940" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44057,7 +44071,7 @@
         <v>101</v>
       </c>
       <c r="N1013" s="42" t="s">
-        <v>1525</v>
+        <v>1517</v>
       </c>
       <c r="O1013" s="6"/>
       <c r="P1013" s="7"/>
@@ -45045,7 +45059,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="1041" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1041" s="19"/>
       <c r="F1041" s="19"/>
       <c r="G1041" s="19"/>
@@ -45080,7 +45094,7 @@
       <c r="U1041" s="7"/>
       <c r="V1041" s="42"/>
     </row>
-    <row r="1042" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1042" s="19"/>
       <c r="F1042" s="19"/>
       <c r="G1042" s="19"/>
@@ -45115,7 +45129,7 @@
       <c r="U1042" s="7"/>
       <c r="V1042" s="42"/>
     </row>
-    <row r="1043" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1043" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1043" s="19"/>
       <c r="F1043" s="19"/>
       <c r="G1043" s="19"/>
@@ -45150,7 +45164,7 @@
       <c r="U1043" s="7"/>
       <c r="V1043" s="42"/>
     </row>
-    <row r="1044" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1044" s="19"/>
       <c r="F1044" s="19"/>
       <c r="G1044" s="19"/>
@@ -45189,7 +45203,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="1045" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1045" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1045" s="19"/>
       <c r="F1045" s="19"/>
       <c r="G1045" s="19"/>
@@ -45224,7 +45238,7 @@
       <c r="U1045" s="7"/>
       <c r="V1045" s="42"/>
     </row>
-    <row r="1046" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1046" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1046" s="19"/>
       <c r="F1046" s="19"/>
       <c r="G1046" s="19"/>
@@ -45263,7 +45277,10 @@
         <v>332</v>
       </c>
     </row>
-    <row r="1047" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1047" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1047" s="65" t="s">
+        <v>1527</v>
+      </c>
       <c r="E1047" s="19"/>
       <c r="F1047" s="19"/>
       <c r="G1047" s="19"/>
@@ -45286,7 +45303,7 @@
         <f t="shared" si="50"/>
         <v>135</v>
       </c>
-      <c r="N1047" s="42" t="s">
+      <c r="N1047" s="64" t="s">
         <v>538</v>
       </c>
       <c r="O1047" s="6"/>
@@ -45298,11 +45315,11 @@
       <c r="S1047" s="7"/>
       <c r="T1047" s="7"/>
       <c r="U1047" s="7"/>
-      <c r="V1047" s="53" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="1048" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="V1047" s="54" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1048" s="19"/>
       <c r="F1048" s="19"/>
       <c r="G1048" s="19"/>
@@ -45337,7 +45354,7 @@
       <c r="U1048" s="7"/>
       <c r="V1048" s="42"/>
     </row>
-    <row r="1049" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1049" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1049" s="19"/>
       <c r="F1049" s="19"/>
       <c r="G1049" s="19"/>
@@ -45374,7 +45391,7 @@
       <c r="U1049" s="7"/>
       <c r="V1049" s="42"/>
     </row>
-    <row r="1050" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1050" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1050" s="19"/>
       <c r="F1050" s="19"/>
       <c r="G1050" s="19"/>
@@ -45411,7 +45428,7 @@
       <c r="U1050" s="7"/>
       <c r="V1050" s="42"/>
     </row>
-    <row r="1051" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1051" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1051" s="19"/>
       <c r="F1051" s="19"/>
       <c r="G1051" s="19"/>
@@ -45448,7 +45465,7 @@
       <c r="U1051" s="7"/>
       <c r="V1051" s="42"/>
     </row>
-    <row r="1052" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1052" s="19"/>
       <c r="F1052" s="19"/>
       <c r="G1052" s="19"/>
@@ -45485,7 +45502,7 @@
       <c r="U1052" s="7"/>
       <c r="V1052" s="42"/>
     </row>
-    <row r="1053" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1053" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1053" s="19"/>
       <c r="F1053" s="19"/>
       <c r="G1053" s="19"/>
@@ -45524,7 +45541,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="1054" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1054" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1054" s="19"/>
       <c r="F1054" s="19"/>
       <c r="G1054" s="19"/>
@@ -45557,11 +45574,13 @@
       <c r="S1054" s="7" t="s">
         <v>1459</v>
       </c>
-      <c r="T1054" s="7"/>
+      <c r="T1054" s="7" t="s">
+        <v>1529</v>
+      </c>
       <c r="U1054" s="7"/>
       <c r="V1054" s="42"/>
     </row>
-    <row r="1055" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1055" s="19"/>
       <c r="F1055" s="19"/>
       <c r="G1055" s="19"/>
@@ -45596,7 +45615,7 @@
       <c r="U1055" s="7"/>
       <c r="V1055" s="42"/>
     </row>
-    <row r="1056" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1056" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1056" s="19"/>
       <c r="F1056" s="19"/>
       <c r="G1056" s="19"/>
@@ -46480,7 +46499,7 @@
       <c r="S1079" s="7"/>
       <c r="T1079" s="7"/>
       <c r="U1079" s="7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="V1079" s="42" t="s">
         <v>1094</v>
@@ -46859,7 +46878,7 @@
       <c r="S1089" s="7"/>
       <c r="T1089" s="7"/>
       <c r="U1089" s="7" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="V1089" s="42"/>
     </row>
@@ -47370,7 +47389,7 @@
       <c r="S1103" s="7"/>
       <c r="T1103" s="7"/>
       <c r="U1103" s="7" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="V1103" s="42"/>
     </row>
@@ -47870,7 +47889,9 @@
       <c r="S1117" s="7" t="s">
         <v>1459</v>
       </c>
-      <c r="T1117" s="7"/>
+      <c r="T1117" s="7" t="s">
+        <v>1519</v>
+      </c>
       <c r="U1117" s="7"/>
       <c r="V1117" s="42"/>
     </row>
@@ -48350,8 +48371,8 @@
     <row r="1131" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1131" s="19"/>
       <c r="F1131" s="19"/>
-      <c r="G1131" s="63" t="s">
-        <v>1511</v>
+      <c r="G1131" s="62" t="s">
+        <v>1508</v>
       </c>
       <c r="H1131" s="55" t="s">
         <v>1471</v>
@@ -48389,8 +48410,8 @@
     <row r="1132" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="E1132" s="19"/>
       <c r="F1132" s="19"/>
-      <c r="G1132" s="63" t="s">
-        <v>1511</v>
+      <c r="G1132" s="62" t="s">
+        <v>1508</v>
       </c>
       <c r="H1132" s="55" t="s">
         <v>1471</v>
@@ -49004,10 +49025,10 @@
       <c r="Q1148" s="7"/>
       <c r="R1148" s="7"/>
       <c r="S1148" s="7" t="s">
-        <v>1518</v>
+        <v>1513</v>
       </c>
       <c r="T1148" s="7" t="s">
-        <v>1519</v>
+        <v>1504</v>
       </c>
       <c r="U1148" s="7"/>
       <c r="V1148" s="42"/>
@@ -51043,7 +51064,7 @@
       <c r="S1204" s="7"/>
       <c r="T1204" s="7"/>
       <c r="U1204" s="7" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="V1204" s="42"/>
     </row>
@@ -51082,7 +51103,7 @@
       <c r="S1205" s="7"/>
       <c r="T1205" s="7"/>
       <c r="U1205" s="7" t="s">
-        <v>1520</v>
+        <v>1462</v>
       </c>
       <c r="V1205" s="42"/>
     </row>
@@ -51739,7 +51760,9 @@
       <c r="R1223" s="7"/>
       <c r="S1223" s="7"/>
       <c r="T1223" s="7"/>
-      <c r="U1223" s="7"/>
+      <c r="U1223" s="7" t="s">
+        <v>1462</v>
+      </c>
       <c r="V1223" s="42"/>
     </row>
     <row r="1224" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51809,7 +51832,9 @@
       <c r="R1225" s="7"/>
       <c r="S1225" s="7"/>
       <c r="T1225" s="7"/>
-      <c r="U1225" s="7"/>
+      <c r="U1225" s="7" t="s">
+        <v>1505</v>
+      </c>
       <c r="V1225" s="42"/>
     </row>
     <row r="1226" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54264,7 +54289,7 @@
       <c r="S1292" s="7"/>
       <c r="T1292" s="7"/>
       <c r="U1292" s="7" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="V1292" s="42"/>
     </row>
@@ -55022,7 +55047,7 @@
       <c r="U1312" s="7"/>
       <c r="V1312" s="42"/>
     </row>
-    <row r="1313" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1313" s="40"/>
       <c r="E1313" s="19"/>
       <c r="F1313" s="19"/>
@@ -55060,7 +55085,7 @@
       <c r="U1313" s="7"/>
       <c r="V1313" s="42"/>
     </row>
-    <row r="1314" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1314" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1314" s="40"/>
       <c r="E1314" s="19"/>
       <c r="F1314" s="19"/>
@@ -55096,7 +55121,7 @@
       <c r="U1314" s="7"/>
       <c r="V1314" s="42"/>
     </row>
-    <row r="1315" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1315" s="40"/>
       <c r="E1315" s="19"/>
       <c r="F1315" s="19"/>
@@ -55132,7 +55157,10 @@
       <c r="U1315" s="7"/>
       <c r="V1315" s="42"/>
     </row>
-    <row r="1316" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1316" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1316" s="65" t="s">
+        <v>1530</v>
+      </c>
       <c r="C1316" s="40"/>
       <c r="E1316" s="19"/>
       <c r="F1316" s="19"/>
@@ -55156,7 +55184,7 @@
         <f t="shared" si="62"/>
         <v>269</v>
       </c>
-      <c r="N1316" s="42" t="s">
+      <c r="N1316" s="64" t="s">
         <v>712</v>
       </c>
       <c r="O1316" s="6"/>
@@ -55172,7 +55200,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="1317" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1317" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1317" s="40"/>
       <c r="E1317" s="19"/>
       <c r="F1317" s="19"/>
@@ -55206,7 +55234,7 @@
       <c r="U1317" s="7"/>
       <c r="V1317" s="42"/>
     </row>
-    <row r="1318" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1318" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1318" s="40"/>
       <c r="E1318" s="19"/>
       <c r="F1318" s="19"/>
@@ -55242,7 +55270,7 @@
       <c r="U1318" s="7"/>
       <c r="V1318" s="42"/>
     </row>
-    <row r="1319" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1319" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1319" s="40"/>
       <c r="E1319" s="19"/>
       <c r="F1319" s="19"/>
@@ -55280,7 +55308,7 @@
       <c r="U1319" s="7"/>
       <c r="V1319" s="42"/>
     </row>
-    <row r="1320" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1320" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1320" s="40"/>
       <c r="E1320" s="19"/>
       <c r="F1320" s="19"/>
@@ -55312,13 +55340,13 @@
       <c r="Q1320" s="7"/>
       <c r="R1320" s="7"/>
       <c r="S1320" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="T1320" s="7"/>
       <c r="U1320" s="7"/>
       <c r="V1320" s="42"/>
     </row>
-    <row r="1321" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1321" s="40"/>
       <c r="E1321" s="19"/>
       <c r="F1321" s="19"/>
@@ -55354,7 +55382,7 @@
       <c r="U1321" s="7"/>
       <c r="V1321" s="42"/>
     </row>
-    <row r="1322" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1322" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1322" s="40"/>
       <c r="E1322" s="19"/>
       <c r="F1322" s="19"/>
@@ -55390,7 +55418,7 @@
       <c r="U1322" s="7"/>
       <c r="V1322" s="42"/>
     </row>
-    <row r="1323" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1323" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1323" s="40"/>
       <c r="E1323" s="19"/>
       <c r="F1323" s="19"/>
@@ -55428,7 +55456,7 @@
       <c r="U1323" s="7"/>
       <c r="V1323" s="42"/>
     </row>
-    <row r="1324" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1324" s="40"/>
       <c r="E1324" s="19"/>
       <c r="F1324" s="19"/>
@@ -55464,7 +55492,7 @@
       <c r="U1324" s="7"/>
       <c r="V1324" s="42"/>
     </row>
-    <row r="1325" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1325" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1325" s="40"/>
       <c r="E1325" s="19"/>
       <c r="F1325" s="19"/>
@@ -55504,7 +55532,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="1326" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1326" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1326" s="40"/>
       <c r="E1326" s="19"/>
       <c r="F1326" s="19"/>
@@ -55544,7 +55572,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="1327" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1327" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1327" s="40"/>
       <c r="E1327" s="19"/>
       <c r="F1327" s="19"/>
@@ -55584,7 +55612,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="1328" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C1328" s="40"/>
       <c r="E1328" s="19"/>
       <c r="F1328" s="19"/>
@@ -56025,7 +56053,7 @@
       <c r="Q1339" s="7"/>
       <c r="R1339" s="7"/>
       <c r="S1339" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="T1339" s="7"/>
       <c r="U1339" s="7"/>
@@ -56551,7 +56579,7 @@
       <c r="Q1353" s="7"/>
       <c r="R1353" s="7"/>
       <c r="S1353" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="T1353" s="7"/>
       <c r="U1353" s="7"/>
@@ -58863,7 +58891,7 @@
         <f t="shared" si="68"/>
         <v>100</v>
       </c>
-      <c r="N1416" s="65" t="s">
+      <c r="N1416" s="54" t="s">
         <v>44</v>
       </c>
       <c r="O1416" s="6"/>
@@ -60055,6 +60083,9 @@
       <c r="V1448" s="42"/>
     </row>
     <row r="1449" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1449" s="65" t="s">
+        <v>1531</v>
+      </c>
       <c r="C1449" s="40"/>
       <c r="E1449" s="19"/>
       <c r="F1449" s="19"/>
@@ -60078,7 +60109,7 @@
         <f t="shared" si="68"/>
         <v>133</v>
       </c>
-      <c r="N1449" s="42" t="s">
+      <c r="N1449" s="64" t="s">
         <v>49</v>
       </c>
       <c r="O1449" s="6"/>
@@ -60095,7 +60126,7 @@
       </c>
     </row>
     <row r="1450" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1450" s="7" t="s">
+      <c r="C1450" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1450" s="19"/>
@@ -60133,10 +60164,9 @@
       <c r="V1450" s="42"/>
     </row>
     <row r="1451" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1451" s="7" t="s">
+      <c r="C1451" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1451" s="40"/>
       <c r="E1451" s="19"/>
       <c r="F1451" s="19"/>
       <c r="G1451" s="19"/>
@@ -60174,10 +60204,9 @@
       <c r="V1451" s="42"/>
     </row>
     <row r="1452" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1452" s="7" t="s">
+      <c r="C1452" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1452" s="40"/>
       <c r="E1452" s="19"/>
       <c r="F1452" s="19"/>
       <c r="G1452" s="19"/>
@@ -60215,10 +60244,9 @@
       <c r="V1452" s="42"/>
     </row>
     <row r="1453" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1453" s="7" t="s">
+      <c r="C1453" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1453" s="40"/>
       <c r="E1453" s="19"/>
       <c r="F1453" s="19"/>
       <c r="G1453" s="19"/>
@@ -60254,10 +60282,9 @@
       <c r="V1453" s="42"/>
     </row>
     <row r="1454" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1454" s="7" t="s">
+      <c r="C1454" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1454" s="40"/>
       <c r="E1454" s="19"/>
       <c r="F1454" s="19"/>
       <c r="G1454" s="19"/>
@@ -60299,10 +60326,9 @@
       </c>
     </row>
     <row r="1455" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1455" s="7" t="s">
+      <c r="C1455" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1455" s="40"/>
       <c r="E1455" s="19"/>
       <c r="F1455" s="19"/>
       <c r="G1455" s="19"/>
@@ -60342,10 +60368,9 @@
       </c>
     </row>
     <row r="1456" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1456" s="7" t="s">
+      <c r="C1456" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1456" s="40"/>
       <c r="E1456" s="19"/>
       <c r="F1456" s="19"/>
       <c r="G1456" s="19"/>
@@ -60380,11 +60405,10 @@
       <c r="U1456" s="7"/>
       <c r="V1456" s="42"/>
     </row>
-    <row r="1457" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1457" s="7" t="s">
+    <row r="1457" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1457" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1457" s="40"/>
       <c r="E1457" s="19"/>
       <c r="F1457" s="19"/>
       <c r="G1457" s="19"/>
@@ -60425,11 +60449,10 @@
         <v>772</v>
       </c>
     </row>
-    <row r="1458" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1458" s="7" t="s">
+    <row r="1458" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1458" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1458" s="40"/>
       <c r="E1458" s="19"/>
       <c r="F1458" s="19"/>
       <c r="G1458" s="19"/>
@@ -60464,11 +60487,10 @@
       <c r="U1458" s="7"/>
       <c r="V1458" s="42"/>
     </row>
-    <row r="1459" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1459" s="7" t="s">
+    <row r="1459" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1459" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1459" s="40"/>
       <c r="E1459" s="19"/>
       <c r="F1459" s="19"/>
       <c r="G1459" s="34"/>
@@ -60503,11 +60525,10 @@
       <c r="U1459" s="7"/>
       <c r="V1459" s="42"/>
     </row>
-    <row r="1460" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1460" s="7" t="s">
+    <row r="1460" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1460" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1460" s="40"/>
       <c r="E1460" s="19"/>
       <c r="F1460" s="19"/>
       <c r="G1460" s="34"/>
@@ -60542,11 +60563,10 @@
       <c r="U1460" s="7"/>
       <c r="V1460" s="42"/>
     </row>
-    <row r="1461" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1461" s="7" t="s">
+    <row r="1461" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1461" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1461" s="40"/>
       <c r="E1461" s="34"/>
       <c r="F1461" s="19"/>
       <c r="G1461" s="34"/>
@@ -60585,11 +60605,10 @@
         <v>774</v>
       </c>
     </row>
-    <row r="1462" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1462" s="7" t="s">
+    <row r="1462" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1462" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1462" s="40"/>
       <c r="E1462" s="34"/>
       <c r="F1462" s="19"/>
       <c r="G1462" s="19"/>
@@ -60624,11 +60643,10 @@
       <c r="U1462" s="7"/>
       <c r="V1462" s="42"/>
     </row>
-    <row r="1463" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1463" s="7" t="s">
+    <row r="1463" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1463" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1463" s="40"/>
       <c r="E1463" s="19"/>
       <c r="F1463" s="19"/>
       <c r="G1463" s="19"/>
@@ -60663,11 +60681,10 @@
       <c r="U1463" s="7"/>
       <c r="V1463" s="42"/>
     </row>
-    <row r="1464" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1464" s="7" t="s">
+    <row r="1464" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1464" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1464" s="40"/>
       <c r="E1464" s="19"/>
       <c r="F1464" s="19"/>
       <c r="G1464" s="19"/>
@@ -60702,11 +60719,10 @@
       <c r="U1464" s="7"/>
       <c r="V1464" s="42"/>
     </row>
-    <row r="1465" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1465" s="7" t="s">
+    <row r="1465" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1465" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1465" s="40"/>
       <c r="E1465" s="19"/>
       <c r="F1465" s="19"/>
       <c r="G1465" s="19"/>
@@ -60747,11 +60763,10 @@
         <v>777</v>
       </c>
     </row>
-    <row r="1466" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1466" s="7" t="s">
+    <row r="1466" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1466" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1466" s="40"/>
       <c r="E1466" s="19"/>
       <c r="F1466" s="19"/>
       <c r="G1466" s="19"/>
@@ -60786,11 +60801,13 @@
       <c r="U1466" s="7"/>
       <c r="V1466" s="42"/>
     </row>
-    <row r="1467" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1467" s="7" t="s">
+    <row r="1467" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1467" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1467" s="40"/>
+      <c r="D1467" s="67" t="s">
+        <v>1532</v>
+      </c>
       <c r="E1467" s="19"/>
       <c r="F1467" s="19"/>
       <c r="G1467" s="19"/>
@@ -60825,11 +60842,13 @@
       <c r="U1467" s="7"/>
       <c r="V1467" s="42"/>
     </row>
-    <row r="1468" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1468" s="7" t="s">
+    <row r="1468" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1468" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1468" s="40"/>
+      <c r="D1468" s="67" t="s">
+        <v>1532</v>
+      </c>
       <c r="E1468" s="19"/>
       <c r="F1468" s="19"/>
       <c r="G1468" s="19"/>
@@ -60862,15 +60881,14 @@
       <c r="S1468" s="7"/>
       <c r="T1468" s="7"/>
       <c r="U1468" s="7" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="V1468" s="42"/>
     </row>
-    <row r="1469" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1469" s="7" t="s">
+    <row r="1469" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1469" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1469" s="40"/>
       <c r="E1469" s="19"/>
       <c r="F1469" s="19"/>
       <c r="G1469" s="19"/>
@@ -60909,11 +60927,10 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="1470" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1470" s="7" t="s">
+    <row r="1470" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1470" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1470" s="40"/>
       <c r="E1470" s="19"/>
       <c r="F1470" s="19"/>
       <c r="G1470" s="19"/>
@@ -60948,11 +60965,10 @@
       <c r="U1470" s="7"/>
       <c r="V1470" s="42"/>
     </row>
-    <row r="1471" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1471" s="7" t="s">
+    <row r="1471" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1471" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1471" s="40"/>
       <c r="E1471" s="19"/>
       <c r="F1471" s="19"/>
       <c r="G1471" s="19"/>
@@ -60987,11 +61003,10 @@
       <c r="U1471" s="7"/>
       <c r="V1471" s="42"/>
     </row>
-    <row r="1472" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1472" s="7" t="s">
+    <row r="1472" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1472" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1472" s="40"/>
       <c r="E1472" s="19"/>
       <c r="F1472" s="19"/>
       <c r="G1472" s="19"/>
@@ -61024,15 +61039,14 @@
       <c r="S1472" s="7"/>
       <c r="T1472" s="7"/>
       <c r="U1472" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="V1472" s="42"/>
     </row>
-    <row r="1473" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1473" s="7" t="s">
+    <row r="1473" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1473" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1473" s="40"/>
       <c r="E1473" s="19"/>
       <c r="F1473" s="19"/>
       <c r="G1473" s="19"/>
@@ -61071,11 +61085,10 @@
         <v>782</v>
       </c>
     </row>
-    <row r="1474" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1474" s="7" t="s">
+    <row r="1474" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1474" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1474" s="40"/>
       <c r="E1474" s="19"/>
       <c r="F1474" s="19"/>
       <c r="G1474" s="19"/>
@@ -61114,11 +61127,10 @@
         <v>783</v>
       </c>
     </row>
-    <row r="1475" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1475" s="7" t="s">
+    <row r="1475" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1475" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1475" s="40"/>
       <c r="E1475" s="19"/>
       <c r="F1475" s="19"/>
       <c r="G1475" s="19"/>
@@ -61153,11 +61165,10 @@
       <c r="U1475" s="7"/>
       <c r="V1475" s="42"/>
     </row>
-    <row r="1476" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1476" s="7" t="s">
+    <row r="1476" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1476" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1476" s="40"/>
       <c r="E1476" s="19"/>
       <c r="F1476" s="19"/>
       <c r="G1476" s="19"/>
@@ -61192,11 +61203,10 @@
       <c r="U1476" s="7"/>
       <c r="V1476" s="42"/>
     </row>
-    <row r="1477" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1477" s="7" t="s">
+    <row r="1477" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1477" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1477" s="40"/>
       <c r="E1477" s="19"/>
       <c r="F1477" s="19"/>
       <c r="G1477" s="19"/>
@@ -61231,11 +61241,10 @@
       <c r="U1477" s="7"/>
       <c r="V1477" s="42"/>
     </row>
-    <row r="1478" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1478" s="7" t="s">
+    <row r="1478" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1478" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1478" s="40"/>
       <c r="E1478" s="19"/>
       <c r="F1478" s="19"/>
       <c r="G1478" s="19"/>
@@ -61274,11 +61283,10 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="1479" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1479" s="7" t="s">
+    <row r="1479" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1479" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1479" s="40"/>
       <c r="E1479" s="19"/>
       <c r="F1479" s="19"/>
       <c r="G1479" s="19"/>
@@ -61313,11 +61321,10 @@
       <c r="U1479" s="7"/>
       <c r="V1479" s="42"/>
     </row>
-    <row r="1480" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1480" s="7" t="s">
+    <row r="1480" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1480" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1480" s="40"/>
       <c r="E1480" s="19"/>
       <c r="F1480" s="19"/>
       <c r="G1480" s="19"/>
@@ -61352,11 +61359,10 @@
       <c r="U1480" s="7"/>
       <c r="V1480" s="42"/>
     </row>
-    <row r="1481" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1481" s="7" t="s">
+    <row r="1481" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1481" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1481" s="40"/>
       <c r="E1481" s="19"/>
       <c r="F1481" s="19"/>
       <c r="G1481" s="19"/>
@@ -61391,11 +61397,10 @@
       <c r="U1481" s="7"/>
       <c r="V1481" s="42"/>
     </row>
-    <row r="1482" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1482" s="7" t="s">
+    <row r="1482" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1482" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1482" s="40"/>
       <c r="E1482" s="19"/>
       <c r="F1482" s="19"/>
       <c r="G1482" s="19"/>
@@ -61430,11 +61435,10 @@
       <c r="U1482" s="7"/>
       <c r="V1482" s="42"/>
     </row>
-    <row r="1483" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1483" s="7" t="s">
+    <row r="1483" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1483" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1483" s="40"/>
       <c r="E1483" s="34"/>
       <c r="F1483" s="19"/>
       <c r="G1483" s="19"/>
@@ -61469,11 +61473,10 @@
       <c r="U1483" s="7"/>
       <c r="V1483" s="42"/>
     </row>
-    <row r="1484" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1484" s="7" t="s">
+    <row r="1484" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1484" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1484" s="40"/>
       <c r="E1484" s="34"/>
       <c r="F1484" s="19"/>
       <c r="G1484" s="19"/>
@@ -61508,11 +61511,10 @@
       <c r="U1484" s="7"/>
       <c r="V1484" s="42"/>
     </row>
-    <row r="1485" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1485" s="7" t="s">
+    <row r="1485" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1485" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1485" s="40"/>
       <c r="E1485" s="19"/>
       <c r="F1485" s="19"/>
       <c r="G1485" s="19"/>
@@ -61546,11 +61548,10 @@
       <c r="T1485" s="7"/>
       <c r="V1485" s="42"/>
     </row>
-    <row r="1486" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1486" s="7" t="s">
+    <row r="1486" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1486" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1486" s="40"/>
       <c r="E1486" s="19"/>
       <c r="F1486" s="19"/>
       <c r="G1486" s="19"/>
@@ -61585,11 +61586,10 @@
       <c r="U1486" s="7"/>
       <c r="V1486" s="42"/>
     </row>
-    <row r="1487" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1487" s="7" t="s">
+    <row r="1487" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1487" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1487" s="40"/>
       <c r="E1487" s="19"/>
       <c r="F1487" s="19"/>
       <c r="G1487" s="19"/>
@@ -61624,11 +61624,10 @@
       <c r="U1487" s="7"/>
       <c r="V1487" s="42"/>
     </row>
-    <row r="1488" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1488" s="7" t="s">
+    <row r="1488" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1488" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1488" s="40"/>
       <c r="E1488" s="19"/>
       <c r="F1488" s="19"/>
       <c r="G1488" s="19"/>
@@ -61663,11 +61662,10 @@
       <c r="U1488" s="7"/>
       <c r="V1488" s="42"/>
     </row>
-    <row r="1489" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1489" s="7" t="s">
+    <row r="1489" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1489" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1489" s="40"/>
       <c r="E1489" s="19"/>
       <c r="F1489" s="19"/>
       <c r="G1489" s="19"/>
@@ -61704,11 +61702,10 @@
       <c r="U1489" s="7"/>
       <c r="V1489" s="42"/>
     </row>
-    <row r="1490" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1490" s="7" t="s">
+    <row r="1490" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1490" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1490" s="40"/>
       <c r="E1490" s="19"/>
       <c r="F1490" s="19"/>
       <c r="G1490" s="19"/>
@@ -61747,11 +61744,10 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="1491" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1491" s="7" t="s">
+    <row r="1491" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1491" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1491" s="40"/>
       <c r="E1491" s="19"/>
       <c r="F1491" s="19"/>
       <c r="G1491" s="19"/>
@@ -61786,11 +61782,10 @@
       <c r="U1491" s="7"/>
       <c r="V1491" s="42"/>
     </row>
-    <row r="1492" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1492" s="7" t="s">
+    <row r="1492" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1492" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1492" s="40"/>
       <c r="E1492" s="19"/>
       <c r="F1492" s="19"/>
       <c r="G1492" s="19"/>
@@ -61825,11 +61820,10 @@
       <c r="U1492" s="7"/>
       <c r="V1492" s="42"/>
     </row>
-    <row r="1493" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1493" s="7" t="s">
+    <row r="1493" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1493" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1493" s="40"/>
       <c r="E1493" s="19"/>
       <c r="F1493" s="19"/>
       <c r="G1493" s="19"/>
@@ -61862,15 +61856,14 @@
       <c r="S1493" s="7"/>
       <c r="T1493" s="7"/>
       <c r="U1493" s="7" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="V1493" s="42"/>
     </row>
-    <row r="1494" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1494" s="7" t="s">
+    <row r="1494" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1494" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1494" s="40"/>
       <c r="E1494" s="19"/>
       <c r="F1494" s="19"/>
       <c r="G1494" s="19"/>
@@ -61907,11 +61900,10 @@
       <c r="U1494" s="7"/>
       <c r="V1494" s="42"/>
     </row>
-    <row r="1495" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1495" s="7" t="s">
+    <row r="1495" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1495" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1495" s="40"/>
       <c r="E1495" s="19"/>
       <c r="F1495" s="19"/>
       <c r="G1495" s="19"/>
@@ -61936,7 +61928,7 @@
         <f t="shared" si="71"/>
         <v>46</v>
       </c>
-      <c r="N1495" s="42" t="s">
+      <c r="N1495" s="66" t="s">
         <v>798</v>
       </c>
       <c r="O1495" s="6"/>
@@ -61945,16 +61937,13 @@
       <c r="R1495" s="7"/>
       <c r="S1495" s="7"/>
       <c r="T1495" s="7"/>
-      <c r="U1495" s="7" t="s">
-        <v>1462</v>
-      </c>
+      <c r="U1495" s="7"/>
       <c r="V1495" s="42"/>
     </row>
-    <row r="1496" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1496" s="7" t="s">
+    <row r="1496" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1496" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1496" s="40"/>
       <c r="E1496" s="19"/>
       <c r="F1496" s="19"/>
       <c r="G1496" s="19"/>
@@ -61979,7 +61968,7 @@
         <f t="shared" si="71"/>
         <v>47</v>
       </c>
-      <c r="N1496" s="42" t="s">
+      <c r="N1496" s="66" t="s">
         <v>799</v>
       </c>
       <c r="O1496" s="6"/>
@@ -61991,11 +61980,10 @@
       <c r="U1496" s="7"/>
       <c r="V1496" s="42"/>
     </row>
-    <row r="1497" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1497" s="7" t="s">
+    <row r="1497" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1497" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1497" s="40"/>
       <c r="E1497" s="19"/>
       <c r="F1497" s="19"/>
       <c r="G1497" s="19"/>
@@ -62034,11 +62022,10 @@
       <c r="U1497" s="7"/>
       <c r="V1497" s="42"/>
     </row>
-    <row r="1498" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1498" s="7" t="s">
+    <row r="1498" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1498" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1498" s="40"/>
       <c r="E1498" s="19"/>
       <c r="F1498" s="19"/>
       <c r="G1498" s="19"/>
@@ -62074,11 +62061,10 @@
       <c r="T1498" s="7"/>
       <c r="V1498" s="42"/>
     </row>
-    <row r="1499" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1499" s="7" t="s">
+    <row r="1499" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1499" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1499" s="40"/>
       <c r="E1499" s="19"/>
       <c r="F1499" s="19"/>
       <c r="G1499" s="19"/>
@@ -62117,11 +62103,10 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="1500" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1500" s="7" t="s">
+    <row r="1500" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1500" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1500" s="40"/>
       <c r="E1500" s="19"/>
       <c r="F1500" s="19"/>
       <c r="G1500" s="19"/>
@@ -62155,11 +62140,10 @@
       <c r="U1500" s="7"/>
       <c r="V1500" s="42"/>
     </row>
-    <row r="1501" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1501" s="7" t="s">
+    <row r="1501" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1501" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1501" s="40"/>
       <c r="E1501" s="19"/>
       <c r="F1501" s="19"/>
       <c r="G1501" s="19"/>
@@ -62194,11 +62178,10 @@
       <c r="U1501" s="7"/>
       <c r="V1501" s="42"/>
     </row>
-    <row r="1502" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1502" s="7" t="s">
+    <row r="1502" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1502" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1502" s="40"/>
       <c r="E1502" s="19"/>
       <c r="F1502" s="19"/>
       <c r="G1502" s="19"/>
@@ -62233,11 +62216,10 @@
       <c r="U1502" s="7"/>
       <c r="V1502" s="42"/>
     </row>
-    <row r="1503" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1503" s="7" t="s">
+    <row r="1503" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1503" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1503" s="40"/>
       <c r="E1503" s="19"/>
       <c r="F1503" s="34"/>
       <c r="G1503" s="19"/>
@@ -62272,11 +62254,10 @@
       <c r="U1503" s="7"/>
       <c r="V1503" s="42"/>
     </row>
-    <row r="1504" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1504" s="7" t="s">
+    <row r="1504" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1504" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1504" s="40"/>
       <c r="E1504" s="19"/>
       <c r="F1504" s="34"/>
       <c r="G1504" s="19"/>
@@ -62311,11 +62292,10 @@
       <c r="U1504" s="7"/>
       <c r="V1504" s="42"/>
     </row>
-    <row r="1505" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1505" s="7" t="s">
+    <row r="1505" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1505" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1505" s="40"/>
       <c r="E1505" s="19"/>
       <c r="F1505" s="19"/>
       <c r="G1505" s="19"/>
@@ -62352,11 +62332,10 @@
       </c>
       <c r="V1505" s="42"/>
     </row>
-    <row r="1506" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1506" s="7" t="s">
+    <row r="1506" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1506" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1506" s="40"/>
       <c r="E1506" s="19"/>
       <c r="F1506" s="19"/>
       <c r="G1506" s="19"/>
@@ -62391,11 +62370,10 @@
       <c r="U1506" s="7"/>
       <c r="V1506" s="42"/>
     </row>
-    <row r="1507" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1507" s="7" t="s">
+    <row r="1507" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1507" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1507" s="40"/>
       <c r="E1507" s="19"/>
       <c r="F1507" s="19"/>
       <c r="G1507" s="19"/>
@@ -62432,11 +62410,10 @@
       <c r="U1507" s="7"/>
       <c r="V1507" s="42"/>
     </row>
-    <row r="1508" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1508" s="7" t="s">
+    <row r="1508" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1508" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1508" s="40"/>
       <c r="E1508" s="19"/>
       <c r="F1508" s="19"/>
       <c r="G1508" s="19"/>
@@ -62471,11 +62448,10 @@
       <c r="U1508" s="7"/>
       <c r="V1508" s="42"/>
     </row>
-    <row r="1509" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1509" s="7" t="s">
+    <row r="1509" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1509" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1509" s="40"/>
       <c r="E1509" s="19"/>
       <c r="F1509" s="19"/>
       <c r="G1509" s="19"/>
@@ -62510,17 +62486,19 @@
       <c r="S1509" s="7"/>
       <c r="T1509" s="7"/>
       <c r="U1509" s="7" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="V1509" s="42" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="1510" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1510" s="7" t="s">
+    <row r="1510" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1510" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1510" s="40"/>
+      <c r="D1510" s="67" t="s">
+        <v>1534</v>
+      </c>
       <c r="E1510" s="19"/>
       <c r="F1510" s="19"/>
       <c r="G1510" s="19"/>
@@ -62557,12 +62535,17 @@
       <c r="U1510" s="7"/>
       <c r="V1510" s="42"/>
     </row>
-    <row r="1511" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1511" s="7" t="s">
+    <row r="1511" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="B1511" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C1511" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1511" s="40"/>
-      <c r="E1511" s="19"/>
+      <c r="D1511" s="67" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E1511" s="7"/>
       <c r="F1511" s="19"/>
       <c r="G1511" s="19"/>
       <c r="H1511" s="55" t="s">
@@ -62598,11 +62581,10 @@
       <c r="U1511" s="7"/>
       <c r="V1511" s="42"/>
     </row>
-    <row r="1512" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1512" s="7" t="s">
+    <row r="1512" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1512" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1512" s="40"/>
       <c r="E1512" s="19"/>
       <c r="F1512" s="19"/>
       <c r="G1512" s="19"/>
@@ -62639,11 +62621,10 @@
       <c r="U1512" s="7"/>
       <c r="V1512" s="42"/>
     </row>
-    <row r="1513" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1513" s="7" t="s">
+    <row r="1513" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1513" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1513" s="40"/>
       <c r="E1513" s="19"/>
       <c r="F1513" s="19"/>
       <c r="G1513" s="19"/>
@@ -62684,11 +62665,10 @@
         <v>812</v>
       </c>
     </row>
-    <row r="1514" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1514" s="7" t="s">
+    <row r="1514" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1514" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1514" s="40"/>
       <c r="E1514" s="19"/>
       <c r="F1514" s="19"/>
       <c r="G1514" s="34"/>
@@ -62725,17 +62705,16 @@
       <c r="S1514" s="7"/>
       <c r="T1514" s="7"/>
       <c r="U1514" s="7" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="V1514" s="42" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="1515" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1515" s="7" t="s">
+    <row r="1515" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1515" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1515" s="40"/>
       <c r="E1515" s="19"/>
       <c r="F1515" s="19"/>
       <c r="G1515" s="34"/>
@@ -62770,11 +62749,10 @@
       <c r="U1515" s="7"/>
       <c r="V1515" s="42"/>
     </row>
-    <row r="1516" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1516" s="7" t="s">
+    <row r="1516" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1516" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1516" s="40"/>
       <c r="E1516" s="19"/>
       <c r="F1516" s="19"/>
       <c r="G1516" s="34"/>
@@ -62813,11 +62791,10 @@
       <c r="U1516" s="7"/>
       <c r="V1516" s="42"/>
     </row>
-    <row r="1517" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1517" s="7" t="s">
+    <row r="1517" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1517" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1517" s="40"/>
       <c r="D1517" s="25"/>
       <c r="E1517" s="19"/>
       <c r="F1517" s="19"/>
@@ -62857,11 +62834,10 @@
         <v>815</v>
       </c>
     </row>
-    <row r="1518" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1518" s="7" t="s">
+    <row r="1518" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1518" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1518" s="40"/>
       <c r="E1518" s="19"/>
       <c r="F1518" s="19"/>
       <c r="G1518" s="19"/>
@@ -62900,11 +62876,10 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="1519" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1519" s="7" t="s">
+    <row r="1519" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1519" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1519" s="40"/>
       <c r="E1519" s="19"/>
       <c r="F1519" s="19"/>
       <c r="G1519" s="19"/>
@@ -62941,11 +62916,10 @@
       </c>
       <c r="V1519" s="42"/>
     </row>
-    <row r="1520" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1520" s="7" t="s">
+    <row r="1520" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1520" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1520" s="40"/>
       <c r="E1520" s="19"/>
       <c r="F1520" s="19"/>
       <c r="G1520" s="19"/>
@@ -62984,11 +62958,10 @@
         <v>818</v>
       </c>
     </row>
-    <row r="1521" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1521" s="7" t="s">
+    <row r="1521" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1521" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1521" s="40"/>
       <c r="E1521" s="19"/>
       <c r="F1521" s="19"/>
       <c r="G1521" s="19"/>
@@ -63023,11 +62996,10 @@
       <c r="U1521" s="7"/>
       <c r="V1521" s="42"/>
     </row>
-    <row r="1522" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1522" s="7" t="s">
+    <row r="1522" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1522" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1522" s="40"/>
       <c r="E1522" s="19"/>
       <c r="F1522" s="19"/>
       <c r="G1522" s="19"/>
@@ -63062,11 +63034,10 @@
       <c r="U1522" s="7"/>
       <c r="V1522" s="42"/>
     </row>
-    <row r="1523" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1523" s="7" t="s">
+    <row r="1523" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1523" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1523" s="40"/>
       <c r="E1523" s="19"/>
       <c r="F1523" s="19"/>
       <c r="G1523" s="19"/>
@@ -63105,11 +63076,10 @@
         <v>819</v>
       </c>
     </row>
-    <row r="1524" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1524" s="7" t="s">
+    <row r="1524" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1524" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1524" s="40"/>
       <c r="E1524" s="19"/>
       <c r="F1524" s="19"/>
       <c r="G1524" s="19"/>
@@ -63134,7 +63104,7 @@
         <f t="shared" si="71"/>
         <v>75</v>
       </c>
-      <c r="N1524" s="42" t="s">
+      <c r="N1524" s="66" t="s">
         <v>713</v>
       </c>
       <c r="O1524" s="6"/>
@@ -63143,16 +63113,13 @@
       <c r="R1524" s="7"/>
       <c r="S1524" s="7"/>
       <c r="T1524" s="7"/>
-      <c r="U1524" s="7" t="s">
-        <v>1486</v>
-      </c>
+      <c r="U1524" s="7"/>
       <c r="V1524" s="42"/>
     </row>
-    <row r="1525" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1525" s="7" t="s">
+    <row r="1525" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1525" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1525" s="40"/>
       <c r="E1525" s="19"/>
       <c r="F1525" s="19"/>
       <c r="G1525" s="19"/>
@@ -63193,11 +63160,10 @@
         <v>820</v>
       </c>
     </row>
-    <row r="1526" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1526" s="7" t="s">
+    <row r="1526" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1526" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1526" s="40"/>
       <c r="E1526" s="19"/>
       <c r="F1526" s="19"/>
       <c r="G1526" s="19"/>
@@ -63234,11 +63200,10 @@
       <c r="U1526" s="7"/>
       <c r="V1526" s="42"/>
     </row>
-    <row r="1527" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1527" s="7" t="s">
+    <row r="1527" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1527" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1527" s="40"/>
       <c r="E1527" s="19"/>
       <c r="F1527" s="19"/>
       <c r="G1527" s="19"/>
@@ -63275,11 +63240,10 @@
       <c r="U1527" s="7"/>
       <c r="V1527" s="42"/>
     </row>
-    <row r="1528" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1528" s="7" t="s">
+    <row r="1528" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1528" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1528" s="40"/>
       <c r="E1528" s="19"/>
       <c r="F1528" s="19"/>
       <c r="G1528" s="19"/>
@@ -63320,11 +63284,10 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="1529" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1529" s="7" t="s">
+    <row r="1529" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1529" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1529" s="40"/>
       <c r="E1529" s="19"/>
       <c r="F1529" s="19"/>
       <c r="G1529" s="19"/>
@@ -63359,11 +63322,10 @@
       <c r="U1529" s="7"/>
       <c r="V1529" s="42"/>
     </row>
-    <row r="1530" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1530" s="7" t="s">
+    <row r="1530" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1530" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1530" s="40"/>
       <c r="E1530" s="19"/>
       <c r="F1530" s="19"/>
       <c r="G1530" s="19"/>
@@ -63398,11 +63360,10 @@
       <c r="U1530" s="7"/>
       <c r="V1530" s="42"/>
     </row>
-    <row r="1531" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1531" s="7" t="s">
+    <row r="1531" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1531" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="C1531" s="40"/>
       <c r="E1531" s="19"/>
       <c r="F1531" s="19"/>
       <c r="G1531" s="19"/>
@@ -63437,8 +63398,8 @@
       <c r="U1531" s="7"/>
       <c r="V1531" s="42"/>
     </row>
-    <row r="1532" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1532" s="7" t="s">
+    <row r="1532" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1532" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1532" s="19"/>
@@ -63473,12 +63434,12 @@
       <c r="S1532" s="7"/>
       <c r="T1532" s="7"/>
       <c r="U1532" s="7" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="V1532" s="42"/>
     </row>
-    <row r="1533" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1533" s="7" t="s">
+    <row r="1533" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1533" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1533" s="19"/>
@@ -63515,8 +63476,8 @@
       <c r="U1533" s="7"/>
       <c r="V1533" s="42"/>
     </row>
-    <row r="1534" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1534" s="7" t="s">
+    <row r="1534" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1534" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1534" s="19"/>
@@ -63557,8 +63518,8 @@
         <v>824</v>
       </c>
     </row>
-    <row r="1535" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1535" s="7" t="s">
+    <row r="1535" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1535" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1535" s="19"/>
@@ -63595,8 +63556,8 @@
       <c r="U1535" s="7"/>
       <c r="V1535" s="42"/>
     </row>
-    <row r="1536" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1536" s="7" t="s">
+    <row r="1536" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1536" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1536" s="19"/>
@@ -63633,8 +63594,8 @@
       <c r="U1536" s="7"/>
       <c r="V1536" s="42"/>
     </row>
-    <row r="1537" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1537" s="7" t="s">
+    <row r="1537" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1537" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1537" s="19"/>
@@ -63675,8 +63636,8 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="1538" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1538" s="7" t="s">
+    <row r="1538" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1538" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1538" s="19"/>
@@ -63713,8 +63674,8 @@
       <c r="U1538" s="7"/>
       <c r="V1538" s="42"/>
     </row>
-    <row r="1539" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1539" s="7" t="s">
+    <row r="1539" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1539" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1539" s="19"/>
@@ -63751,8 +63712,8 @@
       <c r="U1539" s="7"/>
       <c r="V1539" s="42"/>
     </row>
-    <row r="1540" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1540" s="7" t="s">
+    <row r="1540" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1540" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1540" s="19"/>
@@ -63793,8 +63754,8 @@
         <v>828</v>
       </c>
     </row>
-    <row r="1541" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1541" s="7" t="s">
+    <row r="1541" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1541" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1541" s="19"/>
@@ -63835,8 +63796,8 @@
         <v>829</v>
       </c>
     </row>
-    <row r="1542" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1542" s="7" t="s">
+    <row r="1542" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1542" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1542" s="19"/>
@@ -63873,8 +63834,8 @@
       <c r="U1542" s="7"/>
       <c r="V1542" s="42"/>
     </row>
-    <row r="1543" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1543" s="7" t="s">
+    <row r="1543" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1543" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1543" s="19"/>
@@ -63911,8 +63872,8 @@
       <c r="U1543" s="7"/>
       <c r="V1543" s="42"/>
     </row>
-    <row r="1544" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1544" s="7" t="s">
+    <row r="1544" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1544" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1544" s="19"/>
@@ -63949,8 +63910,8 @@
       <c r="U1544" s="7"/>
       <c r="V1544" s="42"/>
     </row>
-    <row r="1545" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1545" s="7" t="s">
+    <row r="1545" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1545" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1545" s="19"/>
@@ -63987,8 +63948,8 @@
       <c r="U1545" s="7"/>
       <c r="V1545" s="42"/>
     </row>
-    <row r="1546" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1546" s="7" t="s">
+    <row r="1546" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1546" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1546" s="19"/>
@@ -64029,8 +63990,8 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="1547" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1547" s="7" t="s">
+    <row r="1547" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1547" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1547" s="19"/>
@@ -64067,8 +64028,8 @@
       <c r="U1547" s="7"/>
       <c r="V1547" s="42"/>
     </row>
-    <row r="1548" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1548" s="7" t="s">
+    <row r="1548" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1548" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1548" s="19"/>
@@ -64103,12 +64064,14 @@
       <c r="S1548" s="7" t="s">
         <v>1459</v>
       </c>
-      <c r="T1548" s="7"/>
+      <c r="T1548" s="7" t="s">
+        <v>1529</v>
+      </c>
       <c r="U1548" s="7"/>
       <c r="V1548" s="42"/>
     </row>
-    <row r="1549" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1549" s="7" t="s">
+    <row r="1549" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1549" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1549" s="19"/>
@@ -64145,8 +64108,8 @@
       <c r="U1549" s="7"/>
       <c r="V1549" s="42"/>
     </row>
-    <row r="1550" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1550" s="7" t="s">
+    <row r="1550" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1550" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1550" s="19"/>
@@ -64186,8 +64149,8 @@
         <v>835</v>
       </c>
     </row>
-    <row r="1551" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1551" s="7" t="s">
+    <row r="1551" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1551" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1551" s="19"/>
@@ -64224,8 +64187,8 @@
       <c r="U1551" s="7"/>
       <c r="V1551" s="42"/>
     </row>
-    <row r="1552" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1552" s="7" t="s">
+    <row r="1552" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1552" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1552" s="19"/>
@@ -64266,8 +64229,8 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="1553" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1553" s="7" t="s">
+    <row r="1553" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1553" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1553" s="19"/>
@@ -64304,8 +64267,8 @@
       <c r="U1553" s="7"/>
       <c r="V1553" s="42"/>
     </row>
-    <row r="1554" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1554" s="7" t="s">
+    <row r="1554" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1554" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1554" s="19"/>
@@ -64346,8 +64309,8 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="1555" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1555" s="7" t="s">
+    <row r="1555" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1555" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1555" s="19"/>
@@ -64386,8 +64349,8 @@
       <c r="U1555" s="7"/>
       <c r="V1555" s="42"/>
     </row>
-    <row r="1556" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1556" s="7" t="s">
+    <row r="1556" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1556" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1556" s="19"/>
@@ -64426,8 +64389,8 @@
       <c r="U1556" s="7"/>
       <c r="V1556" s="42"/>
     </row>
-    <row r="1557" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1557" s="7" t="s">
+    <row r="1557" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1557" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1557" s="19"/>
@@ -64454,7 +64417,7 @@
         <f t="shared" si="74"/>
         <v>108</v>
       </c>
-      <c r="N1557" s="42" t="s">
+      <c r="N1557" s="66" t="s">
         <v>840</v>
       </c>
       <c r="O1557" s="6"/>
@@ -64464,12 +64427,12 @@
       <c r="S1557" s="7"/>
       <c r="T1557" s="7"/>
       <c r="U1557" s="7" t="s">
-        <v>1523</v>
+        <v>1505</v>
       </c>
       <c r="V1557" s="42"/>
     </row>
-    <row r="1558" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1558" s="7" t="s">
+    <row r="1558" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1558" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1558" s="19"/>
@@ -64496,7 +64459,7 @@
         <f t="shared" si="74"/>
         <v>109</v>
       </c>
-      <c r="N1558" s="42" t="s">
+      <c r="N1558" s="66" t="s">
         <v>841</v>
       </c>
       <c r="O1558" s="6"/>
@@ -64508,8 +64471,8 @@
       <c r="U1558" s="7"/>
       <c r="V1558" s="42"/>
     </row>
-    <row r="1559" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1559" s="7" t="s">
+    <row r="1559" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1559" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1559" s="19"/>
@@ -64548,8 +64511,8 @@
       <c r="U1559" s="7"/>
       <c r="V1559" s="42"/>
     </row>
-    <row r="1560" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1560" s="7" t="s">
+    <row r="1560" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1560" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1560" s="19"/>
@@ -64585,13 +64548,11 @@
       <c r="R1560" s="7"/>
       <c r="S1560" s="7"/>
       <c r="T1560" s="7"/>
-      <c r="U1560" s="7" t="s">
-        <v>1486</v>
-      </c>
+      <c r="U1560" s="7"/>
       <c r="V1560" s="42"/>
     </row>
-    <row r="1561" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1561" s="7" t="s">
+    <row r="1561" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1561" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1561" s="19"/>
@@ -64625,11 +64586,13 @@
       <c r="R1561" s="7"/>
       <c r="S1561" s="7"/>
       <c r="T1561" s="7"/>
-      <c r="U1561" s="7"/>
+      <c r="U1561" s="7" t="s">
+        <v>1514</v>
+      </c>
       <c r="V1561" s="42"/>
     </row>
-    <row r="1562" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1562" s="7" t="s">
+    <row r="1562" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1562" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1562" s="19"/>
@@ -64666,8 +64629,8 @@
       <c r="U1562" s="7"/>
       <c r="V1562" s="42"/>
     </row>
-    <row r="1563" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1563" s="7" t="s">
+    <row r="1563" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1563" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1563" s="19"/>
@@ -64704,8 +64667,8 @@
       <c r="U1563" s="7"/>
       <c r="V1563" s="42"/>
     </row>
-    <row r="1564" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1564" s="7" t="s">
+    <row r="1564" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1564" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1564" s="19"/>
@@ -64746,8 +64709,8 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="1565" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1565" s="7" t="s">
+    <row r="1565" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1565" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1565" s="19"/>
@@ -64786,8 +64749,8 @@
       </c>
       <c r="V1565" s="42"/>
     </row>
-    <row r="1566" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1566" s="7" t="s">
+    <row r="1566" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1566" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1566" s="19"/>
@@ -64824,8 +64787,8 @@
       <c r="U1566" s="7"/>
       <c r="V1566" s="42"/>
     </row>
-    <row r="1567" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1567" s="7" t="s">
+    <row r="1567" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1567" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1567" s="19"/>
@@ -64866,8 +64829,8 @@
         <v>849</v>
       </c>
     </row>
-    <row r="1568" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1568" s="7" t="s">
+    <row r="1568" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1568" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1568" s="18"/>
@@ -64904,8 +64867,8 @@
       <c r="U1568" s="7"/>
       <c r="V1568" s="42"/>
     </row>
-    <row r="1569" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1569" s="7" t="s">
+    <row r="1569" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1569" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1569" s="19"/>
@@ -64942,8 +64905,8 @@
       <c r="U1569" s="7"/>
       <c r="V1569" s="42"/>
     </row>
-    <row r="1570" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1570" s="7" t="s">
+    <row r="1570" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1570" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1570" s="19"/>
@@ -64984,8 +64947,8 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="1571" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1571" s="7" t="s">
+    <row r="1571" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1571" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1571" s="19"/>
@@ -65022,8 +64985,8 @@
       <c r="U1571" s="7"/>
       <c r="V1571" s="42"/>
     </row>
-    <row r="1572" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1572" s="7" t="s">
+    <row r="1572" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1572" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1572" s="19"/>
@@ -65066,8 +65029,8 @@
         <v>853</v>
       </c>
     </row>
-    <row r="1573" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1573" s="7" t="s">
+    <row r="1573" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1573" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1573" s="19"/>
@@ -65104,8 +65067,8 @@
       <c r="U1573" s="7"/>
       <c r="V1573" s="42"/>
     </row>
-    <row r="1574" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1574" s="7" t="s">
+    <row r="1574" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1574" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1574" s="19"/>
@@ -65142,8 +65105,8 @@
       <c r="U1574" s="7"/>
       <c r="V1574" s="42"/>
     </row>
-    <row r="1575" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1575" s="7" t="s">
+    <row r="1575" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1575" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1575" s="19"/>
@@ -65188,8 +65151,8 @@
         <v>855</v>
       </c>
     </row>
-    <row r="1576" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1576" s="7" t="s">
+    <row r="1576" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1576" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1576" s="19"/>
@@ -65226,8 +65189,8 @@
       <c r="U1576" s="7"/>
       <c r="V1576" s="42"/>
     </row>
-    <row r="1577" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1577" s="7" t="s">
+    <row r="1577" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1577" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="E1577" s="19"/>
@@ -65264,8 +65227,8 @@
       <c r="U1577" s="7"/>
       <c r="V1577" s="42"/>
     </row>
-    <row r="1578" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1578" s="7" t="s">
+    <row r="1578" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1578" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1578" s="44" t="s">
@@ -65298,8 +65261,8 @@
       <c r="U1578" s="7"/>
       <c r="V1578" s="42"/>
     </row>
-    <row r="1579" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1579" s="7" t="s">
+    <row r="1579" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1579" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1579" s="44" t="s">
@@ -65338,8 +65301,8 @@
         <v>857</v>
       </c>
     </row>
-    <row r="1580" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1580" s="7" t="s">
+    <row r="1580" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1580" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1580" s="44" t="s">
@@ -65372,8 +65335,8 @@
       <c r="U1580" s="7"/>
       <c r="V1580" s="42"/>
     </row>
-    <row r="1581" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1581" s="7" t="s">
+    <row r="1581" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1581" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1581" s="44" t="s">
@@ -65399,8 +65362,8 @@
       </c>
       <c r="V1581" s="42"/>
     </row>
-    <row r="1582" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1582" s="7" t="s">
+    <row r="1582" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1582" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1582" s="44" t="s">
@@ -65431,8 +65394,8 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="1583" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1583" s="7" t="s">
+    <row r="1583" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1583" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1583" s="44" t="s">
@@ -65463,8 +65426,8 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1584" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1584" s="7" t="s">
+    <row r="1584" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1584" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1584" s="44" t="s">
@@ -65490,8 +65453,8 @@
       </c>
       <c r="V1584" s="42"/>
     </row>
-    <row r="1585" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1585" s="7" t="s">
+    <row r="1585" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1585" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1585" s="44" t="s">
@@ -65517,8 +65480,8 @@
       </c>
       <c r="V1585" s="42"/>
     </row>
-    <row r="1586" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1586" s="7" t="s">
+    <row r="1586" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1586" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1586" s="44" t="s">
@@ -65544,8 +65507,8 @@
       </c>
       <c r="V1586" s="42"/>
     </row>
-    <row r="1587" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1587" s="7" t="s">
+    <row r="1587" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1587" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1587" s="44" t="s">
@@ -65571,8 +65534,8 @@
       </c>
       <c r="V1587" s="42"/>
     </row>
-    <row r="1588" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1588" s="7" t="s">
+    <row r="1588" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1588" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1588" s="44" t="s">
@@ -65603,8 +65566,8 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="1589" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1589" s="7" t="s">
+    <row r="1589" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1589" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1589" s="55" t="s">
@@ -65633,8 +65596,8 @@
       </c>
       <c r="V1589" s="42"/>
     </row>
-    <row r="1590" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1590" s="7" t="s">
+    <row r="1590" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1590" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1590" s="55" t="s">
@@ -65663,8 +65626,8 @@
       </c>
       <c r="V1590" s="42"/>
     </row>
-    <row r="1591" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1591" s="7" t="s">
+    <row r="1591" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1591" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1591" s="55" t="s">
@@ -65701,8 +65664,8 @@
         <v>866</v>
       </c>
     </row>
-    <row r="1592" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1592" s="7" t="s">
+    <row r="1592" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1592" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1592" s="44" t="s">
@@ -65728,8 +65691,8 @@
       </c>
       <c r="V1592" s="42"/>
     </row>
-    <row r="1593" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1593" s="7" t="s">
+    <row r="1593" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1593" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1593" s="44" t="s">
@@ -65755,8 +65718,8 @@
       </c>
       <c r="V1593" s="42"/>
     </row>
-    <row r="1594" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1594" s="7" t="s">
+    <row r="1594" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1594" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1594" s="44" t="s">
@@ -65782,8 +65745,8 @@
       </c>
       <c r="V1594" s="42"/>
     </row>
-    <row r="1595" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1595" s="7" t="s">
+    <row r="1595" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1595" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1595" s="44" t="s">
@@ -65809,8 +65772,8 @@
       </c>
       <c r="V1595" s="42"/>
     </row>
-    <row r="1596" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1596" s="7" t="s">
+    <row r="1596" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1596" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1596" s="44" t="s">
@@ -65841,8 +65804,8 @@
         <v>870</v>
       </c>
     </row>
-    <row r="1597" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1597" s="7" t="s">
+    <row r="1597" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1597" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1597" s="44" t="s">
@@ -65868,8 +65831,8 @@
       </c>
       <c r="V1597" s="42"/>
     </row>
-    <row r="1598" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1598" s="7" t="s">
+    <row r="1598" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1598" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1598" s="44" t="s">
@@ -65895,8 +65858,8 @@
       </c>
       <c r="V1598" s="42"/>
     </row>
-    <row r="1599" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1599" s="7" t="s">
+    <row r="1599" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1599" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1599" s="44" t="s">
@@ -65922,8 +65885,8 @@
       </c>
       <c r="V1599" s="42"/>
     </row>
-    <row r="1600" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1600" s="7" t="s">
+    <row r="1600" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1600" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1600" s="44" t="s">
@@ -65953,8 +65916,8 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="1601" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1601" s="7" t="s">
+    <row r="1601" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1601" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1601" s="44" t="s">
@@ -65980,8 +65943,8 @@
       </c>
       <c r="V1601" s="42"/>
     </row>
-    <row r="1602" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1602" s="7" t="s">
+    <row r="1602" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1602" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1602" s="44" t="s">
@@ -66007,8 +65970,8 @@
       </c>
       <c r="V1602" s="42"/>
     </row>
-    <row r="1603" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1603" s="7" t="s">
+    <row r="1603" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1603" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1603" s="44" t="s">
@@ -66037,8 +66000,8 @@
       </c>
       <c r="V1603" s="42"/>
     </row>
-    <row r="1604" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1604" s="7" t="s">
+    <row r="1604" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1604" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1604" s="44" t="s">
@@ -66064,8 +66027,8 @@
       </c>
       <c r="V1604" s="42"/>
     </row>
-    <row r="1605" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1605" s="7" t="s">
+    <row r="1605" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1605" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1605" s="44" t="s">
@@ -66091,8 +66054,8 @@
       </c>
       <c r="V1605" s="42"/>
     </row>
-    <row r="1606" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1606" s="7" t="s">
+    <row r="1606" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1606" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1606" s="44" t="s">
@@ -66118,12 +66081,12 @@
       </c>
       <c r="V1606" s="42"/>
     </row>
-    <row r="1607" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1607" s="7" t="s">
+    <row r="1607" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1607" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="F1607" s="59" t="s">
-        <v>1500</v>
+      <c r="F1607" s="58" t="s">
+        <v>1498</v>
       </c>
       <c r="I1607" s="44" t="s">
         <v>1073</v>
@@ -66148,12 +66111,12 @@
       </c>
       <c r="V1607" s="42"/>
     </row>
-    <row r="1608" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1608" s="7" t="s">
+    <row r="1608" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1608" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="F1608" s="59" t="s">
-        <v>1500</v>
+      <c r="F1608" s="58" t="s">
+        <v>1498</v>
       </c>
       <c r="I1608" s="44" t="s">
         <v>1073</v>
@@ -66176,17 +66139,17 @@
       <c r="N1608" s="42" t="s">
         <v>879</v>
       </c>
-      <c r="S1608" s="1" t="s">
-        <v>1501</v>
+      <c r="S1608" s="7" t="s">
+        <v>1499</v>
       </c>
       <c r="V1608" s="42"/>
     </row>
-    <row r="1609" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1609" s="7" t="s">
+    <row r="1609" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1609" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="F1609" s="59" t="s">
-        <v>1500</v>
+      <c r="F1609" s="58" t="s">
+        <v>1498</v>
       </c>
       <c r="I1609" s="44" t="s">
         <v>1073</v>
@@ -66216,8 +66179,8 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="1610" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1610" s="7" t="s">
+    <row r="1610" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1610" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1610" s="44" t="s">
@@ -66248,8 +66211,8 @@
         <v>881</v>
       </c>
     </row>
-    <row r="1611" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1611" s="7" t="s">
+    <row r="1611" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1611" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1611" s="44" t="s">
@@ -66275,8 +66238,8 @@
       </c>
       <c r="V1611" s="42"/>
     </row>
-    <row r="1612" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1612" s="7" t="s">
+    <row r="1612" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1612" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1612" s="44" t="s">
@@ -66307,8 +66270,8 @@
         <v>882</v>
       </c>
     </row>
-    <row r="1613" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1613" s="7" t="s">
+    <row r="1613" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1613" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1613" s="44" t="s">
@@ -66339,8 +66302,8 @@
         <v>883</v>
       </c>
     </row>
-    <row r="1614" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1614" s="7" t="s">
+    <row r="1614" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1614" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1614" s="44" t="s">
@@ -66371,8 +66334,8 @@
         <v>884</v>
       </c>
     </row>
-    <row r="1615" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1615" s="7" t="s">
+    <row r="1615" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1615" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1615" s="44" t="s">
@@ -66403,8 +66366,8 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="1616" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1616" s="7" t="s">
+    <row r="1616" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1616" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1616" s="44" t="s">
@@ -66430,8 +66393,8 @@
       </c>
       <c r="V1616" s="42"/>
     </row>
-    <row r="1617" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1617" s="7" t="s">
+    <row r="1617" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1617" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1617" s="44" t="s">
@@ -66457,8 +66420,8 @@
       </c>
       <c r="V1617" s="42"/>
     </row>
-    <row r="1618" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1618" s="7" t="s">
+    <row r="1618" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1618" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1618" s="44" t="s">
@@ -66484,8 +66447,8 @@
       </c>
       <c r="V1618" s="42"/>
     </row>
-    <row r="1619" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1619" s="7" t="s">
+    <row r="1619" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1619" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1619" s="55" t="s">
@@ -66517,8 +66480,8 @@
       </c>
       <c r="V1619" s="42"/>
     </row>
-    <row r="1620" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1620" s="7" t="s">
+    <row r="1620" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1620" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1620" s="55" t="s">
@@ -66547,8 +66510,8 @@
       </c>
       <c r="V1620" s="42"/>
     </row>
-    <row r="1621" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1621" s="7" t="s">
+    <row r="1621" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1621" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1621" s="55" t="s">
@@ -66580,8 +66543,8 @@
       </c>
       <c r="V1621" s="42"/>
     </row>
-    <row r="1622" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1622" s="7" t="s">
+    <row r="1622" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1622" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1622" s="44" t="s">
@@ -66612,8 +66575,8 @@
         <v>890</v>
       </c>
     </row>
-    <row r="1623" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1623" s="7" t="s">
+    <row r="1623" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1623" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1623" s="44" t="s">
@@ -66639,8 +66602,8 @@
       </c>
       <c r="V1623" s="42"/>
     </row>
-    <row r="1624" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1624" s="7" t="s">
+    <row r="1624" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1624" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1624" s="44" t="s">
@@ -66671,8 +66634,8 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="1625" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1625" s="7" t="s">
+    <row r="1625" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1625" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1625" s="44" t="s">
@@ -66696,10 +66659,12 @@
       <c r="N1625" s="42" t="s">
         <v>893</v>
       </c>
+      <c r="S1625" s="7"/>
+      <c r="T1625" s="7"/>
       <c r="V1625" s="42"/>
     </row>
-    <row r="1626" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1626" s="7" t="s">
+    <row r="1626" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1626" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1626" s="44" t="s">
@@ -66723,13 +66688,16 @@
       <c r="N1626" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="S1626" s="1" t="s">
+      <c r="S1626" s="7" t="s">
         <v>1488</v>
       </c>
+      <c r="T1626" s="7" t="s">
+        <v>1489</v>
+      </c>
       <c r="V1626" s="42"/>
     </row>
-    <row r="1627" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1627" s="7" t="s">
+    <row r="1627" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1627" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1627" s="44" t="s">
@@ -66753,10 +66721,12 @@
       <c r="N1627" s="42" t="s">
         <v>844</v>
       </c>
+      <c r="S1627" s="7"/>
+      <c r="T1627" s="7"/>
       <c r="V1627" s="42"/>
     </row>
-    <row r="1628" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1628" s="7" t="s">
+    <row r="1628" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1628" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1628" s="55" t="s">
@@ -66783,10 +66753,12 @@
       <c r="N1628" s="42" t="s">
         <v>894</v>
       </c>
+      <c r="S1628" s="7"/>
+      <c r="T1628" s="7"/>
       <c r="V1628" s="42"/>
     </row>
-    <row r="1629" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1629" s="7" t="s">
+    <row r="1629" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1629" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1629" s="55" t="s">
@@ -66813,23 +66785,23 @@
       <c r="N1629" s="42" t="s">
         <v>895</v>
       </c>
-      <c r="S1629" s="1" t="s">
+      <c r="S1629" s="7" t="s">
         <v>1488</v>
       </c>
-      <c r="T1629" s="1" t="s">
+      <c r="T1629" s="7" t="s">
         <v>1489</v>
       </c>
       <c r="V1629" s="42"/>
     </row>
-    <row r="1630" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1630" s="7" t="s">
+    <row r="1630" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1630" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="D1630" s="60" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F1630" s="59" t="s">
-        <v>1503</v>
+      <c r="D1630" s="59" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F1630" s="58" t="s">
+        <v>1500</v>
       </c>
       <c r="H1630" s="55" t="s">
         <v>1487</v>
@@ -66855,23 +66827,23 @@
       <c r="N1630" s="42" t="s">
         <v>606</v>
       </c>
-      <c r="S1630" s="1" t="s">
-        <v>1502</v>
-      </c>
-      <c r="T1630" s="1" t="s">
-        <v>1490</v>
+      <c r="S1630" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="T1630" s="7" t="s">
+        <v>1535</v>
       </c>
       <c r="V1630" s="42"/>
     </row>
-    <row r="1631" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1631" s="7" t="s">
+    <row r="1631" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1631" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="D1631" s="60" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F1631" s="59" t="s">
-        <v>1503</v>
+      <c r="D1631" s="59" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F1631" s="58" t="s">
+        <v>1500</v>
       </c>
       <c r="H1631" s="55" t="s">
         <v>1487</v>
@@ -66904,8 +66876,8 @@
         <v>896</v>
       </c>
     </row>
-    <row r="1632" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1632" s="7" t="s">
+    <row r="1632" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1632" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1632" s="55" t="s">
@@ -66934,8 +66906,8 @@
       </c>
       <c r="V1632" s="42"/>
     </row>
-    <row r="1633" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1633" s="7" t="s">
+    <row r="1633" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1633" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1633" s="55" t="s">
@@ -66969,8 +66941,8 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="1634" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1634" s="7" t="s">
+    <row r="1634" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1634" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1634" s="44" t="s">
@@ -66996,8 +66968,8 @@
       </c>
       <c r="V1634" s="42"/>
     </row>
-    <row r="1635" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1635" s="7" t="s">
+    <row r="1635" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1635" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1635" s="44" t="s">
@@ -67023,8 +66995,8 @@
       </c>
       <c r="V1635" s="42"/>
     </row>
-    <row r="1636" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1636" s="7" t="s">
+    <row r="1636" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1636" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1636" s="44" t="s">
@@ -67050,8 +67022,8 @@
       </c>
       <c r="V1636" s="42"/>
     </row>
-    <row r="1637" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1637" s="7" t="s">
+    <row r="1637" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1637" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1637" s="44" t="s">
@@ -67077,8 +67049,8 @@
       </c>
       <c r="V1637" s="42"/>
     </row>
-    <row r="1638" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1638" s="7" t="s">
+    <row r="1638" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1638" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1638" s="44" t="s">
@@ -67102,13 +67074,13 @@
       <c r="N1638" s="42" t="s">
         <v>781</v>
       </c>
-      <c r="U1638" s="1" t="s">
+      <c r="U1638" s="7" t="s">
         <v>1486</v>
       </c>
       <c r="V1638" s="42"/>
     </row>
-    <row r="1639" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1639" s="7" t="s">
+    <row r="1639" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1639" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1639" s="44" t="s">
@@ -67132,10 +67104,11 @@
       <c r="N1639" s="42" t="s">
         <v>709</v>
       </c>
+      <c r="U1639" s="7"/>
       <c r="V1639" s="42"/>
     </row>
-    <row r="1640" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1640" s="7" t="s">
+    <row r="1640" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1640" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1640" s="44" t="s">
@@ -67159,10 +67132,11 @@
       <c r="N1640" s="42" t="s">
         <v>903</v>
       </c>
+      <c r="U1640" s="7"/>
       <c r="V1640" s="42"/>
     </row>
-    <row r="1641" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1641" s="7" t="s">
+    <row r="1641" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1641" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1641" s="44" t="s">
@@ -67186,10 +67160,11 @@
       <c r="N1641" s="42" t="s">
         <v>220</v>
       </c>
+      <c r="U1641" s="7"/>
       <c r="V1641" s="42"/>
     </row>
-    <row r="1642" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1642" s="7" t="s">
+    <row r="1642" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1642" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1642" s="44" t="s">
@@ -67219,12 +67194,13 @@
       <c r="P1642" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="U1642" s="7"/>
       <c r="V1642" s="42" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="1643" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1643" s="7" t="s">
+    <row r="1643" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1643" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1643" s="44" t="s">
@@ -67248,10 +67224,11 @@
       <c r="N1643" s="42" t="s">
         <v>713</v>
       </c>
+      <c r="U1643" s="7"/>
       <c r="V1643" s="42"/>
     </row>
-    <row r="1644" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1644" s="7" t="s">
+    <row r="1644" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1644" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1644" s="44" t="s">
@@ -67275,10 +67252,11 @@
       <c r="N1644" s="42" t="s">
         <v>590</v>
       </c>
+      <c r="U1644" s="7"/>
       <c r="V1644" s="42"/>
     </row>
-    <row r="1645" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1645" s="7" t="s">
+    <row r="1645" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1645" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1645" s="44" t="s">
@@ -67302,13 +67280,13 @@
       <c r="N1645" s="42" t="s">
         <v>840</v>
       </c>
-      <c r="U1645" s="1" t="s">
+      <c r="U1645" s="7" t="s">
         <v>1462</v>
       </c>
       <c r="V1645" s="42"/>
     </row>
-    <row r="1646" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1646" s="7" t="s">
+    <row r="1646" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1646" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1646" s="44" t="s">
@@ -67332,10 +67310,11 @@
       <c r="N1646" s="42" t="s">
         <v>905</v>
       </c>
+      <c r="U1646" s="7"/>
       <c r="V1646" s="42"/>
     </row>
-    <row r="1647" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1647" s="7" t="s">
+    <row r="1647" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1647" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1647" s="44" t="s">
@@ -67359,13 +67338,13 @@
       <c r="N1647" s="42" t="s">
         <v>906</v>
       </c>
-      <c r="U1647" s="1" t="s">
-        <v>1508</v>
+      <c r="U1647" s="7" t="s">
+        <v>1505</v>
       </c>
       <c r="V1647" s="42"/>
     </row>
-    <row r="1648" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1648" s="7" t="s">
+    <row r="1648" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1648" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1648" s="44" t="s">
@@ -67389,13 +67368,16 @@
       <c r="N1648" s="42" t="s">
         <v>833</v>
       </c>
-      <c r="S1648" s="1" t="s">
+      <c r="S1648" s="7" t="s">
         <v>1459</v>
       </c>
+      <c r="T1648" s="7" t="s">
+        <v>1536</v>
+      </c>
       <c r="V1648" s="42"/>
     </row>
-    <row r="1649" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1649" s="7" t="s">
+    <row r="1649" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1649" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1649" s="44" t="s">
@@ -67421,12 +67403,12 @@
       </c>
       <c r="V1649" s="42"/>
     </row>
-    <row r="1650" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1650" s="7" t="s">
+    <row r="1650" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1650" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1650" s="55" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="I1650" s="44" t="s">
         <v>1074</v>
@@ -67450,12 +67432,12 @@
       </c>
       <c r="V1650" s="42"/>
     </row>
-    <row r="1651" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1651" s="7" t="s">
+    <row r="1651" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1651" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1651" s="55" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="I1651" s="44" t="s">
         <v>1074</v>
@@ -67480,12 +67462,12 @@
       </c>
       <c r="V1651" s="42"/>
     </row>
-    <row r="1652" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1652" s="7" t="s">
+    <row r="1652" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1652" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1652" s="55" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="I1652" s="44" t="s">
         <v>1074</v>
@@ -67510,12 +67492,12 @@
       </c>
       <c r="V1652" s="42"/>
     </row>
-    <row r="1653" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1653" s="7" t="s">
+    <row r="1653" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1653" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1653" s="55" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="I1653" s="44" t="s">
         <v>1074</v>
@@ -67540,12 +67522,12 @@
       </c>
       <c r="V1653" s="42"/>
     </row>
-    <row r="1654" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1654" s="7" t="s">
+    <row r="1654" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1654" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1654" s="55" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="I1654" s="44" t="s">
         <v>1074</v>
@@ -67575,8 +67557,8 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="1655" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1655" s="7" t="s">
+    <row r="1655" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1655" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1655" s="44" t="s">
@@ -67602,8 +67584,8 @@
       </c>
       <c r="V1655" s="42"/>
     </row>
-    <row r="1656" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1656" s="7" t="s">
+    <row r="1656" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1656" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1656" s="44" t="s">
@@ -67629,8 +67611,8 @@
       </c>
       <c r="V1656" s="42"/>
     </row>
-    <row r="1657" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1657" s="7" t="s">
+    <row r="1657" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1657" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1657" s="44" t="s">
@@ -67656,8 +67638,8 @@
       </c>
       <c r="V1657" s="42"/>
     </row>
-    <row r="1658" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1658" s="7" t="s">
+    <row r="1658" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1658" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1658" s="44" t="s">
@@ -67686,8 +67668,8 @@
       </c>
       <c r="V1658" s="42"/>
     </row>
-    <row r="1659" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1659" s="7" t="s">
+    <row r="1659" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1659" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1659" s="44" t="s">
@@ -67713,8 +67695,8 @@
       </c>
       <c r="V1659" s="42"/>
     </row>
-    <row r="1660" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1660" s="7" t="s">
+    <row r="1660" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1660" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1660" s="44" t="s">
@@ -67740,8 +67722,8 @@
       </c>
       <c r="V1660" s="42"/>
     </row>
-    <row r="1661" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1661" s="7" t="s">
+    <row r="1661" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1661" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1661" s="44" t="s">
@@ -67767,8 +67749,8 @@
       </c>
       <c r="V1661" s="42"/>
     </row>
-    <row r="1662" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1662" s="7" t="s">
+    <row r="1662" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1662" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1662" s="44" t="s">
@@ -67794,8 +67776,8 @@
       </c>
       <c r="V1662" s="42"/>
     </row>
-    <row r="1663" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1663" s="7" t="s">
+    <row r="1663" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1663" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1663" s="44" t="s">
@@ -67821,8 +67803,8 @@
       </c>
       <c r="V1663" s="42"/>
     </row>
-    <row r="1664" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1664" s="7" t="s">
+    <row r="1664" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1664" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1664" s="44" t="s">
@@ -67848,8 +67830,8 @@
       </c>
       <c r="V1664" s="42"/>
     </row>
-    <row r="1665" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1665" s="7" t="s">
+    <row r="1665" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1665" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1665" s="44" t="s">
@@ -67875,8 +67857,8 @@
       </c>
       <c r="V1665" s="42"/>
     </row>
-    <row r="1666" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1666" s="7" t="s">
+    <row r="1666" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1666" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1666" s="44" t="s">
@@ -67903,15 +67885,15 @@
       <c r="P1666" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1666" s="1" t="s">
-        <v>1508</v>
+      <c r="U1666" s="7" t="s">
+        <v>1505</v>
       </c>
       <c r="V1666" s="42" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="1667" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1667" s="7" t="s">
+    <row r="1667" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1667" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1667" s="44" t="s">
@@ -67937,8 +67919,8 @@
       </c>
       <c r="V1667" s="42"/>
     </row>
-    <row r="1668" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1668" s="7" t="s">
+    <row r="1668" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1668" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1668" s="44" t="s">
@@ -67964,8 +67946,8 @@
       </c>
       <c r="V1668" s="42"/>
     </row>
-    <row r="1669" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1669" s="7" t="s">
+    <row r="1669" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1669" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1669" s="44" t="s">
@@ -67991,8 +67973,8 @@
       </c>
       <c r="V1669" s="42"/>
     </row>
-    <row r="1670" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1670" s="7" t="s">
+    <row r="1670" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1670" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1670" s="44" t="s">
@@ -68018,8 +68000,8 @@
       </c>
       <c r="V1670" s="42"/>
     </row>
-    <row r="1671" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1671" s="7" t="s">
+    <row r="1671" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1671" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1671" s="44" t="s">
@@ -68045,8 +68027,8 @@
       </c>
       <c r="V1671" s="42"/>
     </row>
-    <row r="1672" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1672" s="7" t="s">
+    <row r="1672" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1672" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1672" s="44" t="s">
@@ -68080,8 +68062,8 @@
         <v>920</v>
       </c>
     </row>
-    <row r="1673" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1673" s="7" t="s">
+    <row r="1673" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1673" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1673" s="44" t="s">
@@ -68107,8 +68089,8 @@
       </c>
       <c r="V1673" s="42"/>
     </row>
-    <row r="1674" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1674" s="7" t="s">
+    <row r="1674" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1674" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1674" s="44" t="s">
@@ -68142,8 +68124,8 @@
         <v>922</v>
       </c>
     </row>
-    <row r="1675" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1675" s="7" t="s">
+    <row r="1675" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1675" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1675" s="44" t="s">
@@ -68174,8 +68156,8 @@
         <v>923</v>
       </c>
     </row>
-    <row r="1676" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1676" s="7" t="s">
+    <row r="1676" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1676" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1676" s="44" t="s">
@@ -68202,15 +68184,15 @@
       <c r="O1676" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="U1676" s="1" t="s">
-        <v>1508</v>
+      <c r="U1676" s="7" t="s">
+        <v>1505</v>
       </c>
       <c r="V1676" s="42" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="1677" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1677" s="7" t="s">
+    <row r="1677" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1677" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1677" s="44" t="s">
@@ -68241,8 +68223,8 @@
         <v>925</v>
       </c>
     </row>
-    <row r="1678" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1678" s="7" t="s">
+    <row r="1678" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1678" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1678" s="44" t="s">
@@ -68276,8 +68258,8 @@
         <v>926</v>
       </c>
     </row>
-    <row r="1679" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1679" s="7" t="s">
+    <row r="1679" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1679" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1679" s="44" t="s">
@@ -68308,8 +68290,8 @@
         <v>927</v>
       </c>
     </row>
-    <row r="1680" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1680" s="7" t="s">
+    <row r="1680" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1680" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1680" s="44" t="s">
@@ -68335,8 +68317,8 @@
       </c>
       <c r="V1680" s="42"/>
     </row>
-    <row r="1681" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1681" s="7" t="s">
+    <row r="1681" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1681" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1681" s="44" t="s">
@@ -68362,8 +68344,8 @@
       </c>
       <c r="V1681" s="42"/>
     </row>
-    <row r="1682" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1682" s="7" t="s">
+    <row r="1682" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1682" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1682" s="44" t="s">
@@ -68394,8 +68376,8 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="1683" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1683" s="7" t="s">
+    <row r="1683" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1683" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1683" s="44" t="s">
@@ -68426,8 +68408,8 @@
         <v>929</v>
       </c>
     </row>
-    <row r="1684" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1684" s="7" t="s">
+    <row r="1684" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1684" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1684" s="44" t="s">
@@ -68456,8 +68438,8 @@
       </c>
       <c r="V1684" s="42"/>
     </row>
-    <row r="1685" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1685" s="7" t="s">
+    <row r="1685" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1685" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1685" s="44" t="s">
@@ -68483,8 +68465,8 @@
       </c>
       <c r="V1685" s="42"/>
     </row>
-    <row r="1686" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1686" s="7" t="s">
+    <row r="1686" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1686" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1686" s="44" t="s">
@@ -68510,8 +68492,8 @@
       </c>
       <c r="V1686" s="42"/>
     </row>
-    <row r="1687" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1687" s="7" t="s">
+    <row r="1687" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1687" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1687" s="44" t="s">
@@ -68537,8 +68519,8 @@
       </c>
       <c r="V1687" s="42"/>
     </row>
-    <row r="1688" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1688" s="7" t="s">
+    <row r="1688" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1688" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1688" s="44" t="s">
@@ -68567,8 +68549,8 @@
       </c>
       <c r="V1688" s="42"/>
     </row>
-    <row r="1689" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1689" s="7" t="s">
+    <row r="1689" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1689" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1689" s="44" t="s">
@@ -68599,8 +68581,8 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="1690" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1690" s="7" t="s">
+    <row r="1690" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1690" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1690" s="44" t="s">
@@ -68631,8 +68613,8 @@
         <v>932</v>
       </c>
     </row>
-    <row r="1691" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1691" s="7" t="s">
+    <row r="1691" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1691" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1691" s="44" t="s">
@@ -68658,8 +68640,8 @@
       </c>
       <c r="V1691" s="42"/>
     </row>
-    <row r="1692" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1692" s="7" t="s">
+    <row r="1692" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1692" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1692" s="44" t="s">
@@ -68686,15 +68668,15 @@
       <c r="P1692" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1692" s="1" t="s">
-        <v>1522</v>
+      <c r="U1692" s="7" t="s">
+        <v>1515</v>
       </c>
       <c r="V1692" s="42" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="1693" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1693" s="7" t="s">
+    <row r="1693" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1693" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1693" s="44" t="s">
@@ -68720,8 +68702,8 @@
       </c>
       <c r="V1693" s="42"/>
     </row>
-    <row r="1694" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1694" s="7" t="s">
+    <row r="1694" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1694" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1694" s="44" t="s">
@@ -68747,8 +68729,8 @@
       </c>
       <c r="V1694" s="42"/>
     </row>
-    <row r="1695" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1695" s="7" t="s">
+    <row r="1695" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1695" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1695" s="44" t="s">
@@ -68774,8 +68756,8 @@
       </c>
       <c r="V1695" s="42"/>
     </row>
-    <row r="1696" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1696" s="7" t="s">
+    <row r="1696" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1696" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1696" s="44" t="s">
@@ -68806,8 +68788,8 @@
         <v>936</v>
       </c>
     </row>
-    <row r="1697" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1697" s="7" t="s">
+    <row r="1697" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1697" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1697" s="44" t="s">
@@ -68833,8 +68815,8 @@
       </c>
       <c r="V1697" s="42"/>
     </row>
-    <row r="1698" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1698" s="7" t="s">
+    <row r="1698" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1698" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1698" s="44" t="s">
@@ -68865,8 +68847,8 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="1699" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1699" s="7" t="s">
+    <row r="1699" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1699" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1699" s="44" t="s">
@@ -68897,8 +68879,8 @@
         <v>938</v>
       </c>
     </row>
-    <row r="1700" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1700" s="7" t="s">
+    <row r="1700" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1700" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1700" s="44" t="s">
@@ -68928,8 +68910,8 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="1701" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1701" s="7" t="s">
+    <row r="1701" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1701" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1701" s="44" t="s">
@@ -68958,8 +68940,8 @@
       </c>
       <c r="V1701" s="42"/>
     </row>
-    <row r="1702" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1702" s="7" t="s">
+    <row r="1702" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1702" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1702" s="44" t="s">
@@ -68983,16 +68965,16 @@
       <c r="N1702" s="42" t="s">
         <v>940</v>
       </c>
-      <c r="S1702" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="T1702" s="1" t="s">
+      <c r="S1702" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="T1702" s="7" t="s">
         <v>1489</v>
       </c>
       <c r="V1702" s="42"/>
     </row>
-    <row r="1703" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1703" s="7" t="s">
+    <row r="1703" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1703" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1703" s="44" t="s">
@@ -69018,8 +69000,8 @@
       </c>
       <c r="V1703" s="42"/>
     </row>
-    <row r="1704" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1704" s="7" t="s">
+    <row r="1704" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1704" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1704" s="44" t="s">
@@ -69045,8 +69027,8 @@
       </c>
       <c r="V1704" s="42"/>
     </row>
-    <row r="1705" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1705" s="7" t="s">
+    <row r="1705" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1705" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1705" s="44" t="s">
@@ -69072,8 +69054,8 @@
       </c>
       <c r="V1705" s="42"/>
     </row>
-    <row r="1706" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1706" s="7" t="s">
+    <row r="1706" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1706" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1706" s="44" t="s">
@@ -69102,8 +69084,8 @@
       </c>
       <c r="V1706" s="42"/>
     </row>
-    <row r="1707" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1707" s="7" t="s">
+    <row r="1707" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1707" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1707" s="44" t="s">
@@ -69127,16 +69109,16 @@
       <c r="N1707" s="42" t="s">
         <v>943</v>
       </c>
-      <c r="S1707" s="1" t="s">
+      <c r="S1707" s="7" t="s">
         <v>1489</v>
       </c>
-      <c r="T1707" s="1" t="s">
+      <c r="T1707" s="7" t="s">
         <v>1473</v>
       </c>
       <c r="V1707" s="42"/>
     </row>
-    <row r="1708" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1708" s="7" t="s">
+    <row r="1708" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1708" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1708" s="44" t="s">
@@ -69167,8 +69149,8 @@
         <v>944</v>
       </c>
     </row>
-    <row r="1709" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1709" s="7" t="s">
+    <row r="1709" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1709" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1709" s="44" t="s">
@@ -69199,8 +69181,8 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="1710" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1710" s="7" t="s">
+    <row r="1710" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1710" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1710" s="44" t="s">
@@ -69226,8 +69208,8 @@
       </c>
       <c r="V1710" s="42"/>
     </row>
-    <row r="1711" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1711" s="7" t="s">
+    <row r="1711" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1711" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1711" s="44" t="s">
@@ -69253,8 +69235,8 @@
       </c>
       <c r="V1711" s="42"/>
     </row>
-    <row r="1712" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1712" s="7" t="s">
+    <row r="1712" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1712" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1712" s="44" t="s">
@@ -69280,8 +69262,8 @@
       </c>
       <c r="V1712" s="42"/>
     </row>
-    <row r="1713" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1713" s="7" t="s">
+    <row r="1713" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1713" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1713" s="44" t="s">
@@ -69307,8 +69289,8 @@
       </c>
       <c r="V1713" s="42"/>
     </row>
-    <row r="1714" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1714" s="7" t="s">
+    <row r="1714" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1714" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1714" s="44" t="s">
@@ -69339,8 +69321,8 @@
         <v>950</v>
       </c>
     </row>
-    <row r="1715" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1715" s="7" t="s">
+    <row r="1715" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1715" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1715" s="44" t="s">
@@ -69366,8 +69348,8 @@
       </c>
       <c r="V1715" s="42"/>
     </row>
-    <row r="1716" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1716" s="7" t="s">
+    <row r="1716" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1716" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1716" s="44" t="s">
@@ -69398,8 +69380,8 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="1717" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1717" s="7" t="s">
+    <row r="1717" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1717" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1717" s="44" t="s">
@@ -69428,8 +69410,8 @@
       </c>
       <c r="V1717" s="42"/>
     </row>
-    <row r="1718" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1718" s="7" t="s">
+    <row r="1718" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1718" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1718" s="44" t="s">
@@ -69455,8 +69437,8 @@
       </c>
       <c r="V1718" s="42"/>
     </row>
-    <row r="1719" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1719" s="7" t="s">
+    <row r="1719" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1719" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1719" s="44" t="s">
@@ -69485,8 +69467,8 @@
       </c>
       <c r="V1719" s="42"/>
     </row>
-    <row r="1720" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1720" s="7" t="s">
+    <row r="1720" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1720" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1720" s="44" t="s">
@@ -69512,8 +69494,8 @@
       </c>
       <c r="V1720" s="42"/>
     </row>
-    <row r="1721" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1721" s="7" t="s">
+    <row r="1721" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1721" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1721" s="44" t="s">
@@ -69544,8 +69526,8 @@
         <v>954</v>
       </c>
     </row>
-    <row r="1722" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1722" s="7" t="s">
+    <row r="1722" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1722" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1722" s="44" t="s">
@@ -69571,12 +69553,12 @@
       </c>
       <c r="V1722" s="42"/>
     </row>
-    <row r="1723" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1723" s="7" t="s">
+    <row r="1723" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1723" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="G1723" s="59" t="s">
-        <v>1498</v>
+      <c r="G1723" s="58" t="s">
+        <v>1496</v>
       </c>
       <c r="I1723" s="44" t="s">
         <v>1075</v>
@@ -69601,12 +69583,12 @@
       </c>
       <c r="V1723" s="42"/>
     </row>
-    <row r="1724" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1724" s="7" t="s">
+    <row r="1724" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1724" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="G1724" s="59" t="s">
-        <v>1498</v>
+      <c r="G1724" s="58" t="s">
+        <v>1496</v>
       </c>
       <c r="I1724" s="44" t="s">
         <v>1075</v>
@@ -69631,12 +69613,12 @@
       </c>
       <c r="V1724" s="42"/>
     </row>
-    <row r="1725" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1725" s="7" t="s">
+    <row r="1725" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1725" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="G1725" s="59" t="s">
-        <v>1498</v>
+      <c r="G1725" s="58" t="s">
+        <v>1496</v>
       </c>
       <c r="I1725" s="44" t="s">
         <v>1075</v>
@@ -69666,8 +69648,8 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="1726" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1726" s="7" t="s">
+    <row r="1726" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1726" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1726" s="44" t="s">
@@ -69696,8 +69678,8 @@
       </c>
       <c r="V1726" s="42"/>
     </row>
-    <row r="1727" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1727" s="7" t="s">
+    <row r="1727" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1727" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1727" s="44" t="s">
@@ -69723,8 +69705,8 @@
       </c>
       <c r="V1727" s="42"/>
     </row>
-    <row r="1728" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1728" s="7" t="s">
+    <row r="1728" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1728" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1728" s="44" t="s">
@@ -69750,8 +69732,8 @@
       </c>
       <c r="V1728" s="42"/>
     </row>
-    <row r="1729" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1729" s="7" t="s">
+    <row r="1729" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1729" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1729" s="44" t="s">
@@ -69777,8 +69759,8 @@
       </c>
       <c r="V1729" s="42"/>
     </row>
-    <row r="1730" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1730" s="7" t="s">
+    <row r="1730" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1730" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1730" s="44" t="s">
@@ -69812,8 +69794,8 @@
         <v>962</v>
       </c>
     </row>
-    <row r="1731" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1731" s="7" t="s">
+    <row r="1731" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1731" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1731" s="44" t="s">
@@ -69844,8 +69826,8 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="1732" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1732" s="7" t="s">
+    <row r="1732" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1732" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1732" s="44" t="s">
@@ -69869,13 +69851,13 @@
       <c r="N1732" s="42" t="s">
         <v>781</v>
       </c>
-      <c r="U1732" s="1" t="s">
-        <v>1522</v>
+      <c r="U1732" s="7" t="s">
+        <v>1515</v>
       </c>
       <c r="V1732" s="42"/>
     </row>
-    <row r="1733" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1733" s="7" t="s">
+    <row r="1733" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1733" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1733" s="44" t="s">
@@ -69902,16 +69884,17 @@
       <c r="O1733" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="U1733" s="7"/>
       <c r="V1733" s="42" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="1734" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1734" s="7" t="s">
+    <row r="1734" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1734" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1734" s="55" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I1734" s="44" t="s">
         <v>1075</v>
@@ -69934,14 +69917,15 @@
       <c r="N1734" s="42" t="s">
         <v>915</v>
       </c>
+      <c r="U1734" s="7"/>
       <c r="V1734" s="42"/>
     </row>
-    <row r="1735" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1735" s="7" t="s">
+    <row r="1735" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1735" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1735" s="55" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I1735" s="44" t="s">
         <v>1075</v>
@@ -69964,17 +69948,15 @@
       <c r="N1735" s="42" t="s">
         <v>964</v>
       </c>
-      <c r="U1735" s="57" t="s">
-        <v>1493</v>
-      </c>
+      <c r="U1735" s="7"/>
       <c r="V1735" s="42"/>
     </row>
-    <row r="1736" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1736" s="7" t="s">
+    <row r="1736" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1736" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1736" s="55" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="I1736" s="44" t="s">
         <v>1075</v>
@@ -69999,8 +69981,8 @@
       </c>
       <c r="V1736" s="42"/>
     </row>
-    <row r="1737" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1737" s="7" t="s">
+    <row r="1737" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1737" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1737" s="55"/>
@@ -70032,8 +70014,8 @@
         <v>966</v>
       </c>
     </row>
-    <row r="1738" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1738" s="7" t="s">
+    <row r="1738" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1738" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1738" s="44" t="s">
@@ -70064,12 +70046,12 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="1739" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1739" s="7" t="s">
+    <row r="1739" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1739" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1739" s="55" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="I1739" s="44" t="s">
         <v>1075</v>
@@ -70097,12 +70079,12 @@
       </c>
       <c r="V1739" s="42"/>
     </row>
-    <row r="1740" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1740" s="7" t="s">
+    <row r="1740" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1740" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1740" s="55" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="I1740" s="44" t="s">
         <v>1075</v>
@@ -70127,12 +70109,12 @@
       </c>
       <c r="V1740" s="42"/>
     </row>
-    <row r="1741" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1741" s="7" t="s">
+    <row r="1741" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1741" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1741" s="55" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="I1741" s="44" t="s">
         <v>1075</v>
@@ -70157,12 +70139,12 @@
       </c>
       <c r="V1741" s="42"/>
     </row>
-    <row r="1742" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1742" s="7" t="s">
+    <row r="1742" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1742" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1742" s="55" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="I1742" s="44" t="s">
         <v>1075</v>
@@ -70187,12 +70169,12 @@
       </c>
       <c r="V1742" s="42"/>
     </row>
-    <row r="1743" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1743" s="7" t="s">
+    <row r="1743" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1743" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1743" s="55" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="I1743" s="44" t="s">
         <v>1075</v>
@@ -70222,8 +70204,8 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="1744" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1744" s="7" t="s">
+    <row r="1744" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1744" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1744" s="44" t="s">
@@ -70249,8 +70231,8 @@
       </c>
       <c r="V1744" s="42"/>
     </row>
-    <row r="1745" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1745" s="7" t="s">
+    <row r="1745" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1745" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1745" s="44" t="s">
@@ -70276,8 +70258,8 @@
       </c>
       <c r="V1745" s="42"/>
     </row>
-    <row r="1746" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1746" s="7" t="s">
+    <row r="1746" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1746" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1746" s="44" t="s">
@@ -70303,8 +70285,8 @@
       </c>
       <c r="V1746" s="42"/>
     </row>
-    <row r="1747" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1747" s="7" t="s">
+    <row r="1747" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1747" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1747" s="44" t="s">
@@ -70330,8 +70312,8 @@
       </c>
       <c r="V1747" s="42"/>
     </row>
-    <row r="1748" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1748" s="7" t="s">
+    <row r="1748" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1748" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1748" s="44" t="s">
@@ -70357,8 +70339,8 @@
       </c>
       <c r="V1748" s="42"/>
     </row>
-    <row r="1749" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1749" s="7" t="s">
+    <row r="1749" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1749" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1749" s="44" t="s">
@@ -70392,12 +70374,12 @@
         <v>975</v>
       </c>
     </row>
-    <row r="1750" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1750" s="7" t="s">
+    <row r="1750" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1750" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1750" s="55" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="I1750" s="44" t="s">
         <v>1076</v>
@@ -70421,12 +70403,12 @@
       </c>
       <c r="V1750" s="42"/>
     </row>
-    <row r="1751" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1751" s="7" t="s">
+    <row r="1751" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1751" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1751" s="55" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="I1751" s="44" t="s">
         <v>1076</v>
@@ -70451,12 +70433,12 @@
       </c>
       <c r="V1751" s="42"/>
     </row>
-    <row r="1752" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1752" s="7" t="s">
+    <row r="1752" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1752" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1752" s="55" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="I1752" s="44" t="s">
         <v>1076</v>
@@ -70484,12 +70466,12 @@
       </c>
       <c r="V1752" s="42"/>
     </row>
-    <row r="1753" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1753" s="7" t="s">
+    <row r="1753" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1753" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1753" s="55" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="I1753" s="44" t="s">
         <v>1076</v>
@@ -70519,8 +70501,8 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="1754" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1754" s="7" t="s">
+    <row r="1754" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1754" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1754" s="44" t="s">
@@ -70544,13 +70526,13 @@
       <c r="N1754" s="42" t="s">
         <v>979</v>
       </c>
-      <c r="U1754" s="1" t="s">
+      <c r="U1754" s="7" t="s">
         <v>1486</v>
       </c>
       <c r="V1754" s="42"/>
     </row>
-    <row r="1755" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1755" s="7" t="s">
+    <row r="1755" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1755" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1755" s="44" t="s">
@@ -70576,8 +70558,8 @@
       </c>
       <c r="V1755" s="42"/>
     </row>
-    <row r="1756" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1756" s="7" t="s">
+    <row r="1756" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1756" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1756" s="44" t="s">
@@ -70603,8 +70585,8 @@
       </c>
       <c r="V1756" s="42"/>
     </row>
-    <row r="1757" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1757" s="7" t="s">
+    <row r="1757" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1757" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1757" s="44" t="s">
@@ -70630,8 +70612,8 @@
       </c>
       <c r="V1757" s="42"/>
     </row>
-    <row r="1758" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1758" s="7" t="s">
+    <row r="1758" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1758" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1758" s="44" t="s">
@@ -70657,8 +70639,8 @@
       </c>
       <c r="V1758" s="42"/>
     </row>
-    <row r="1759" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1759" s="7" t="s">
+    <row r="1759" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1759" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1759" s="44" t="s">
@@ -70689,8 +70671,8 @@
         <v>981</v>
       </c>
     </row>
-    <row r="1760" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1760" s="7" t="s">
+    <row r="1760" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1760" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1760" s="44" t="s">
@@ -70716,8 +70698,8 @@
       </c>
       <c r="V1760" s="42"/>
     </row>
-    <row r="1761" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1761" s="7" t="s">
+    <row r="1761" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1761" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1761" s="44" t="s">
@@ -70743,8 +70725,8 @@
       </c>
       <c r="V1761" s="42"/>
     </row>
-    <row r="1762" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1762" s="7" t="s">
+    <row r="1762" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1762" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1762" s="44" t="s">
@@ -70775,8 +70757,8 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="1763" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1763" s="7" t="s">
+    <row r="1763" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1763" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1763" s="44" t="s">
@@ -70802,8 +70784,8 @@
       </c>
       <c r="V1763" s="42"/>
     </row>
-    <row r="1764" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1764" s="7" t="s">
+    <row r="1764" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1764" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1764" s="44" t="s">
@@ -70834,8 +70816,8 @@
         <v>984</v>
       </c>
     </row>
-    <row r="1765" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1765" s="7" t="s">
+    <row r="1765" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1765" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1765" s="44" t="s">
@@ -70861,8 +70843,8 @@
       </c>
       <c r="V1765" s="42"/>
     </row>
-    <row r="1766" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1766" s="7" t="s">
+    <row r="1766" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1766" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1766" s="44" t="s">
@@ -70888,8 +70870,8 @@
       </c>
       <c r="V1766" s="42"/>
     </row>
-    <row r="1767" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1767" s="7" t="s">
+    <row r="1767" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1767" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1767" s="44" t="s">
@@ -70915,8 +70897,8 @@
       </c>
       <c r="V1767" s="42"/>
     </row>
-    <row r="1768" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1768" s="7" t="s">
+    <row r="1768" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1768" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1768" s="44" t="s">
@@ -70942,8 +70924,8 @@
       </c>
       <c r="V1768" s="42"/>
     </row>
-    <row r="1769" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1769" s="7" t="s">
+    <row r="1769" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1769" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1769" s="44" t="s">
@@ -70969,8 +70951,8 @@
       </c>
       <c r="V1769" s="42"/>
     </row>
-    <row r="1770" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1770" s="7" t="s">
+    <row r="1770" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1770" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1770" s="44" t="s">
@@ -71001,8 +70983,8 @@
         <v>988</v>
       </c>
     </row>
-    <row r="1771" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1771" s="7" t="s">
+    <row r="1771" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1771" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1771" s="44" t="s">
@@ -71036,8 +71018,8 @@
         <v>989</v>
       </c>
     </row>
-    <row r="1772" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1772" s="7" t="s">
+    <row r="1772" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1772" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1772" s="44" t="s">
@@ -71066,8 +71048,8 @@
       </c>
       <c r="V1772" s="42"/>
     </row>
-    <row r="1773" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1773" s="7" t="s">
+    <row r="1773" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1773" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1773" s="44" t="s">
@@ -71093,8 +71075,8 @@
       </c>
       <c r="V1773" s="42"/>
     </row>
-    <row r="1774" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1774" s="7" t="s">
+    <row r="1774" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1774" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1774" s="44" t="s">
@@ -71118,13 +71100,13 @@
       <c r="N1774" s="42" t="s">
         <v>991</v>
       </c>
-      <c r="U1774" s="1" t="s">
+      <c r="U1774" s="7" t="s">
         <v>1462</v>
       </c>
       <c r="V1774" s="42"/>
     </row>
-    <row r="1775" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1775" s="7" t="s">
+    <row r="1775" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1775" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1775" s="44" t="s">
@@ -71150,8 +71132,8 @@
       </c>
       <c r="V1775" s="42"/>
     </row>
-    <row r="1776" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1776" s="7" t="s">
+    <row r="1776" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1776" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1776" s="44" t="s">
@@ -71177,8 +71159,8 @@
       </c>
       <c r="V1776" s="42"/>
     </row>
-    <row r="1777" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1777" s="7" t="s">
+    <row r="1777" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1777" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1777" s="44" t="s">
@@ -71204,8 +71186,8 @@
       </c>
       <c r="V1777" s="42"/>
     </row>
-    <row r="1778" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1778" s="7" t="s">
+    <row r="1778" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1778" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1778" s="44" t="s">
@@ -71231,8 +71213,8 @@
       </c>
       <c r="V1778" s="42"/>
     </row>
-    <row r="1779" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1779" s="7" t="s">
+    <row r="1779" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1779" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1779" s="44" t="s">
@@ -71258,8 +71240,8 @@
       </c>
       <c r="V1779" s="42"/>
     </row>
-    <row r="1780" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1780" s="7" t="s">
+    <row r="1780" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1780" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1780" s="44" t="s">
@@ -71285,8 +71267,8 @@
       </c>
       <c r="V1780" s="42"/>
     </row>
-    <row r="1781" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1781" s="7" t="s">
+    <row r="1781" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1781" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1781" s="44" t="s">
@@ -71312,8 +71294,8 @@
       </c>
       <c r="V1781" s="42"/>
     </row>
-    <row r="1782" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1782" s="7" t="s">
+    <row r="1782" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1782" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1782" s="44" t="s">
@@ -71339,8 +71321,8 @@
       </c>
       <c r="V1782" s="42"/>
     </row>
-    <row r="1783" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1783" s="7" t="s">
+    <row r="1783" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1783" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1783" s="44" t="s">
@@ -71371,8 +71353,8 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="1784" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1784" s="7" t="s">
+    <row r="1784" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1784" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1784" s="44" t="s">
@@ -71398,8 +71380,8 @@
       </c>
       <c r="V1784" s="42"/>
     </row>
-    <row r="1785" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1785" s="7" t="s">
+    <row r="1785" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1785" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1785" s="44" t="s">
@@ -71425,8 +71407,8 @@
       </c>
       <c r="V1785" s="42"/>
     </row>
-    <row r="1786" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1786" s="7" t="s">
+    <row r="1786" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1786" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1786" s="44" t="s">
@@ -71452,8 +71434,8 @@
       </c>
       <c r="V1786" s="42"/>
     </row>
-    <row r="1787" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1787" s="7" t="s">
+    <row r="1787" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1787" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1787" s="44" t="s">
@@ -71484,8 +71466,8 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="1788" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1788" s="7" t="s">
+    <row r="1788" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1788" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1788" s="44" t="s">
@@ -71511,8 +71493,8 @@
       </c>
       <c r="V1788" s="42"/>
     </row>
-    <row r="1789" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1789" s="7" t="s">
+    <row r="1789" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1789" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1789" s="44" t="s">
@@ -71543,8 +71525,8 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="1790" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1790" s="7" t="s">
+    <row r="1790" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1790" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1790" s="44" t="s">
@@ -71570,8 +71552,8 @@
       </c>
       <c r="V1790" s="42"/>
     </row>
-    <row r="1791" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1791" s="7" t="s">
+    <row r="1791" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1791" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1791" s="44" t="s">
@@ -71602,8 +71584,8 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="1792" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1792" s="7" t="s">
+    <row r="1792" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1792" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1792" s="44" t="s">
@@ -71634,8 +71616,8 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="1793" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1793" s="7" t="s">
+    <row r="1793" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1793" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1793" s="44" t="s">
@@ -71661,8 +71643,8 @@
       </c>
       <c r="V1793" s="42"/>
     </row>
-    <row r="1794" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1794" s="7" t="s">
+    <row r="1794" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1794" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1794" s="44" t="s">
@@ -71688,8 +71670,8 @@
       </c>
       <c r="V1794" s="42"/>
     </row>
-    <row r="1795" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1795" s="7" t="s">
+    <row r="1795" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1795" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1795" s="44" t="s">
@@ -71715,8 +71697,8 @@
       </c>
       <c r="V1795" s="42"/>
     </row>
-    <row r="1796" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1796" s="7" t="s">
+    <row r="1796" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1796" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1796" s="44" t="s">
@@ -71742,8 +71724,8 @@
       </c>
       <c r="V1796" s="42"/>
     </row>
-    <row r="1797" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1797" s="7" t="s">
+    <row r="1797" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1797" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1797" s="44" t="s">
@@ -71769,8 +71751,8 @@
       </c>
       <c r="V1797" s="42"/>
     </row>
-    <row r="1798" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1798" s="7" t="s">
+    <row r="1798" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1798" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1798" s="44" t="s">
@@ -71796,8 +71778,8 @@
       </c>
       <c r="V1798" s="42"/>
     </row>
-    <row r="1799" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1799" s="7" t="s">
+    <row r="1799" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1799" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1799" s="44" t="s">
@@ -71823,8 +71805,8 @@
       </c>
       <c r="V1799" s="42"/>
     </row>
-    <row r="1800" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1800" s="7" t="s">
+    <row r="1800" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1800" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1800" s="44" t="s">
@@ -71849,8 +71831,8 @@
       </c>
       <c r="V1800" s="42"/>
     </row>
-    <row r="1801" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1801" s="7" t="s">
+    <row r="1801" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1801" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1801" s="44" t="s">
@@ -71881,8 +71863,8 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="1802" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1802" s="7" t="s">
+    <row r="1802" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1802" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1802" s="44" t="s">
@@ -71908,8 +71890,8 @@
       </c>
       <c r="V1802" s="42"/>
     </row>
-    <row r="1803" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1803" s="7" t="s">
+    <row r="1803" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1803" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1803" s="44" t="s">
@@ -71935,8 +71917,8 @@
       </c>
       <c r="V1803" s="42"/>
     </row>
-    <row r="1804" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1804" s="7" t="s">
+    <row r="1804" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1804" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1804" s="44" t="s">
@@ -71965,8 +71947,8 @@
       </c>
       <c r="V1804" s="42"/>
     </row>
-    <row r="1805" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1805" s="7" t="s">
+    <row r="1805" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1805" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1805" s="44" t="s">
@@ -71992,8 +71974,8 @@
       </c>
       <c r="V1805" s="42"/>
     </row>
-    <row r="1806" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1806" s="7" t="s">
+    <row r="1806" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1806" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1806" s="44" t="s">
@@ -72019,8 +72001,8 @@
       </c>
       <c r="V1806" s="42"/>
     </row>
-    <row r="1807" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1807" s="7" t="s">
+    <row r="1807" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1807" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1807" s="44" t="s">
@@ -72049,8 +72031,8 @@
       </c>
       <c r="V1807" s="42"/>
     </row>
-    <row r="1808" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1808" s="7" t="s">
+    <row r="1808" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1808" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1808" s="44" t="s">
@@ -72076,8 +72058,8 @@
       </c>
       <c r="V1808" s="42"/>
     </row>
-    <row r="1809" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1809" s="7" t="s">
+    <row r="1809" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1809" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1809" s="44" t="s">
@@ -72101,13 +72083,15 @@
       <c r="N1809" s="42" t="s">
         <v>1015</v>
       </c>
-      <c r="S1809" s="1" t="s">
-        <v>1501</v>
-      </c>
+      <c r="S1809" s="7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="T1809" s="7"/>
+      <c r="U1809" s="7"/>
       <c r="V1809" s="42"/>
     </row>
-    <row r="1810" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1810" s="7" t="s">
+    <row r="1810" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1810" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1810" s="44" t="s">
@@ -72134,12 +72118,15 @@
       <c r="O1810" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="S1810" s="7"/>
+      <c r="T1810" s="7"/>
+      <c r="U1810" s="7"/>
       <c r="V1810" s="42" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="1811" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1811" s="7" t="s">
+    <row r="1811" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1811" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1811" s="44" t="s">
@@ -72166,15 +72153,17 @@
       <c r="P1811" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U1811" s="1" t="s">
+      <c r="S1811" s="7"/>
+      <c r="T1811" s="7"/>
+      <c r="U1811" s="7" t="s">
         <v>1486</v>
       </c>
       <c r="V1811" s="42" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="1812" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1812" s="7" t="s">
+    <row r="1812" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1812" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1812" s="44" t="s">
@@ -72205,8 +72194,8 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="1813" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1813" s="7" t="s">
+    <row r="1813" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1813" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1813" s="44" t="s">
@@ -72237,8 +72226,8 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="1814" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1814" s="7" t="s">
+    <row r="1814" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1814" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1814" s="44" t="s">
@@ -72264,8 +72253,8 @@
       </c>
       <c r="V1814" s="42"/>
     </row>
-    <row r="1815" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1815" s="7" t="s">
+    <row r="1815" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1815" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1815" s="44" t="s">
@@ -72291,8 +72280,8 @@
       </c>
       <c r="V1815" s="42"/>
     </row>
-    <row r="1816" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1816" s="7" t="s">
+    <row r="1816" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1816" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1816" s="44" t="s">
@@ -72323,8 +72312,8 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="1817" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1817" s="7" t="s">
+    <row r="1817" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1817" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1817" s="44" t="s">
@@ -72355,8 +72344,8 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="1818" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1818" s="7" t="s">
+    <row r="1818" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1818" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1818" s="44" t="s">
@@ -72390,8 +72379,8 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="1819" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1819" s="7" t="s">
+    <row r="1819" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1819" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1819" s="44" t="s">
@@ -72417,8 +72406,8 @@
       </c>
       <c r="V1819" s="42"/>
     </row>
-    <row r="1820" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1820" s="7" t="s">
+    <row r="1820" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1820" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1820" s="44" t="s">
@@ -72444,8 +72433,8 @@
       </c>
       <c r="V1820" s="42"/>
     </row>
-    <row r="1821" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1821" s="7" t="s">
+    <row r="1821" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1821" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1821" s="44" t="s">
@@ -72471,8 +72460,8 @@
       </c>
       <c r="V1821" s="42"/>
     </row>
-    <row r="1822" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1822" s="7" t="s">
+    <row r="1822" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1822" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1822" s="44" t="s">
@@ -72498,8 +72487,8 @@
       </c>
       <c r="V1822" s="42"/>
     </row>
-    <row r="1823" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1823" s="7" t="s">
+    <row r="1823" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1823" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1823" s="44" t="s">
@@ -72525,8 +72514,8 @@
       </c>
       <c r="V1823" s="42"/>
     </row>
-    <row r="1824" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1824" s="7" t="s">
+    <row r="1824" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1824" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1824" s="44" t="s">
@@ -72552,8 +72541,8 @@
       </c>
       <c r="V1824" s="42"/>
     </row>
-    <row r="1825" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1825" s="7" t="s">
+    <row r="1825" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1825" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1825" s="44" t="s">
@@ -72587,8 +72576,8 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="1826" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1826" s="7" t="s">
+    <row r="1826" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1826" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1826" s="44" t="s">
@@ -72614,8 +72603,8 @@
       </c>
       <c r="V1826" s="42"/>
     </row>
-    <row r="1827" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1827" s="7" t="s">
+    <row r="1827" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1827" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1827" s="44" t="s">
@@ -72641,8 +72630,8 @@
       </c>
       <c r="V1827" s="42"/>
     </row>
-    <row r="1828" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1828" s="7" t="s">
+    <row r="1828" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1828" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1828" s="44" t="s">
@@ -72673,8 +72662,8 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="1829" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1829" s="7" t="s">
+    <row r="1829" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1829" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1829" s="44" t="s">
@@ -72705,12 +72694,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="1830" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1830" s="7" t="s">
+    <row r="1830" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1830" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1830" s="55" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I1830" s="44" t="s">
         <v>1077</v>
@@ -72735,12 +72724,12 @@
       </c>
       <c r="V1830" s="42"/>
     </row>
-    <row r="1831" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1831" s="7" t="s">
+    <row r="1831" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1831" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1831" s="55" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I1831" s="44" t="s">
         <v>1077</v>
@@ -72765,15 +72754,15 @@
       </c>
       <c r="V1831" s="42"/>
     </row>
-    <row r="1832" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1832" s="7" t="s">
+    <row r="1832" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1832" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="E1832" s="59" t="s">
-        <v>1499</v>
+      <c r="E1832" s="58" t="s">
+        <v>1497</v>
       </c>
       <c r="H1832" s="55" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I1832" s="44" t="s">
         <v>1077</v>
@@ -72798,15 +72787,15 @@
       </c>
       <c r="V1832" s="42"/>
     </row>
-    <row r="1833" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1833" s="7" t="s">
+    <row r="1833" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1833" s="7" t="s">
         <v>1479</v>
       </c>
-      <c r="E1833" s="59" t="s">
-        <v>1499</v>
+      <c r="E1833" s="58" t="s">
+        <v>1497</v>
       </c>
       <c r="H1833" s="55" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I1833" s="44" t="s">
         <v>1077</v>
@@ -72831,12 +72820,12 @@
       </c>
       <c r="V1833" s="42"/>
     </row>
-    <row r="1834" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1834" s="7" t="s">
+    <row r="1834" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1834" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1834" s="55" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I1834" s="44" t="s">
         <v>1077</v>
@@ -72861,12 +72850,12 @@
       </c>
       <c r="V1834" s="42"/>
     </row>
-    <row r="1835" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1835" s="7" t="s">
+    <row r="1835" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1835" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="H1835" s="55" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="I1835" s="44" t="s">
         <v>1077</v>
@@ -72891,8 +72880,8 @@
       </c>
       <c r="V1835" s="42"/>
     </row>
-    <row r="1836" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1836" s="7" t="s">
+    <row r="1836" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1836" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1836" s="44" t="s">
@@ -72916,16 +72905,16 @@
       <c r="N1836" s="42" t="s">
         <v>1036</v>
       </c>
-      <c r="S1836" s="1" t="s">
+      <c r="S1836" s="7" t="s">
         <v>1459</v>
       </c>
-      <c r="T1836" s="1" t="s">
-        <v>1507</v>
+      <c r="T1836" s="7" t="s">
+        <v>1504</v>
       </c>
       <c r="V1836" s="42"/>
     </row>
-    <row r="1837" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1837" s="7" t="s">
+    <row r="1837" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1837" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1837" s="44" t="s">
@@ -72954,8 +72943,8 @@
       </c>
       <c r="V1837" s="42"/>
     </row>
-    <row r="1838" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1838" s="7" t="s">
+    <row r="1838" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1838" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1838" s="44" t="s">
@@ -72981,8 +72970,8 @@
       </c>
       <c r="V1838" s="42"/>
     </row>
-    <row r="1839" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1839" s="7" t="s">
+    <row r="1839" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1839" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1839" s="44" t="s">
@@ -73008,8 +72997,8 @@
       </c>
       <c r="V1839" s="42"/>
     </row>
-    <row r="1840" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1840" s="7" t="s">
+    <row r="1840" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1840" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1840" s="44" t="s">
@@ -73040,8 +73029,8 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1841" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1841" s="7" t="s">
+    <row r="1841" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1841" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1841" s="44" t="s">
@@ -73067,8 +73056,8 @@
       </c>
       <c r="V1841" s="42"/>
     </row>
-    <row r="1842" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1842" s="7" t="s">
+    <row r="1842" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1842" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1842" s="44" t="s">
@@ -73094,8 +73083,8 @@
       </c>
       <c r="V1842" s="42"/>
     </row>
-    <row r="1843" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1843" s="7" t="s">
+    <row r="1843" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1843" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1843" s="44" t="s">
@@ -73126,8 +73115,8 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="1844" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1844" s="7" t="s">
+    <row r="1844" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1844" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1844" s="44" t="s">
@@ -73153,8 +73142,8 @@
       </c>
       <c r="V1844" s="42"/>
     </row>
-    <row r="1845" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1845" s="7" t="s">
+    <row r="1845" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C1845" s="7" t="s">
         <v>1479</v>
       </c>
       <c r="I1845" s="44" t="s">
@@ -73175,7 +73164,7 @@
         <f t="shared" si="86"/>
         <v>396</v>
       </c>
-      <c r="N1845" s="42" t="s">
+      <c r="N1845" s="64" t="s">
         <v>1041</v>
       </c>
       <c r="P1845" s="11" t="s">
@@ -73185,7 +73174,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="1846" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1846" spans="3:22" x14ac:dyDescent="0.25">
       <c r="O1846" s="6"/>
     </row>
   </sheetData>

--- a/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65747810-ED7B-475E-A85E-8548F43DBF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F1BE7E-184E-4551-A9FA-87830177A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5435" uniqueCount="1537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="1537">
   <si>
     <t>PS</t>
   </si>
@@ -4844,7 +4844,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4881,6 +4881,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4909,7 +4915,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5109,6 +5115,12 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5392,10 +5404,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1846"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1829" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="E1511" sqref="E1511"/>
+      <selection pane="bottomLeft" activeCell="N1449" sqref="N1449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8440,7 +8452,7 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="N66" s="64" t="s">
+      <c r="N66" s="54" t="s">
         <v>49</v>
       </c>
       <c r="O66" s="7"/>
@@ -13459,7 +13471,7 @@
         <f t="shared" ref="M196:M259" si="11">+M195+1</f>
         <v>130</v>
       </c>
-      <c r="N196" s="64" t="s">
+      <c r="N196" s="54" t="s">
         <v>1114</v>
       </c>
       <c r="O196" s="7" t="s">
@@ -18332,7 +18344,7 @@
         <f t="shared" ref="M324:M387" si="17">+M323+1</f>
         <v>128</v>
       </c>
-      <c r="N324" s="64" t="s">
+      <c r="N324" s="54" t="s">
         <v>1191</v>
       </c>
       <c r="O324" s="7" t="s">
@@ -24826,7 +24838,7 @@
         <f t="shared" si="23"/>
         <v>167</v>
       </c>
-      <c r="N491" s="64" t="s">
+      <c r="N491" s="54" t="s">
         <v>311</v>
       </c>
       <c r="O491" s="6"/>
@@ -27706,7 +27718,7 @@
         <f t="shared" si="26"/>
         <v>76</v>
       </c>
-      <c r="N567" s="64" t="s">
+      <c r="N567" s="54" t="s">
         <v>49</v>
       </c>
       <c r="O567" s="6"/>
@@ -31763,7 +31775,7 @@
         <f t="shared" si="32"/>
         <v>106</v>
       </c>
-      <c r="N673" s="64" t="s">
+      <c r="N673" s="54" t="s">
         <v>385</v>
       </c>
       <c r="O673" s="6"/>
@@ -35510,7 +35522,7 @@
         <f t="shared" si="38"/>
         <v>106</v>
       </c>
-      <c r="N779" s="64" t="s">
+      <c r="N779" s="54" t="s">
         <v>231</v>
       </c>
       <c r="O779" s="6"/>
@@ -36901,7 +36913,7 @@
         <f t="shared" si="38"/>
         <v>37</v>
       </c>
-      <c r="N816" s="64" t="s">
+      <c r="N816" s="54" t="s">
         <v>1263</v>
       </c>
       <c r="O816" s="7" t="s">
@@ -40367,7 +40379,7 @@
         <f t="shared" si="44"/>
         <v>96</v>
       </c>
-      <c r="N912" s="64" t="s">
+      <c r="N912" s="54" t="s">
         <v>487</v>
       </c>
       <c r="O912" s="6"/>
@@ -44213,7 +44225,9 @@
       <c r="N1017" s="42" t="s">
         <v>529</v>
       </c>
-      <c r="O1017" s="7"/>
+      <c r="O1017" s="68" t="s">
+        <v>1</v>
+      </c>
       <c r="P1017" s="7"/>
       <c r="Q1017" s="7"/>
       <c r="R1017" s="7"/>
@@ -45303,7 +45317,7 @@
         <f t="shared" si="50"/>
         <v>135</v>
       </c>
-      <c r="N1047" s="64" t="s">
+      <c r="N1047" s="54" t="s">
         <v>538</v>
       </c>
       <c r="O1047" s="6"/>
@@ -53790,7 +53804,7 @@
         <f t="shared" si="59"/>
         <v>232</v>
       </c>
-      <c r="N1279" s="53" t="s">
+      <c r="N1279" s="54" t="s">
         <v>1306</v>
       </c>
       <c r="O1279" s="7" t="s">
@@ -55184,7 +55198,7 @@
         <f t="shared" si="62"/>
         <v>269</v>
       </c>
-      <c r="N1316" s="64" t="s">
+      <c r="N1316" s="54" t="s">
         <v>712</v>
       </c>
       <c r="O1316" s="6"/>
@@ -60109,7 +60123,7 @@
         <f t="shared" si="68"/>
         <v>133</v>
       </c>
-      <c r="N1449" s="64" t="s">
+      <c r="N1449" s="54" t="s">
         <v>49</v>
       </c>
       <c r="O1449" s="6"/>
@@ -70431,6 +70445,9 @@
       <c r="N1751" s="42" t="s">
         <v>977</v>
       </c>
+      <c r="O1751" s="69" t="s">
+        <v>1</v>
+      </c>
       <c r="V1751" s="42"/>
     </row>
     <row r="1752" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56123A54-5F79-4AB2-B2BC-92F7232E7C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83068E72-3FF5-4463-B287-ED4C2F7B7B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3753,9 +3753,6 @@
     <t>sAqddhyeti# sAqddhyA</t>
   </si>
   <si>
-    <t>aqddhvaqryU iti# addhvaqryU</t>
-  </si>
-  <si>
     <t>tveti# tvA</t>
   </si>
   <si>
@@ -4636,6 +4633,9 @@
   </si>
   <si>
     <t>r.  to  add</t>
+  </si>
+  <si>
+    <t>aqddhvaqryU itya#ddhvaqryU</t>
   </si>
 </sst>
 </file>
@@ -4870,7 +4870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5052,9 +5052,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5341,10 +5338,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A645" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N651" sqref="N651"/>
+      <selection pane="bottomLeft" activeCell="I459" sqref="I459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18400,8 +18397,8 @@
       <c r="S339" s="7"/>
       <c r="T339" s="7"/>
       <c r="U339" s="7"/>
-      <c r="V339" s="34" t="s">
-        <v>1241</v>
+      <c r="V339" s="35" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="340" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18508,7 +18505,7 @@
       <c r="T342" s="7"/>
       <c r="U342" s="7"/>
       <c r="V342" s="34" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="343" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18615,7 +18612,7 @@
       <c r="T345" s="7"/>
       <c r="U345" s="7"/>
       <c r="V345" s="34" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="346" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18722,7 +18719,7 @@
       <c r="T348" s="7"/>
       <c r="U348" s="7"/>
       <c r="V348" s="34" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="349" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18829,7 +18826,7 @@
       <c r="T351" s="7"/>
       <c r="U351" s="7"/>
       <c r="V351" s="34" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="352" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18866,7 +18863,7 @@
       <c r="T352" s="7"/>
       <c r="U352" s="7"/>
       <c r="V352" s="34" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="353" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19206,7 +19203,7 @@
       <c r="T361" s="7"/>
       <c r="U361" s="7"/>
       <c r="V361" s="34" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="362" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19279,8 +19276,8 @@
       <c r="S363" s="7"/>
       <c r="T363" s="7"/>
       <c r="U363" s="7"/>
-      <c r="V363" s="34" t="s">
-        <v>1241</v>
+      <c r="V363" s="35" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="364" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19390,7 +19387,7 @@
       <c r="T366" s="7"/>
       <c r="U366" s="7"/>
       <c r="V366" s="34" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="367" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19464,7 +19461,7 @@
       <c r="T368" s="7"/>
       <c r="U368" s="7"/>
       <c r="V368" s="34" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="369" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19502,7 +19499,7 @@
       <c r="T369" s="7"/>
       <c r="U369" s="7"/>
       <c r="V369" s="34" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="370" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19684,7 +19681,7 @@
       <c r="T374" s="7"/>
       <c r="U374" s="7"/>
       <c r="V374" s="34" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="375" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19792,7 +19789,7 @@
       <c r="T377" s="7"/>
       <c r="U377" s="7"/>
       <c r="V377" s="34" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="378" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19938,7 +19935,7 @@
       <c r="T381" s="7"/>
       <c r="U381" s="7"/>
       <c r="V381" s="34" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="382" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19975,7 +19972,7 @@
       <c r="T382" s="7"/>
       <c r="U382" s="7"/>
       <c r="V382" s="34" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="383" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20190,8 +20187,8 @@
       <c r="S388" s="7"/>
       <c r="T388" s="7"/>
       <c r="U388" s="7"/>
-      <c r="V388" s="34" t="s">
-        <v>1241</v>
+      <c r="V388" s="35" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="389" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20298,7 +20295,7 @@
       <c r="T391" s="7"/>
       <c r="U391" s="7"/>
       <c r="V391" s="34" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="392" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20440,7 +20437,7 @@
       <c r="T395" s="7"/>
       <c r="U395" s="7"/>
       <c r="V395" s="34" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="396" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20656,7 +20653,7 @@
       <c r="T401" s="7"/>
       <c r="U401" s="7"/>
       <c r="V401" s="34" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="402" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20693,7 +20690,7 @@
       <c r="T402" s="7"/>
       <c r="U402" s="7"/>
       <c r="V402" s="34" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="403" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20730,7 +20727,7 @@
       <c r="T403" s="7"/>
       <c r="U403" s="7"/>
       <c r="V403" s="34" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="404" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20837,7 +20834,7 @@
       <c r="T406" s="7"/>
       <c r="U406" s="7"/>
       <c r="V406" s="34" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="407" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20874,7 +20871,7 @@
       <c r="T407" s="7"/>
       <c r="U407" s="7"/>
       <c r="V407" s="34" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="408" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21052,8 +21049,8 @@
       <c r="S412" s="7"/>
       <c r="T412" s="7"/>
       <c r="U412" s="7"/>
-      <c r="V412" s="34" t="s">
-        <v>1241</v>
+      <c r="V412" s="35" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="413" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21160,7 +21157,7 @@
       <c r="T415" s="7"/>
       <c r="U415" s="7"/>
       <c r="V415" s="34" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="416" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21372,7 +21369,7 @@
       <c r="T421" s="7"/>
       <c r="U421" s="7"/>
       <c r="V421" s="34" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="422" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21444,7 +21441,7 @@
       <c r="T423" s="7"/>
       <c r="U423" s="7"/>
       <c r="V423" s="34" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="424" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21481,7 +21478,7 @@
       <c r="T424" s="7"/>
       <c r="U424" s="7"/>
       <c r="V424" s="34" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="425" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21800,8 +21797,8 @@
       <c r="S433" s="7"/>
       <c r="T433" s="7"/>
       <c r="U433" s="7"/>
-      <c r="V433" s="34" t="s">
-        <v>1241</v>
+      <c r="V433" s="35" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="434" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21910,7 +21907,7 @@
       <c r="T436" s="7"/>
       <c r="U436" s="7"/>
       <c r="V436" s="34" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="437" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21947,7 +21944,7 @@
       <c r="T437" s="7"/>
       <c r="U437" s="7"/>
       <c r="V437" s="34" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="438" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21984,7 +21981,7 @@
       <c r="T438" s="7"/>
       <c r="U438" s="7"/>
       <c r="V438" s="34" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="439" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22021,7 +22018,7 @@
       <c r="T439" s="7"/>
       <c r="U439" s="7"/>
       <c r="V439" s="34" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="440" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22058,7 +22055,7 @@
       <c r="T440" s="7"/>
       <c r="U440" s="7"/>
       <c r="V440" s="34" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="441" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22095,7 +22092,7 @@
       <c r="T441" s="7"/>
       <c r="U441" s="7"/>
       <c r="V441" s="34" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="442" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22132,7 +22129,7 @@
       <c r="T442" s="7"/>
       <c r="U442" s="7"/>
       <c r="V442" s="34" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="443" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22169,7 +22166,7 @@
       <c r="T443" s="7"/>
       <c r="U443" s="7"/>
       <c r="V443" s="34" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="444" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22241,7 +22238,7 @@
       <c r="T445" s="7"/>
       <c r="U445" s="7"/>
       <c r="V445" s="34" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="446" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22313,7 +22310,7 @@
       <c r="T447" s="7"/>
       <c r="U447" s="7"/>
       <c r="V447" s="34" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="448" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22420,7 +22417,7 @@
       <c r="T450" s="7"/>
       <c r="U450" s="7"/>
       <c r="V450" s="34" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="451" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22492,7 +22489,7 @@
       <c r="T452" s="7"/>
       <c r="U452" s="7"/>
       <c r="V452" s="34" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="453" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22564,7 +22561,7 @@
       <c r="T454" s="7"/>
       <c r="U454" s="7"/>
       <c r="V454" s="34" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="455" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22742,8 +22739,8 @@
       <c r="S459" s="7"/>
       <c r="T459" s="7"/>
       <c r="U459" s="7"/>
-      <c r="V459" s="34" t="s">
-        <v>1241</v>
+      <c r="V459" s="35" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="460" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22853,7 +22850,7 @@
       <c r="T462" s="7"/>
       <c r="U462" s="7"/>
       <c r="V462" s="34" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="463" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22999,7 +22996,7 @@
         <v>71</v>
       </c>
       <c r="V466" s="34" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="467" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23109,7 +23106,7 @@
       <c r="T469" s="7"/>
       <c r="U469" s="7"/>
       <c r="V469" s="34" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="470" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23691,7 +23688,7 @@
       <c r="T484" s="7"/>
       <c r="U484" s="7"/>
       <c r="V484" s="34" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="485" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23769,7 +23766,7 @@
       <c r="T486" s="7"/>
       <c r="U486" s="7"/>
       <c r="V486" s="34" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="487" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23965,7 +23962,7 @@
       <c r="T491" s="7"/>
       <c r="U491" s="7"/>
       <c r="V491" s="34" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="492" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24214,7 +24211,7 @@
       <c r="T498" s="7"/>
       <c r="U498" s="7"/>
       <c r="V498" s="34" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="499" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24286,7 +24283,7 @@
       <c r="T500" s="7"/>
       <c r="U500" s="7"/>
       <c r="V500" s="34" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="501" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -24926,7 +24923,7 @@
       <c r="T518" s="7"/>
       <c r="U518" s="7"/>
       <c r="V518" s="34" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="519" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25488,7 +25485,7 @@
       <c r="T534" s="7"/>
       <c r="U534" s="7"/>
       <c r="V534" s="34" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="535" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25630,7 +25627,7 @@
       <c r="T538" s="7"/>
       <c r="U538" s="7"/>
       <c r="V538" s="34" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="539" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -25912,7 +25909,7 @@
       <c r="T546" s="7"/>
       <c r="U546" s="7"/>
       <c r="V546" s="34" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="547" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26124,7 +26121,7 @@
       <c r="T552" s="7"/>
       <c r="U552" s="7"/>
       <c r="V552" s="34" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="553" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26196,7 +26193,7 @@
       <c r="T554" s="7"/>
       <c r="U554" s="7"/>
       <c r="V554" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="555" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26624,7 +26621,7 @@
       <c r="T566" s="7"/>
       <c r="U566" s="7"/>
       <c r="V566" s="34" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="567" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26698,7 +26695,7 @@
       <c r="T568" s="7"/>
       <c r="U568" s="7"/>
       <c r="V568" s="34" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="569" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26840,7 +26837,7 @@
       <c r="T572" s="7"/>
       <c r="U572" s="7"/>
       <c r="V572" s="34" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="573" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -26912,7 +26909,7 @@
       <c r="T574" s="7"/>
       <c r="U574" s="7"/>
       <c r="V574" s="34" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="575" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27056,7 +27053,7 @@
       <c r="T578" s="7"/>
       <c r="U578" s="7"/>
       <c r="V578" s="34" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="579" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -27388,7 +27385,7 @@
       <c r="T587" s="7"/>
       <c r="U587" s="7"/>
       <c r="V587" s="34" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="588" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28061,7 +28058,7 @@
       <c r="T605" s="7"/>
       <c r="U605" s="7"/>
       <c r="V605" s="35" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="606" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28098,7 +28095,7 @@
       <c r="T606" s="7"/>
       <c r="U606" s="7"/>
       <c r="V606" s="34" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="607" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28135,7 +28132,7 @@
       <c r="T607" s="7"/>
       <c r="U607" s="7"/>
       <c r="V607" s="35" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="608" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28172,7 +28169,7 @@
       <c r="T608" s="7"/>
       <c r="U608" s="7"/>
       <c r="V608" s="34" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="609" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28209,7 +28206,7 @@
       <c r="T609" s="7"/>
       <c r="U609" s="7"/>
       <c r="V609" s="34" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="610" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28531,7 +28528,7 @@
       <c r="T618" s="7"/>
       <c r="U618" s="7"/>
       <c r="V618" s="34" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="619" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28708,7 +28705,7 @@
       <c r="T623" s="7"/>
       <c r="U623" s="7"/>
       <c r="V623" s="34" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="624" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -28885,7 +28882,7 @@
       <c r="T628" s="7"/>
       <c r="U628" s="7"/>
       <c r="V628" s="34" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="629" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29028,7 +29025,7 @@
       <c r="T632" s="13"/>
       <c r="U632" s="13"/>
       <c r="V632" s="34" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="633" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29170,7 +29167,7 @@
       <c r="T636" s="7"/>
       <c r="U636" s="7"/>
       <c r="V636" s="34" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="637" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29312,7 +29309,7 @@
       <c r="T640" s="7"/>
       <c r="U640" s="7"/>
       <c r="V640" s="34" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="641" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29683,7 +29680,7 @@
         <v>71</v>
       </c>
       <c r="V650" s="34" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="651" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -29797,7 +29794,7 @@
       <c r="T653" s="7"/>
       <c r="U653" s="7"/>
       <c r="V653" s="34" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="654" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -30490,7 +30487,7 @@
       <c r="T673" s="7"/>
       <c r="U673" s="7"/>
       <c r="V673" s="34" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="674" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30589,7 +30586,7 @@
       <c r="T676" s="7"/>
       <c r="U676" s="7"/>
       <c r="V676" s="34" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="677" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -30657,7 +30654,7 @@
       <c r="T678" s="7"/>
       <c r="U678" s="7"/>
       <c r="V678" s="34" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="679" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -31057,7 +31054,7 @@
       <c r="T690" s="7"/>
       <c r="U690" s="7"/>
       <c r="V690" s="34" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="691" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34033,7 +34030,7 @@
       <c r="T779" s="7"/>
       <c r="U779" s="7"/>
       <c r="V779" s="34" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="780" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34202,7 +34199,7 @@
       <c r="T784" s="7"/>
       <c r="U784" s="7"/>
       <c r="V784" s="34" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="785" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34272,7 +34269,7 @@
       <c r="T786" s="7"/>
       <c r="U786" s="7"/>
       <c r="V786" s="34" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="787" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34307,7 +34304,7 @@
       <c r="T787" s="7"/>
       <c r="U787" s="7"/>
       <c r="V787" s="34" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="788" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34375,7 +34372,7 @@
       <c r="T789" s="7"/>
       <c r="U789" s="7"/>
       <c r="V789" s="34" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="790" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34410,7 +34407,7 @@
       <c r="T790" s="7"/>
       <c r="U790" s="7"/>
       <c r="V790" s="34" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="791" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34445,7 +34442,7 @@
       <c r="S791" s="7"/>
       <c r="T791" s="7"/>
       <c r="V791" s="34" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="792" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34614,7 +34611,7 @@
       <c r="T796" s="7"/>
       <c r="U796" s="7"/>
       <c r="V796" s="34" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="797" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34649,7 +34646,7 @@
       <c r="T797" s="7"/>
       <c r="U797" s="7"/>
       <c r="V797" s="34" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="798" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34717,7 +34714,7 @@
       <c r="T799" s="7"/>
       <c r="U799" s="7"/>
       <c r="V799" s="34" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="800" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34787,7 +34784,7 @@
       <c r="T801" s="7"/>
       <c r="U801" s="7"/>
       <c r="V801" s="34" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="802" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34859,7 +34856,7 @@
       <c r="T803" s="7"/>
       <c r="U803" s="7"/>
       <c r="V803" s="34" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="804" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34927,7 +34924,7 @@
       <c r="T805" s="7"/>
       <c r="U805" s="7"/>
       <c r="V805" s="34" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="806" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34962,7 +34959,7 @@
       <c r="T806" s="7"/>
       <c r="U806" s="7"/>
       <c r="V806" s="34" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="807" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -34997,7 +34994,7 @@
       <c r="T807" s="7"/>
       <c r="U807" s="7"/>
       <c r="V807" s="34" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="808" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35098,7 +35095,7 @@
       <c r="T810" s="7"/>
       <c r="U810" s="7"/>
       <c r="V810" s="34" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="811" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35166,7 +35163,7 @@
       <c r="T812" s="7"/>
       <c r="U812" s="7"/>
       <c r="V812" s="34" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="813" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35201,7 +35198,7 @@
       <c r="T813" s="7"/>
       <c r="U813" s="7"/>
       <c r="V813" s="34" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="814" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35236,7 +35233,7 @@
       <c r="T814" s="7"/>
       <c r="U814" s="7"/>
       <c r="V814" s="34" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="815" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35309,7 +35306,7 @@
       <c r="T816" s="7"/>
       <c r="U816" s="7"/>
       <c r="V816" s="34" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="817" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35474,7 +35471,7 @@
       <c r="T821" s="7"/>
       <c r="U821" s="7"/>
       <c r="V821" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="822" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35775,7 +35772,7 @@
       <c r="T830" s="7"/>
       <c r="U830" s="7"/>
       <c r="V830" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="831" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -35944,7 +35941,7 @@
       <c r="T835" s="7"/>
       <c r="U835" s="7"/>
       <c r="V835" s="34" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="836" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36078,7 +36075,7 @@
       <c r="T839" s="7"/>
       <c r="U839" s="7"/>
       <c r="V839" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="840" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36383,7 +36380,7 @@
       <c r="T848" s="7"/>
       <c r="U848" s="7"/>
       <c r="V848" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="849" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36751,7 +36748,7 @@
       <c r="T859" s="7"/>
       <c r="U859" s="7"/>
       <c r="V859" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="860" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -36852,7 +36849,7 @@
       <c r="T862" s="7"/>
       <c r="U862" s="7"/>
       <c r="V862" s="34" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="863" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37051,7 +37048,7 @@
       <c r="T868" s="7"/>
       <c r="U868" s="7"/>
       <c r="V868" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="869" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37086,7 +37083,7 @@
       <c r="T869" s="7"/>
       <c r="U869" s="7"/>
       <c r="V869" s="34" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="870" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37154,7 +37151,7 @@
       <c r="T871" s="7"/>
       <c r="U871" s="7"/>
       <c r="V871" s="34" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="872" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37355,7 +37352,7 @@
       <c r="T877" s="7"/>
       <c r="U877" s="7"/>
       <c r="V877" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="878" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37456,7 +37453,7 @@
       <c r="T880" s="7"/>
       <c r="U880" s="7"/>
       <c r="V880" s="34" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="881" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37689,7 +37686,7 @@
       <c r="T887" s="7"/>
       <c r="U887" s="7"/>
       <c r="V887" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="888" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -37823,7 +37820,7 @@
       <c r="T891" s="7"/>
       <c r="U891" s="7"/>
       <c r="V891" s="34" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="892" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38023,7 +38020,7 @@
       <c r="T897" s="7"/>
       <c r="U897" s="7"/>
       <c r="V897" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="898" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38058,7 +38055,7 @@
       <c r="T898" s="7"/>
       <c r="U898" s="7"/>
       <c r="V898" s="34" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="899" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38126,7 +38123,7 @@
       <c r="T900" s="7"/>
       <c r="U900" s="7"/>
       <c r="V900" s="34" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="901" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38365,7 +38362,7 @@
       <c r="T907" s="7"/>
       <c r="U907" s="7"/>
       <c r="V907" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="908" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38436,7 +38433,7 @@
       <c r="T909" s="7"/>
       <c r="U909" s="7"/>
       <c r="V909" s="34" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="910" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38507,7 +38504,7 @@
       <c r="T911" s="7"/>
       <c r="U911" s="7"/>
       <c r="V911" s="34" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="912" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38543,7 +38540,7 @@
       <c r="T912" s="7"/>
       <c r="U912" s="7"/>
       <c r="V912" s="34" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="913" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38643,7 +38640,7 @@
       <c r="T915" s="7"/>
       <c r="U915" s="7"/>
       <c r="V915" s="34" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="916" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38711,7 +38708,7 @@
       <c r="T917" s="7"/>
       <c r="U917" s="7"/>
       <c r="V917" s="34" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="918" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38746,7 +38743,7 @@
       <c r="T918" s="7"/>
       <c r="U918" s="7"/>
       <c r="V918" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="919" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -38814,7 +38811,7 @@
       <c r="T920" s="7"/>
       <c r="U920" s="7"/>
       <c r="V920" s="34" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="921" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39035,7 +39032,7 @@
       </c>
       <c r="U926" s="7"/>
       <c r="V926" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="927" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39103,7 +39100,7 @@
       <c r="T928" s="7"/>
       <c r="U928" s="7"/>
       <c r="V928" s="34" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="929" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39311,7 +39308,7 @@
       </c>
       <c r="U934" s="7"/>
       <c r="V934" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="935" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39379,7 +39376,7 @@
       <c r="T936" s="7"/>
       <c r="U936" s="7"/>
       <c r="V936" s="34" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="937" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39447,7 +39444,7 @@
       <c r="T938" s="7"/>
       <c r="U938" s="7"/>
       <c r="V938" s="34" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="939" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39548,7 +39545,7 @@
       <c r="T941" s="7"/>
       <c r="U941" s="7"/>
       <c r="V941" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="942" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39616,7 +39613,7 @@
       <c r="T943" s="7"/>
       <c r="U943" s="7"/>
       <c r="V943" s="34" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="944" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39783,7 +39780,7 @@
       <c r="T948" s="7"/>
       <c r="U948" s="7"/>
       <c r="V948" s="34" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="949" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -39851,7 +39848,7 @@
       <c r="T950" s="7"/>
       <c r="U950" s="7"/>
       <c r="V950" s="34" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="951" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40018,7 +40015,7 @@
       <c r="T955" s="7"/>
       <c r="U955" s="7"/>
       <c r="V955" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="956" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40086,7 +40083,7 @@
       <c r="T957" s="7"/>
       <c r="U957" s="7"/>
       <c r="V957" s="34" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="958" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40220,7 +40217,7 @@
       <c r="T961" s="7"/>
       <c r="U961" s="7"/>
       <c r="V961" s="34" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="962" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40255,7 +40252,7 @@
       <c r="T962" s="7"/>
       <c r="U962" s="7"/>
       <c r="V962" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="963" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40322,7 +40319,7 @@
       <c r="T964" s="7"/>
       <c r="U964" s="7"/>
       <c r="V964" s="34" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="965" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40489,7 +40486,7 @@
       <c r="T969" s="7"/>
       <c r="U969" s="7"/>
       <c r="V969" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="970" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40557,7 +40554,7 @@
       <c r="T971" s="7"/>
       <c r="U971" s="7"/>
       <c r="V971" s="34" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="972" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40724,7 +40721,7 @@
       <c r="T976" s="7"/>
       <c r="U976" s="7"/>
       <c r="V976" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="977" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40792,7 +40789,7 @@
       <c r="T978" s="7"/>
       <c r="U978" s="7"/>
       <c r="V978" s="34" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="979" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40860,7 +40857,7 @@
       <c r="T980" s="7"/>
       <c r="U980" s="7"/>
       <c r="V980" s="34" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="981" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40928,7 +40925,7 @@
       <c r="T982" s="7"/>
       <c r="U982" s="7"/>
       <c r="V982" s="34" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="983" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -40963,7 +40960,7 @@
       <c r="T983" s="7"/>
       <c r="U983" s="7"/>
       <c r="V983" s="34" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="984" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41033,7 +41030,7 @@
       <c r="T985" s="7"/>
       <c r="U985" s="7"/>
       <c r="V985" s="34" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="986" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41103,7 +41100,7 @@
       <c r="T987" s="7"/>
       <c r="U987" s="7"/>
       <c r="V987" s="34" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="988" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41238,7 +41235,7 @@
       <c r="T991" s="7"/>
       <c r="U991" s="7"/>
       <c r="V991" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="992" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41306,7 +41303,7 @@
       <c r="T993" s="7"/>
       <c r="U993" s="7"/>
       <c r="V993" s="34" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="994" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41506,7 +41503,7 @@
       <c r="T999" s="7"/>
       <c r="U999" s="7"/>
       <c r="V999" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1000" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41574,7 +41571,7 @@
       <c r="T1001" s="7"/>
       <c r="U1001" s="7"/>
       <c r="V1001" s="34" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="1002" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41784,7 +41781,7 @@
       <c r="T1007" s="7"/>
       <c r="U1007" s="7"/>
       <c r="V1007" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1008" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41852,7 +41849,7 @@
       <c r="T1009" s="7"/>
       <c r="U1009" s="7"/>
       <c r="V1009" s="34" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="1010" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -41921,7 +41918,7 @@
       <c r="T1011" s="7"/>
       <c r="U1011" s="7"/>
       <c r="V1011" s="34" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1012" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42267,7 +42264,7 @@
       <c r="T1021" s="7"/>
       <c r="U1021" s="7"/>
       <c r="V1021" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1022" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42340,7 +42337,7 @@
       <c r="T1023" s="7"/>
       <c r="U1023" s="7"/>
       <c r="V1023" s="34" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="1024" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42512,7 +42509,7 @@
       <c r="T1028" s="7"/>
       <c r="U1028" s="7"/>
       <c r="V1028" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1029" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42580,7 +42577,7 @@
       <c r="T1030" s="7"/>
       <c r="U1030" s="7"/>
       <c r="V1030" s="34" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="1031" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42648,7 +42645,7 @@
       <c r="T1032" s="7"/>
       <c r="U1032" s="7"/>
       <c r="V1032" s="34" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="1033" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42848,7 +42845,7 @@
       <c r="T1038" s="7"/>
       <c r="U1038" s="7"/>
       <c r="V1038" s="34" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="1039" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -42918,7 +42915,7 @@
       <c r="T1040" s="7"/>
       <c r="U1040" s="7"/>
       <c r="V1040" s="34" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="1041" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43054,7 +43051,7 @@
       <c r="T1044" s="7"/>
       <c r="U1044" s="7"/>
       <c r="V1044" s="34" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1045" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43122,7 +43119,7 @@
       <c r="T1046" s="7"/>
       <c r="U1046" s="7"/>
       <c r="V1046" s="34" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1047" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43160,7 +43157,7 @@
       <c r="T1047" s="7"/>
       <c r="U1047" s="7"/>
       <c r="V1047" s="34" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="1048" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43373,7 +43370,7 @@
       <c r="T1053" s="7"/>
       <c r="U1053" s="7"/>
       <c r="V1053" s="34" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1054" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43513,7 +43510,7 @@
       <c r="T1057" s="7"/>
       <c r="U1057" s="7"/>
       <c r="V1057" s="34" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="1058" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43614,7 +43611,7 @@
       <c r="T1060" s="7"/>
       <c r="U1060" s="7"/>
       <c r="V1060" s="34" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="1061" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43781,7 +43778,7 @@
       <c r="T1065" s="7"/>
       <c r="U1065" s="7"/>
       <c r="V1065" s="34" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="1066" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43816,7 +43813,7 @@
       <c r="T1066" s="7"/>
       <c r="U1066" s="7"/>
       <c r="V1066" s="34" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="1067" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43884,7 +43881,7 @@
       <c r="T1068" s="7"/>
       <c r="U1068" s="7"/>
       <c r="V1068" s="34" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="1069" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44022,7 +44019,7 @@
       <c r="T1072" s="7"/>
       <c r="U1072" s="7"/>
       <c r="V1072" s="34" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="1073" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44057,7 +44054,7 @@
       <c r="T1073" s="7"/>
       <c r="U1073" s="7"/>
       <c r="V1073" s="34" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="1074" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44160,7 +44157,7 @@
       <c r="T1076" s="7"/>
       <c r="U1076" s="7"/>
       <c r="V1076" s="34" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="1077" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44228,7 +44225,7 @@
       <c r="T1078" s="7"/>
       <c r="U1078" s="7"/>
       <c r="V1078" s="34" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="1079" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44265,7 +44262,7 @@
         <v>122</v>
       </c>
       <c r="V1079" s="34" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="1080" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44303,7 +44300,7 @@
       <c r="T1080" s="7"/>
       <c r="U1080" s="7"/>
       <c r="V1080" s="34" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="1081" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44377,7 +44374,7 @@
     </row>
     <row r="1083" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1083" s="61" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="H1083" s="43" t="s">
         <v>78</v>
@@ -44737,7 +44734,7 @@
       <c r="T1092" s="7"/>
       <c r="U1092" s="7"/>
       <c r="V1092" s="34" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1093" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44773,7 +44770,7 @@
       <c r="T1093" s="7"/>
       <c r="U1093" s="7"/>
       <c r="V1093" s="34" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="1094" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45044,7 +45041,7 @@
       <c r="T1101" s="7"/>
       <c r="U1101" s="7"/>
       <c r="V1101" s="34" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="1102" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45080,7 +45077,7 @@
       <c r="T1102" s="7"/>
       <c r="U1102" s="7"/>
       <c r="V1102" s="34" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="1103" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45321,7 +45318,7 @@
       <c r="T1109" s="7"/>
       <c r="U1109" s="7"/>
       <c r="V1109" s="34" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="1110" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45455,7 +45452,7 @@
       <c r="T1113" s="7"/>
       <c r="U1113" s="7"/>
       <c r="V1113" s="34" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="1114" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45694,7 +45691,7 @@
       <c r="T1120" s="7"/>
       <c r="U1120" s="7"/>
       <c r="V1120" s="34" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="1121" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -45730,7 +45727,7 @@
       <c r="T1121" s="7"/>
       <c r="U1121" s="7"/>
       <c r="V1121" s="34" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="1122" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46035,7 +46032,7 @@
       <c r="T1130" s="7"/>
       <c r="U1130" s="7"/>
       <c r="V1130" s="34" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="1131" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46186,7 +46183,7 @@
       <c r="T1134" s="7"/>
       <c r="U1134" s="7"/>
       <c r="V1134" s="34" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="1135" spans="7:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46357,7 +46354,7 @@
       <c r="T1139" s="7"/>
       <c r="U1139" s="7"/>
       <c r="V1139" s="34" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="1140" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46526,7 +46523,7 @@
       <c r="T1144" s="7"/>
       <c r="U1144" s="7"/>
       <c r="V1144" s="34" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="1145" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46629,7 +46626,7 @@
       <c r="T1147" s="7"/>
       <c r="U1147" s="7"/>
       <c r="V1147" s="34" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="1148" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46769,7 +46766,7 @@
       <c r="T1151" s="7"/>
       <c r="U1151" s="7"/>
       <c r="V1151" s="34" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="1152" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46805,7 +46802,7 @@
       <c r="T1152" s="7"/>
       <c r="U1152" s="7"/>
       <c r="V1152" s="34" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="1153" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -46913,7 +46910,7 @@
       <c r="T1155" s="7"/>
       <c r="U1155" s="7"/>
       <c r="V1155" s="34" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="1156" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47185,7 +47182,7 @@
       <c r="T1163" s="7"/>
       <c r="U1163" s="7"/>
       <c r="V1163" s="34" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="1164" spans="4:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47356,7 +47353,7 @@
       <c r="T1168" s="7"/>
       <c r="U1168" s="7"/>
       <c r="V1168" s="34" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="1169" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47461,7 +47458,7 @@
       <c r="T1171" s="7"/>
       <c r="U1171" s="7"/>
       <c r="V1171" s="34" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="1172" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47496,7 +47493,7 @@
       <c r="T1172" s="7"/>
       <c r="U1172" s="7"/>
       <c r="V1172" s="34" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="1173" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47696,7 +47693,7 @@
       <c r="T1178" s="7"/>
       <c r="U1178" s="7"/>
       <c r="V1178" s="34" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="1179" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -47999,7 +47996,7 @@
       <c r="T1187" s="7"/>
       <c r="U1187" s="7"/>
       <c r="V1187" s="34" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="1188" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48034,7 +48031,7 @@
       <c r="T1188" s="7"/>
       <c r="U1188" s="7"/>
       <c r="V1188" s="34" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1189" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48069,7 +48066,7 @@
       <c r="T1189" s="7"/>
       <c r="U1189" s="7"/>
       <c r="V1189" s="34" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="1190" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48306,7 +48303,7 @@
       <c r="T1196" s="7"/>
       <c r="U1196" s="7"/>
       <c r="V1196" s="34" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="1197" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48406,7 +48403,7 @@
       <c r="T1199" s="7"/>
       <c r="U1199" s="7"/>
       <c r="V1199" s="34" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1200" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48715,7 +48712,7 @@
       <c r="T1208" s="7"/>
       <c r="U1208" s="7"/>
       <c r="V1208" s="34" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1209" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48816,7 +48813,7 @@
       <c r="T1211" s="7"/>
       <c r="U1211" s="7"/>
       <c r="V1211" s="34" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1212" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48851,7 +48848,7 @@
       <c r="T1212" s="7"/>
       <c r="U1212" s="7"/>
       <c r="V1212" s="34" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="1213" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -48919,7 +48916,7 @@
       <c r="T1214" s="7"/>
       <c r="U1214" s="7"/>
       <c r="V1214" s="34" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="1215" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49020,7 +49017,7 @@
       <c r="T1217" s="7"/>
       <c r="U1217" s="7"/>
       <c r="V1217" s="34" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="1218" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49121,7 +49118,7 @@
       <c r="T1220" s="7"/>
       <c r="U1220" s="7"/>
       <c r="V1220" s="34" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="1221" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49431,7 +49428,7 @@
       <c r="T1229" s="7"/>
       <c r="U1229" s="7"/>
       <c r="V1229" s="34" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="1230" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49501,7 +49498,7 @@
       <c r="T1231" s="7"/>
       <c r="U1231" s="7"/>
       <c r="V1231" s="34" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="1232" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49672,7 +49669,7 @@
       <c r="T1236" s="7"/>
       <c r="U1236" s="7"/>
       <c r="V1236" s="34" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="1237" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49775,7 +49772,7 @@
       <c r="T1239" s="7"/>
       <c r="U1239" s="7"/>
       <c r="V1239" s="34" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="1240" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49876,7 +49873,7 @@
       <c r="T1242" s="7"/>
       <c r="U1242" s="7"/>
       <c r="V1242" s="34" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="1243" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -49944,7 +49941,7 @@
       <c r="T1244" s="7"/>
       <c r="U1244" s="7"/>
       <c r="V1244" s="34" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="1245" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50047,7 +50044,7 @@
       <c r="T1247" s="7"/>
       <c r="U1247" s="7"/>
       <c r="V1247" s="34" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="1248" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50180,7 +50177,7 @@
       <c r="T1251" s="7"/>
       <c r="U1251" s="7"/>
       <c r="V1251" s="34" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="1252" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50314,7 +50311,7 @@
       <c r="T1255" s="7"/>
       <c r="U1255" s="7"/>
       <c r="V1255" s="34" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="1256" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50448,7 +50445,7 @@
       <c r="T1259" s="7"/>
       <c r="U1259" s="7"/>
       <c r="V1259" s="34" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="1260" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50650,7 +50647,7 @@
       <c r="T1265" s="7"/>
       <c r="U1265" s="7"/>
       <c r="V1265" s="34" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="1266" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50751,7 +50748,7 @@
       <c r="T1268" s="7"/>
       <c r="U1268" s="7"/>
       <c r="V1268" s="34" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="1269" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -50892,7 +50889,7 @@
       <c r="T1272" s="7"/>
       <c r="U1272" s="7"/>
       <c r="V1272" s="34" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="1273" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51059,7 +51056,7 @@
       <c r="T1277" s="7"/>
       <c r="U1277" s="7"/>
       <c r="V1277" s="34" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="1278" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51094,7 +51091,7 @@
       <c r="T1278" s="7"/>
       <c r="U1278" s="7"/>
       <c r="V1278" s="34" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="1279" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51129,7 +51126,7 @@
       <c r="T1279" s="7"/>
       <c r="U1279" s="7"/>
       <c r="V1279" s="34" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="1280" spans="5:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51310,7 +51307,7 @@
       <c r="T1284" s="7"/>
       <c r="U1284" s="7"/>
       <c r="V1284" s="34" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="1285" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51380,7 +51377,7 @@
       <c r="T1286" s="7"/>
       <c r="U1286" s="7"/>
       <c r="V1286" s="34" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="1287" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51481,7 +51478,7 @@
       <c r="T1289" s="7"/>
       <c r="U1289" s="7"/>
       <c r="V1289" s="34" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="1290" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -51703,7 +51700,7 @@
       <c r="T1295" s="7"/>
       <c r="U1295" s="7"/>
       <c r="V1295" s="34" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="1296" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52060,7 +52057,7 @@
       <c r="T1305" s="7"/>
       <c r="U1305" s="7"/>
       <c r="V1305" s="34" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="1306" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52164,7 +52161,7 @@
       <c r="T1308" s="7"/>
       <c r="U1308" s="7"/>
       <c r="V1308" s="34" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1309" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52461,7 +52458,7 @@
       <c r="T1316" s="7"/>
       <c r="U1316" s="7"/>
       <c r="V1316" s="34" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="1317" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52775,7 +52772,7 @@
       <c r="T1325" s="7"/>
       <c r="U1325" s="7"/>
       <c r="V1325" s="34" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1326" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52812,7 +52809,7 @@
       <c r="T1326" s="7"/>
       <c r="U1326" s="7"/>
       <c r="V1326" s="34" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1327" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52849,7 +52846,7 @@
       <c r="T1327" s="7"/>
       <c r="U1327" s="7"/>
       <c r="V1327" s="34" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1328" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -52921,7 +52918,7 @@
       <c r="T1329" s="7"/>
       <c r="U1329" s="7"/>
       <c r="V1329" s="34" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="1330" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53096,7 +53093,7 @@
       <c r="S1334" s="7"/>
       <c r="T1334" s="7"/>
       <c r="V1334" s="34" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="1335" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53133,7 +53130,7 @@
       <c r="S1335" s="7"/>
       <c r="T1335" s="7"/>
       <c r="V1335" s="34" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="1336" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53449,7 +53446,7 @@
       <c r="T1344" s="7"/>
       <c r="U1344" s="7"/>
       <c r="V1344" s="34" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="1345" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53485,7 +53482,7 @@
       <c r="T1345" s="7"/>
       <c r="U1345" s="7"/>
       <c r="V1345" s="34" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="1346" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53627,7 +53624,7 @@
       <c r="T1349" s="7"/>
       <c r="U1349" s="7"/>
       <c r="V1349" s="34" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="1350" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53839,7 +53836,7 @@
       <c r="T1355" s="7"/>
       <c r="U1355" s="7"/>
       <c r="V1355" s="34" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="1356" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -53875,7 +53872,7 @@
       <c r="T1356" s="7"/>
       <c r="U1356" s="7"/>
       <c r="V1356" s="34" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="1357" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54289,7 +54286,7 @@
       <c r="T1368" s="7"/>
       <c r="U1368" s="7"/>
       <c r="V1368" s="34" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1369" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54467,7 +54464,7 @@
       <c r="T1373" s="7"/>
       <c r="U1373" s="7"/>
       <c r="V1373" s="34" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1374" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -54538,7 +54535,7 @@
       <c r="T1375" s="7"/>
       <c r="U1375" s="7"/>
       <c r="V1375" s="34" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1376" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55021,7 +55018,7 @@
       <c r="T1389" s="7"/>
       <c r="U1389" s="7"/>
       <c r="V1389" s="34" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1390" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55091,7 +55088,7 @@
       <c r="T1391" s="7"/>
       <c r="U1391" s="7"/>
       <c r="V1391" s="34" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1392" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55299,7 +55296,7 @@
       <c r="T1397" s="7"/>
       <c r="U1397" s="7"/>
       <c r="V1397" s="34" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1398" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55369,7 +55366,7 @@
       <c r="T1399" s="7"/>
       <c r="U1399" s="7"/>
       <c r="V1399" s="34" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1400" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55578,7 +55575,7 @@
       <c r="T1405" s="7"/>
       <c r="U1405" s="7"/>
       <c r="V1405" s="34" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1406" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55789,7 +55786,7 @@
       <c r="T1411" s="7"/>
       <c r="U1411" s="7"/>
       <c r="V1411" s="34" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1412" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -55994,7 +55991,7 @@
       <c r="T1417" s="7"/>
       <c r="U1417" s="7"/>
       <c r="V1417" s="34" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1418" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56064,7 +56061,7 @@
       <c r="T1419" s="7"/>
       <c r="U1419" s="7"/>
       <c r="V1419" s="34" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1420" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56134,7 +56131,7 @@
       <c r="T1421" s="7"/>
       <c r="U1421" s="7"/>
       <c r="V1421" s="34" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1422" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56646,7 +56643,7 @@
       <c r="T1436" s="7"/>
       <c r="U1436" s="7"/>
       <c r="V1436" s="34" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1437" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56716,7 +56713,7 @@
       <c r="T1438" s="7"/>
       <c r="U1438" s="7"/>
       <c r="V1438" s="34" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1439" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56786,7 +56783,7 @@
       <c r="T1440" s="7"/>
       <c r="U1440" s="7"/>
       <c r="V1440" s="34" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1441" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56924,7 +56921,7 @@
       <c r="T1444" s="7"/>
       <c r="U1444" s="7"/>
       <c r="V1444" s="34" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1445" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57290,7 +57287,7 @@
       <c r="T1454" s="7"/>
       <c r="U1454" s="7"/>
       <c r="V1454" s="34" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1455" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57328,7 +57325,7 @@
       <c r="T1455" s="7"/>
       <c r="U1455" s="7"/>
       <c r="V1455" s="34" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1456" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57404,7 +57401,7 @@
       <c r="T1457" s="7"/>
       <c r="U1457" s="7"/>
       <c r="V1457" s="34" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1458" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57557,7 +57554,7 @@
       <c r="T1461" s="10"/>
       <c r="U1461" s="7"/>
       <c r="V1461" s="34" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1462" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57708,7 +57705,7 @@
       <c r="T1465" s="7"/>
       <c r="U1465" s="7"/>
       <c r="V1465" s="34" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1466" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57862,7 +57859,7 @@
       <c r="T1469" s="7"/>
       <c r="U1469" s="7"/>
       <c r="V1469" s="34" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1470" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58010,7 +58007,7 @@
       <c r="T1473" s="7"/>
       <c r="U1473" s="7"/>
       <c r="V1473" s="34" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1474" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58048,7 +58045,7 @@
       <c r="T1474" s="7"/>
       <c r="U1474" s="7"/>
       <c r="V1474" s="35" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1475" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58198,7 +58195,7 @@
       <c r="T1478" s="7"/>
       <c r="U1478" s="7"/>
       <c r="V1478" s="34" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1479" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58637,7 +58634,7 @@
       <c r="T1490" s="7"/>
       <c r="U1490" s="7"/>
       <c r="V1490" s="34" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1491" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58814,7 +58811,7 @@
         <f t="shared" si="71"/>
         <v>46</v>
       </c>
-      <c r="N1495" s="62" t="s">
+      <c r="N1495" s="34" t="s">
         <v>875</v>
       </c>
       <c r="O1495" s="6"/>
@@ -58853,7 +58850,7 @@
         <f t="shared" si="71"/>
         <v>47</v>
       </c>
-      <c r="N1496" s="62" t="s">
+      <c r="N1496" s="34" t="s">
         <v>876</v>
       </c>
       <c r="O1496" s="6"/>
@@ -58981,7 +58978,7 @@
       <c r="T1499" s="7"/>
       <c r="U1499" s="7"/>
       <c r="V1499" s="34" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1500" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59350,7 +59347,7 @@
         <v>113</v>
       </c>
       <c r="V1509" s="34" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1510" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59381,7 +59378,7 @@
         <f t="shared" si="71"/>
         <v>61</v>
       </c>
-      <c r="N1510" s="63" t="s">
+      <c r="N1510" s="62" t="s">
         <v>270</v>
       </c>
       <c r="O1510" s="6"/>
@@ -59427,7 +59424,7 @@
         <f t="shared" si="71"/>
         <v>62</v>
       </c>
-      <c r="N1511" s="63" t="s">
+      <c r="N1511" s="62" t="s">
         <v>885</v>
       </c>
       <c r="O1511" s="6"/>
@@ -59518,7 +59515,7 @@
       <c r="T1513" s="7"/>
       <c r="U1513" s="7"/>
       <c r="V1513" s="34" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1514" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59562,7 +59559,7 @@
         <v>113</v>
       </c>
       <c r="V1514" s="34" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1515" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59679,7 +59676,7 @@
       <c r="T1517" s="7"/>
       <c r="U1517" s="7"/>
       <c r="V1517" s="34" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1518" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59717,7 +59714,7 @@
       <c r="T1518" s="7"/>
       <c r="U1518" s="7"/>
       <c r="V1518" s="34" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1519" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59793,7 +59790,7 @@
       <c r="T1520" s="7"/>
       <c r="U1520" s="7"/>
       <c r="V1520" s="34" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1521" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59903,12 +59900,12 @@
       <c r="T1523" s="7"/>
       <c r="U1523" s="7"/>
       <c r="V1523" s="34" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1524" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1524" s="61" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C1524" s="7" t="s">
         <v>87</v>
@@ -59986,7 +59983,7 @@
       <c r="T1525" s="7"/>
       <c r="U1525" s="7"/>
       <c r="V1525" s="34" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1526" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60105,7 +60102,7 @@
       <c r="T1528" s="7"/>
       <c r="U1528" s="7"/>
       <c r="V1528" s="34" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1529" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60325,7 +60322,7 @@
       <c r="T1534" s="7"/>
       <c r="U1534" s="7"/>
       <c r="V1534" s="34" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1535" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60435,7 +60432,7 @@
       <c r="T1537" s="7"/>
       <c r="U1537" s="7"/>
       <c r="V1537" s="34" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1538" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60545,7 +60542,7 @@
       <c r="T1540" s="7"/>
       <c r="U1540" s="7"/>
       <c r="V1540" s="34" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1541" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60583,7 +60580,7 @@
       <c r="T1541" s="7"/>
       <c r="U1541" s="7"/>
       <c r="V1541" s="34" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1542" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60765,7 +60762,7 @@
       <c r="T1546" s="7"/>
       <c r="U1546" s="7"/>
       <c r="V1546" s="34" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1547" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60914,7 +60911,7 @@
       <c r="T1550" s="7"/>
       <c r="U1550" s="7"/>
       <c r="V1550" s="34" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1551" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60988,7 +60985,7 @@
       <c r="T1552" s="7"/>
       <c r="U1552" s="7"/>
       <c r="V1552" s="34" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1553" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61062,7 +61059,7 @@
       <c r="T1554" s="7"/>
       <c r="U1554" s="7"/>
       <c r="V1554" s="34" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1555" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61446,7 +61443,7 @@
       <c r="T1564" s="7"/>
       <c r="U1564" s="7"/>
       <c r="V1564" s="34" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1565" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61558,7 +61555,7 @@
       <c r="T1567" s="7"/>
       <c r="U1567" s="7"/>
       <c r="V1567" s="34" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1568" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61669,7 +61666,7 @@
       <c r="T1570" s="7"/>
       <c r="U1570" s="7"/>
       <c r="V1570" s="34" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1571" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61745,7 +61742,7 @@
       <c r="T1572" s="7"/>
       <c r="U1572" s="7"/>
       <c r="V1572" s="34" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1573" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61859,7 +61856,7 @@
       </c>
       <c r="U1575" s="7"/>
       <c r="V1575" s="34" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1576" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62007,7 +62004,7 @@
       <c r="T1579" s="7"/>
       <c r="U1579" s="7"/>
       <c r="V1579" s="34" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1580" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62104,7 +62101,7 @@
         <v>19</v>
       </c>
       <c r="V1582" s="34" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1583" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62136,7 +62133,7 @@
         <v>0</v>
       </c>
       <c r="V1583" s="34" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1584" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62284,7 +62281,7 @@
         <v>19</v>
       </c>
       <c r="V1588" s="34" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1589" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62386,7 +62383,7 @@
         <v>19</v>
       </c>
       <c r="V1591" s="34" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1592" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62534,7 +62531,7 @@
         <v>0</v>
       </c>
       <c r="V1596" s="34" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1597" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62652,7 +62649,7 @@
         <v>19</v>
       </c>
       <c r="V1600" s="34" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1601" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62931,7 +62928,7 @@
         <v>19</v>
       </c>
       <c r="V1609" s="34" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1610" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62963,7 +62960,7 @@
         <v>0</v>
       </c>
       <c r="V1610" s="34" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1611" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63024,7 +63021,7 @@
         <v>0</v>
       </c>
       <c r="V1612" s="34" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1613" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63056,7 +63053,7 @@
         <v>0</v>
       </c>
       <c r="V1613" s="34" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1614" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63088,7 +63085,7 @@
         <v>0</v>
       </c>
       <c r="V1614" s="34" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1615" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63120,7 +63117,7 @@
         <v>19</v>
       </c>
       <c r="V1615" s="34" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1616" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63341,7 +63338,7 @@
         <v>0</v>
       </c>
       <c r="V1622" s="34" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1623" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63402,7 +63399,7 @@
         <v>19</v>
       </c>
       <c r="V1624" s="34" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1625" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63538,7 +63535,7 @@
     </row>
     <row r="1629" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1629" s="61" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C1629" s="7" t="s">
         <v>87</v>
@@ -63659,7 +63656,7 @@
         <v>0</v>
       </c>
       <c r="V1631" s="34" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1632" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63726,7 +63723,7 @@
         <v>19</v>
       </c>
       <c r="V1633" s="34" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1634" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64000,7 +63997,7 @@
       </c>
       <c r="U1642" s="7"/>
       <c r="V1642" s="34" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1643" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64380,7 +64377,7 @@
         <v>19</v>
       </c>
       <c r="V1654" s="34" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1655" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64737,7 +64734,7 @@
         <v>113</v>
       </c>
       <c r="V1666" s="34" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1667" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64917,7 +64914,7 @@
         <v>19</v>
       </c>
       <c r="V1672" s="34" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1673" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64981,7 +64978,7 @@
         <v>19</v>
       </c>
       <c r="V1674" s="34" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1675" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65013,7 +65010,7 @@
         <v>0</v>
       </c>
       <c r="V1675" s="34" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1676" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65048,7 +65045,7 @@
         <v>113</v>
       </c>
       <c r="V1676" s="34" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1677" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65080,7 +65077,7 @@
         <v>0</v>
       </c>
       <c r="V1677" s="34" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1678" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65115,7 +65112,7 @@
         <v>19</v>
       </c>
       <c r="V1678" s="34" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1679" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65147,7 +65144,7 @@
         <v>0</v>
       </c>
       <c r="V1679" s="34" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1680" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65237,7 +65234,7 @@
         <v>19</v>
       </c>
       <c r="V1682" s="34" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1683" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65269,7 +65266,7 @@
         <v>0</v>
       </c>
       <c r="V1683" s="34" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1684" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65452,7 +65449,7 @@
         <v>19</v>
       </c>
       <c r="V1689" s="34" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1690" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65484,7 +65481,7 @@
         <v>0</v>
       </c>
       <c r="V1690" s="34" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1691" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65548,7 +65545,7 @@
         <v>122</v>
       </c>
       <c r="V1692" s="34" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1693" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65667,7 +65664,7 @@
         <v>0</v>
       </c>
       <c r="V1696" s="34" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1697" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65728,7 +65725,7 @@
         <v>19</v>
       </c>
       <c r="V1698" s="34" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1699" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65760,7 +65757,7 @@
         <v>0</v>
       </c>
       <c r="V1699" s="34" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1700" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65791,7 +65788,7 @@
         <v>19</v>
       </c>
       <c r="V1700" s="34" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1701" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66044,7 +66041,7 @@
         <v>0</v>
       </c>
       <c r="V1708" s="34" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1709" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66076,7 +66073,7 @@
         <v>19</v>
       </c>
       <c r="V1709" s="34" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1710" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66224,7 +66221,7 @@
         <v>0</v>
       </c>
       <c r="V1714" s="34" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1715" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66285,7 +66282,7 @@
         <v>19</v>
       </c>
       <c r="V1716" s="34" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1717" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66439,7 +66436,7 @@
         <v>0</v>
       </c>
       <c r="V1721" s="34" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1722" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66567,7 +66564,7 @@
         <v>19</v>
       </c>
       <c r="V1725" s="34" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1726" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66721,7 +66718,7 @@
         <v>19</v>
       </c>
       <c r="V1730" s="34" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1731" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66753,7 +66750,7 @@
         <v>18</v>
       </c>
       <c r="V1731" s="34" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1732" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66818,7 +66815,7 @@
       </c>
       <c r="U1733" s="7"/>
       <c r="V1733" s="34" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1734" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66949,7 +66946,7 @@
         <v>0</v>
       </c>
       <c r="V1737" s="34" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1738" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66981,7 +66978,7 @@
         <v>19</v>
       </c>
       <c r="V1738" s="34" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1739" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67147,7 +67144,7 @@
         <v>19</v>
       </c>
       <c r="V1743" s="34" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1744" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67327,7 +67324,7 @@
         <v>19</v>
       </c>
       <c r="V1749" s="34" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1750" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67463,7 +67460,7 @@
         <v>19</v>
       </c>
       <c r="V1753" s="34" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1754" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67643,7 +67640,7 @@
         <v>0</v>
       </c>
       <c r="V1759" s="34" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1760" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67733,7 +67730,7 @@
         <v>19</v>
       </c>
       <c r="V1762" s="34" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1763" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67794,7 +67791,7 @@
         <v>0</v>
       </c>
       <c r="V1764" s="34" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1765" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67971,7 +67968,7 @@
         <v>0</v>
       </c>
       <c r="V1770" s="34" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1771" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68006,7 +68003,7 @@
         <v>19</v>
       </c>
       <c r="V1771" s="34" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1772" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68363,7 +68360,7 @@
         <v>19</v>
       </c>
       <c r="V1783" s="34" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1784" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68482,7 +68479,7 @@
         <v>0</v>
       </c>
       <c r="V1787" s="34" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1788" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68543,7 +68540,7 @@
         <v>0</v>
       </c>
       <c r="V1789" s="34" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1790" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68604,7 +68601,7 @@
         <v>19</v>
       </c>
       <c r="V1791" s="34" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1792" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68636,7 +68633,7 @@
         <v>0</v>
       </c>
       <c r="V1792" s="34" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1793" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68899,7 +68896,7 @@
         <v>19</v>
       </c>
       <c r="V1801" s="34" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1802" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69177,7 +69174,7 @@
       <c r="T1810" s="7"/>
       <c r="U1810" s="7"/>
       <c r="V1810" s="34" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1811" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69214,7 +69211,7 @@
         <v>94</v>
       </c>
       <c r="V1811" s="34" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1812" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69246,7 +69243,7 @@
         <v>0</v>
       </c>
       <c r="V1812" s="34" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1813" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69278,7 +69275,7 @@
         <v>0</v>
       </c>
       <c r="V1813" s="34" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1814" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69368,7 +69365,7 @@
         <v>19</v>
       </c>
       <c r="V1816" s="34" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1817" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69400,7 +69397,7 @@
         <v>0</v>
       </c>
       <c r="V1817" s="34" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1818" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69435,7 +69432,7 @@
         <v>19</v>
       </c>
       <c r="V1818" s="34" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="1819" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69644,7 +69641,7 @@
         <v>19</v>
       </c>
       <c r="V1825" s="34" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="1826" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69734,7 +69731,7 @@
         <v>19</v>
       </c>
       <c r="V1828" s="34" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="1829" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69766,7 +69763,7 @@
         <v>17</v>
       </c>
       <c r="V1829" s="34" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="1830" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70121,7 +70118,7 @@
         <v>0</v>
       </c>
       <c r="V1840" s="34" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1841" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70211,7 +70208,7 @@
         <v>0</v>
       </c>
       <c r="V1843" s="34" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1844" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70272,7 +70269,7 @@
         <v>19</v>
       </c>
       <c r="V1845" s="34" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="1846" spans="3:22" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3941EC2D-6D85-4461-8428-3E7B2DB3FBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC0AFE4-A83C-4E7B-BA64-A966D2DC12AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6824" uniqueCount="1536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6822" uniqueCount="1536">
   <si>
     <t>PS</t>
   </si>
@@ -5342,9 +5342,9 @@
   <dimension ref="A1:V1846"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1209" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="U1090" sqref="U1090"/>
+      <selection pane="bottomLeft" activeCell="U1226" sqref="U1226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -48614,9 +48614,7 @@
       <c r="R1205" s="7"/>
       <c r="S1205" s="7"/>
       <c r="T1205" s="7"/>
-      <c r="U1205" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="U1205" s="7"/>
       <c r="V1205" s="34" t="s">
         <v>1176</v>
       </c>
@@ -49329,9 +49327,7 @@
       <c r="R1226" s="7"/>
       <c r="S1226" s="7"/>
       <c r="T1226" s="7"/>
-      <c r="U1226" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="U1226" s="7"/>
       <c r="V1226" s="34" t="s">
         <v>1176</v>
       </c>

--- a/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD57E771-7A91-4FBA-8DAB-BFDACB0C6D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C3F5F1-B118-4487-B1D5-E86296F010FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="1537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="1537">
   <si>
     <t>PS</t>
   </si>
@@ -4524,9 +4524,6 @@
     <t>vaqsUqyuriti# vasu - yuH</t>
   </si>
   <si>
-    <t>iqmo itIqmo#</t>
-  </si>
-  <si>
     <t>vIqtata#mAqnIti# vIqta - taqmAqniq</t>
   </si>
   <si>
@@ -4639,6 +4636,9 @@
   </si>
   <si>
     <t xml:space="preserve">vaqsUqyuH  </t>
+  </si>
+  <si>
+    <t>iqmo itIqmo</t>
   </si>
 </sst>
 </file>
@@ -5347,10 +5347,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1725" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N1730" sqref="N1730"/>
+      <selection pane="bottomLeft" activeCell="N1320" sqref="N1320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -18407,7 +18407,7 @@
       <c r="T339" s="7"/>
       <c r="U339" s="7"/>
       <c r="V339" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="340" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19286,7 +19286,7 @@
       <c r="T363" s="7"/>
       <c r="U363" s="7"/>
       <c r="V363" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="364" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20197,7 +20197,7 @@
       <c r="T388" s="7"/>
       <c r="U388" s="7"/>
       <c r="V388" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="389" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21059,7 +21059,7 @@
       <c r="T412" s="7"/>
       <c r="U412" s="7"/>
       <c r="V412" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="413" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21807,7 +21807,7 @@
       <c r="T433" s="7"/>
       <c r="U433" s="7"/>
       <c r="V433" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="434" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22749,7 +22749,7 @@
       <c r="T459" s="7"/>
       <c r="U459" s="7"/>
       <c r="V459" s="35" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="460" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23975,7 +23975,7 @@
       <c r="T491" s="7"/>
       <c r="U491" s="7"/>
       <c r="V491" s="35" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="492" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -44387,7 +44387,7 @@
     </row>
     <row r="1083" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1083" s="61" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="H1083" s="43" t="s">
         <v>78</v>
@@ -59914,7 +59914,7 @@
     </row>
     <row r="1524" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1524" s="61" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="C1524" s="7" t="s">
         <v>87</v>
@@ -63544,7 +63544,7 @@
     </row>
     <row r="1629" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1629" s="61" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="C1629" s="7" t="s">
         <v>87</v>
@@ -64290,7 +64290,7 @@
         <v>68</v>
       </c>
       <c r="T1651" s="1" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="V1651" s="34" t="s">
         <v>1174</v>
@@ -64833,7 +64833,7 @@
         <v>220</v>
       </c>
       <c r="N1669" s="35" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="V1669" s="34" t="s">
         <v>1174</v>
@@ -66384,7 +66384,7 @@
         <v>270</v>
       </c>
       <c r="N1719" s="56" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="O1719" s="54"/>
       <c r="P1719" s="64"/>
@@ -66725,7 +66725,7 @@
         <v>281</v>
       </c>
       <c r="N1730" s="35" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="O1730" s="7" t="s">
         <v>0</v>
@@ -66765,8 +66765,8 @@
       <c r="O1731" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="V1731" s="34" t="s">
-        <v>1498</v>
+      <c r="V1731" s="35" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="1732" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66831,7 +66831,7 @@
       </c>
       <c r="U1733" s="7"/>
       <c r="V1733" s="34" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1734" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66962,7 +66962,7 @@
         <v>0</v>
       </c>
       <c r="V1737" s="34" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1738" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66994,7 +66994,7 @@
         <v>19</v>
       </c>
       <c r="V1738" s="34" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1739" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67160,7 +67160,7 @@
         <v>19</v>
       </c>
       <c r="V1743" s="34" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1744" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67340,7 +67340,7 @@
         <v>19</v>
       </c>
       <c r="V1749" s="34" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1750" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67476,7 +67476,7 @@
         <v>19</v>
       </c>
       <c r="V1753" s="34" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1754" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67656,7 +67656,7 @@
         <v>0</v>
       </c>
       <c r="V1759" s="34" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1760" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67746,7 +67746,7 @@
         <v>19</v>
       </c>
       <c r="V1762" s="34" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1763" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67807,7 +67807,7 @@
         <v>0</v>
       </c>
       <c r="V1764" s="34" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1765" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67984,7 +67984,7 @@
         <v>0</v>
       </c>
       <c r="V1770" s="34" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1771" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68019,7 +68019,7 @@
         <v>19</v>
       </c>
       <c r="V1771" s="34" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1772" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68108,9 +68108,7 @@
       <c r="N1774" s="59" t="s">
         <v>1027</v>
       </c>
-      <c r="U1774" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="U1774" s="7"/>
       <c r="V1774" s="34" t="s">
         <v>1174</v>
       </c>
@@ -68376,7 +68374,7 @@
         <v>19</v>
       </c>
       <c r="V1783" s="34" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1784" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68495,7 +68493,7 @@
         <v>0</v>
       </c>
       <c r="V1787" s="34" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1788" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68556,7 +68554,7 @@
         <v>0</v>
       </c>
       <c r="V1789" s="34" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1790" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68617,7 +68615,7 @@
         <v>19</v>
       </c>
       <c r="V1791" s="34" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1792" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68649,7 +68647,7 @@
         <v>0</v>
       </c>
       <c r="V1792" s="34" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1793" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68912,7 +68910,7 @@
         <v>19</v>
       </c>
       <c r="V1801" s="34" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1802" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69190,7 +69188,7 @@
       <c r="T1810" s="7"/>
       <c r="U1810" s="7"/>
       <c r="V1810" s="34" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1811" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69227,7 +69225,7 @@
         <v>94</v>
       </c>
       <c r="V1811" s="34" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="1812" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69259,7 +69257,7 @@
         <v>0</v>
       </c>
       <c r="V1812" s="34" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="1813" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69291,7 +69289,7 @@
         <v>0</v>
       </c>
       <c r="V1813" s="34" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1814" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69381,7 +69379,7 @@
         <v>19</v>
       </c>
       <c r="V1816" s="34" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1817" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69413,7 +69411,7 @@
         <v>0</v>
       </c>
       <c r="V1817" s="34" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1818" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69448,7 +69446,7 @@
         <v>19</v>
       </c>
       <c r="V1818" s="34" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="1819" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69657,7 +69655,7 @@
         <v>19</v>
       </c>
       <c r="V1825" s="34" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1826" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69747,7 +69745,7 @@
         <v>19</v>
       </c>
       <c r="V1828" s="34" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1829" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70128,13 +70126,13 @@
         <v>391</v>
       </c>
       <c r="N1840" s="35" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="O1840" s="7" t="s">
         <v>0</v>
       </c>
       <c r="V1840" s="34" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1841" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70224,7 +70222,7 @@
         <v>0</v>
       </c>
       <c r="V1843" s="34" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="1844" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70285,7 +70283,7 @@
         <v>19</v>
       </c>
       <c r="V1845" s="34" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="1846" spans="3:22" x14ac:dyDescent="0.25">

--- a/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 4.3 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF6AE65-E845-4A32-A8CE-7F7E6A8291C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF4F19B-8EF7-4457-8AC8-3D52626D2949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6819" uniqueCount="1537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6822" uniqueCount="1537">
   <si>
     <t>PS</t>
   </si>
@@ -4272,9 +4272,6 @@
     <t>vaqyaqskRuditi# vayaH - kRut</t>
   </si>
   <si>
-    <t>viShpa#rdhAq itiq viH - spaqrddhAqH</t>
-  </si>
-  <si>
     <t>dUqroqhaqNamiti# duH - roqhaqNam</t>
   </si>
   <si>
@@ -4299,9 +4296,6 @@
     <t>svaqnIqketi# su - aqnIqkaq</t>
   </si>
   <si>
-    <t>saqndRugeti# saM - dRuk</t>
-  </si>
-  <si>
     <t>cAruqritiq cAru#H</t>
   </si>
   <si>
@@ -4639,6 +4633,12 @@
   </si>
   <si>
     <t>svaqnIqkaq</t>
+  </si>
+  <si>
+    <t>viShpa#rdhAq itiq vi - spaqrddhAqH</t>
+  </si>
+  <si>
+    <t>saqndRugiti# saM - dRuk</t>
   </si>
 </sst>
 </file>
@@ -5347,10 +5347,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1468" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1459" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="N1473" sqref="N1473"/>
+      <selection pane="bottomLeft" activeCell="V1474" sqref="V1474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -17897,7 +17897,7 @@
         <v>1</v>
       </c>
       <c r="N325" s="35" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="O325" s="7" t="s">
         <v>0</v>
@@ -17909,7 +17909,7 @@
       <c r="T325" s="7"/>
       <c r="U325" s="7"/>
       <c r="V325" s="35" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="326" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -18407,7 +18407,7 @@
       <c r="T339" s="7"/>
       <c r="U339" s="7"/>
       <c r="V339" s="35" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="340" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -19286,7 +19286,7 @@
       <c r="T363" s="7"/>
       <c r="U363" s="7"/>
       <c r="V363" s="35" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="364" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20197,7 +20197,7 @@
       <c r="T388" s="7"/>
       <c r="U388" s="7"/>
       <c r="V388" s="35" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="389" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -20831,7 +20831,7 @@
         <v>82</v>
       </c>
       <c r="N406" s="35" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="O406" s="7" t="s">
         <v>0</v>
@@ -21059,7 +21059,7 @@
       <c r="T412" s="7"/>
       <c r="U412" s="7"/>
       <c r="V412" s="35" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="413" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -21807,7 +21807,7 @@
       <c r="T433" s="7"/>
       <c r="U433" s="7"/>
       <c r="V433" s="35" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="434" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -22749,7 +22749,7 @@
       <c r="T459" s="7"/>
       <c r="U459" s="7"/>
       <c r="V459" s="35" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="460" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -23975,7 +23975,7 @@
       <c r="T491" s="7"/>
       <c r="U491" s="7"/>
       <c r="V491" s="35" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="492" spans="1:22" s="4" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
@@ -42590,7 +42590,7 @@
       <c r="T1030" s="7"/>
       <c r="U1030" s="7"/>
       <c r="V1030" s="35" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="1031" spans="8:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -43826,7 +43826,7 @@
       <c r="T1066" s="7"/>
       <c r="U1066" s="7"/>
       <c r="V1066" s="35" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="1067" spans="9:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -44387,7 +44387,7 @@
     </row>
     <row r="1083" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1083" s="61" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="H1083" s="43" t="s">
         <v>78</v>
@@ -46033,7 +46033,7 @@
         <v>83</v>
       </c>
       <c r="N1130" s="35" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="O1130" s="7" t="s">
         <v>0</v>
@@ -56791,8 +56791,8 @@
       <c r="S1440" s="7"/>
       <c r="T1440" s="7"/>
       <c r="U1440" s="7"/>
-      <c r="V1440" s="34" t="s">
-        <v>1414</v>
+      <c r="V1440" s="35" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="1441" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -56930,7 +56930,7 @@
       <c r="T1444" s="7"/>
       <c r="U1444" s="7"/>
       <c r="V1444" s="34" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="1445" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57296,7 +57296,7 @@
       <c r="T1454" s="7"/>
       <c r="U1454" s="7"/>
       <c r="V1454" s="34" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="1455" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57334,7 +57334,7 @@
       <c r="T1455" s="7"/>
       <c r="U1455" s="7"/>
       <c r="V1455" s="34" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="1456" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57410,7 +57410,7 @@
       <c r="T1457" s="7"/>
       <c r="U1457" s="7"/>
       <c r="V1457" s="34" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="1458" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57563,7 +57563,7 @@
       <c r="T1461" s="10"/>
       <c r="U1461" s="7"/>
       <c r="V1461" s="34" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="1462" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57714,7 +57714,7 @@
       <c r="T1465" s="7"/>
       <c r="U1465" s="7"/>
       <c r="V1465" s="34" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="1466" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -57868,7 +57868,7 @@
       <c r="T1469" s="7"/>
       <c r="U1469" s="7"/>
       <c r="V1469" s="34" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="1470" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58004,7 +58004,7 @@
         <v>24</v>
       </c>
       <c r="N1473" s="35" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="O1473" s="7" t="s">
         <v>0</v>
@@ -58016,7 +58016,7 @@
       <c r="T1473" s="7"/>
       <c r="U1473" s="7"/>
       <c r="V1473" s="34" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="1474" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58054,7 +58054,7 @@
       <c r="T1474" s="7"/>
       <c r="U1474" s="7"/>
       <c r="V1474" s="35" t="s">
-        <v>1423</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="1475" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58204,7 +58204,7 @@
       <c r="T1478" s="7"/>
       <c r="U1478" s="7"/>
       <c r="V1478" s="34" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="1479" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58643,7 +58643,7 @@
       <c r="T1490" s="7"/>
       <c r="U1490" s="7"/>
       <c r="V1490" s="34" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="1491" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -58987,7 +58987,7 @@
       <c r="T1499" s="7"/>
       <c r="U1499" s="7"/>
       <c r="V1499" s="34" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="1500" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59356,7 +59356,7 @@
         <v>113</v>
       </c>
       <c r="V1509" s="34" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="1510" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59524,7 +59524,7 @@
       <c r="T1513" s="7"/>
       <c r="U1513" s="7"/>
       <c r="V1513" s="34" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="1514" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59685,7 +59685,7 @@
       <c r="T1517" s="7"/>
       <c r="U1517" s="7"/>
       <c r="V1517" s="34" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1518" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59723,7 +59723,7 @@
       <c r="T1518" s="7"/>
       <c r="U1518" s="7"/>
       <c r="V1518" s="34" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="1519" spans="2:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59799,7 +59799,7 @@
       <c r="T1520" s="7"/>
       <c r="U1520" s="7"/>
       <c r="V1520" s="34" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="1521" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -59909,12 +59909,12 @@
       <c r="T1523" s="7"/>
       <c r="U1523" s="7"/>
       <c r="V1523" s="34" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="1524" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1524" s="61" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="C1524" s="7" t="s">
         <v>87</v>
@@ -59992,7 +59992,7 @@
       <c r="T1525" s="7"/>
       <c r="U1525" s="7"/>
       <c r="V1525" s="34" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="1526" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60111,7 +60111,7 @@
       <c r="T1528" s="7"/>
       <c r="U1528" s="7"/>
       <c r="V1528" s="34" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="1529" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60331,7 +60331,7 @@
       <c r="T1534" s="7"/>
       <c r="U1534" s="7"/>
       <c r="V1534" s="34" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="1535" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60441,7 +60441,7 @@
       <c r="T1537" s="7"/>
       <c r="U1537" s="7"/>
       <c r="V1537" s="34" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="1538" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60551,7 +60551,7 @@
       <c r="T1540" s="7"/>
       <c r="U1540" s="7"/>
       <c r="V1540" s="34" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="1541" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60589,7 +60589,7 @@
       <c r="T1541" s="7"/>
       <c r="U1541" s="7"/>
       <c r="V1541" s="34" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="1542" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60771,7 +60771,7 @@
       <c r="T1546" s="7"/>
       <c r="U1546" s="7"/>
       <c r="V1546" s="34" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="1547" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60920,7 +60920,7 @@
       <c r="T1550" s="7"/>
       <c r="U1550" s="7"/>
       <c r="V1550" s="34" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="1551" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -60994,7 +60994,7 @@
       <c r="T1552" s="7"/>
       <c r="U1552" s="7"/>
       <c r="V1552" s="34" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="1553" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61068,7 +61068,7 @@
       <c r="T1554" s="7"/>
       <c r="U1554" s="7"/>
       <c r="V1554" s="34" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="1555" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61452,7 +61452,7 @@
       <c r="T1564" s="7"/>
       <c r="U1564" s="7"/>
       <c r="V1564" s="34" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="1565" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61564,7 +61564,7 @@
       <c r="T1567" s="7"/>
       <c r="U1567" s="7"/>
       <c r="V1567" s="34" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="1568" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61675,7 +61675,7 @@
       <c r="T1570" s="7"/>
       <c r="U1570" s="7"/>
       <c r="V1570" s="34" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="1571" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61751,7 +61751,7 @@
       <c r="T1572" s="7"/>
       <c r="U1572" s="7"/>
       <c r="V1572" s="34" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="1573" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -61865,7 +61865,7 @@
       </c>
       <c r="U1575" s="7"/>
       <c r="V1575" s="34" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="1576" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62013,7 +62013,7 @@
       <c r="T1579" s="7"/>
       <c r="U1579" s="7"/>
       <c r="V1579" s="34" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="1580" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62110,7 +62110,7 @@
         <v>19</v>
       </c>
       <c r="V1582" s="34" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="1583" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62142,7 +62142,7 @@
         <v>0</v>
       </c>
       <c r="V1583" s="34" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="1584" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62290,7 +62290,7 @@
         <v>19</v>
       </c>
       <c r="V1588" s="34" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="1589" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62392,7 +62392,7 @@
         <v>19</v>
       </c>
       <c r="V1591" s="34" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="1592" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62540,7 +62540,7 @@
         <v>0</v>
       </c>
       <c r="V1596" s="34" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="1597" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62658,7 +62658,7 @@
         <v>19</v>
       </c>
       <c r="V1600" s="34" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="1601" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62937,7 +62937,7 @@
         <v>19</v>
       </c>
       <c r="V1609" s="34" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="1610" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -62969,7 +62969,7 @@
         <v>0</v>
       </c>
       <c r="V1610" s="34" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="1611" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63030,7 +63030,7 @@
         <v>0</v>
       </c>
       <c r="V1612" s="34" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="1613" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63062,7 +63062,7 @@
         <v>0</v>
       </c>
       <c r="V1613" s="34" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="1614" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63094,7 +63094,7 @@
         <v>0</v>
       </c>
       <c r="V1614" s="34" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="1615" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63126,7 +63126,7 @@
         <v>19</v>
       </c>
       <c r="V1615" s="34" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="1616" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63347,7 +63347,7 @@
         <v>0</v>
       </c>
       <c r="V1622" s="34" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="1623" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63408,7 +63408,7 @@
         <v>19</v>
       </c>
       <c r="V1624" s="34" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="1625" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63544,7 +63544,7 @@
     </row>
     <row r="1629" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1629" s="61" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C1629" s="7" t="s">
         <v>87</v>
@@ -63665,7 +63665,7 @@
         <v>0</v>
       </c>
       <c r="V1631" s="34" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="1632" spans="1:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -63732,7 +63732,7 @@
         <v>19</v>
       </c>
       <c r="V1633" s="34" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="1634" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64006,7 +64006,7 @@
       </c>
       <c r="U1642" s="7"/>
       <c r="V1642" s="34" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="1643" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64290,7 +64290,7 @@
         <v>68</v>
       </c>
       <c r="T1651" s="1" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="V1651" s="34" t="s">
         <v>1169</v>
@@ -64392,7 +64392,7 @@
         <v>19</v>
       </c>
       <c r="V1654" s="34" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="1655" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64749,7 +64749,7 @@
         <v>113</v>
       </c>
       <c r="V1666" s="34" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="1667" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64833,7 +64833,7 @@
         <v>220</v>
       </c>
       <c r="N1669" s="35" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="V1669" s="34" t="s">
         <v>1169</v>
@@ -64929,7 +64929,7 @@
         <v>19</v>
       </c>
       <c r="V1672" s="34" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="1673" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -64993,7 +64993,7 @@
         <v>19</v>
       </c>
       <c r="V1674" s="34" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="1675" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65025,7 +65025,7 @@
         <v>0</v>
       </c>
       <c r="V1675" s="34" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="1676" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65060,7 +65060,7 @@
         <v>113</v>
       </c>
       <c r="V1676" s="34" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="1677" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65092,7 +65092,7 @@
         <v>0</v>
       </c>
       <c r="V1677" s="34" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="1678" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65127,7 +65127,7 @@
         <v>19</v>
       </c>
       <c r="V1678" s="34" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="1679" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65159,7 +65159,7 @@
         <v>0</v>
       </c>
       <c r="V1679" s="34" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="1680" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65249,7 +65249,7 @@
         <v>19</v>
       </c>
       <c r="V1682" s="34" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="1683" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65281,7 +65281,7 @@
         <v>0</v>
       </c>
       <c r="V1683" s="34" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="1684" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65464,7 +65464,7 @@
         <v>19</v>
       </c>
       <c r="V1689" s="34" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="1690" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65496,7 +65496,7 @@
         <v>0</v>
       </c>
       <c r="V1690" s="34" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="1691" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65560,7 +65560,7 @@
         <v>121</v>
       </c>
       <c r="V1692" s="34" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="1693" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65679,7 +65679,7 @@
         <v>0</v>
       </c>
       <c r="V1696" s="34" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="1697" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65740,7 +65740,7 @@
         <v>19</v>
       </c>
       <c r="V1698" s="34" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="1699" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65772,7 +65772,7 @@
         <v>0</v>
       </c>
       <c r="V1699" s="34" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="1700" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -65803,7 +65803,7 @@
         <v>19</v>
       </c>
       <c r="V1700" s="34" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="1701" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66056,7 +66056,7 @@
         <v>0</v>
       </c>
       <c r="V1708" s="34" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="1709" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66088,7 +66088,7 @@
         <v>19</v>
       </c>
       <c r="V1709" s="34" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="1710" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66236,7 +66236,7 @@
         <v>0</v>
       </c>
       <c r="V1714" s="34" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="1715" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66297,7 +66297,7 @@
         <v>19</v>
       </c>
       <c r="V1716" s="34" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="1717" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66384,7 +66384,7 @@
         <v>270</v>
       </c>
       <c r="N1719" s="56" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="O1719" s="54"/>
       <c r="P1719" s="64"/>
@@ -66452,7 +66452,7 @@
         <v>0</v>
       </c>
       <c r="V1721" s="34" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="1722" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66580,7 +66580,7 @@
         <v>19</v>
       </c>
       <c r="V1725" s="34" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="1726" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66725,7 +66725,7 @@
         <v>281</v>
       </c>
       <c r="N1730" s="35" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="O1730" s="7" t="s">
         <v>0</v>
@@ -66734,7 +66734,7 @@
         <v>19</v>
       </c>
       <c r="V1730" s="34" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="1731" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66766,7 +66766,7 @@
         <v>18</v>
       </c>
       <c r="V1731" s="35" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="1732" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66831,7 +66831,7 @@
       </c>
       <c r="U1733" s="7"/>
       <c r="V1733" s="34" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="1734" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66962,7 +66962,7 @@
         <v>0</v>
       </c>
       <c r="V1737" s="34" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="1738" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -66994,7 +66994,7 @@
         <v>19</v>
       </c>
       <c r="V1738" s="34" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="1739" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67160,7 +67160,7 @@
         <v>19</v>
       </c>
       <c r="V1743" s="34" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="1744" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67340,7 +67340,7 @@
         <v>19</v>
       </c>
       <c r="V1749" s="34" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="1750" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67476,7 +67476,7 @@
         <v>19</v>
       </c>
       <c r="V1753" s="34" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="1754" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67656,7 +67656,7 @@
         <v>0</v>
       </c>
       <c r="V1759" s="34" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="1760" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67746,7 +67746,7 @@
         <v>19</v>
       </c>
       <c r="V1762" s="34" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="1763" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67807,7 +67807,7 @@
         <v>0</v>
       </c>
       <c r="V1764" s="34" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="1765" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -67984,7 +67984,7 @@
         <v>0</v>
       </c>
       <c r="V1770" s="34" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="1771" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68019,7 +68019,7 @@
         <v>19</v>
       </c>
       <c r="V1771" s="34" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="1772" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68374,7 +68374,7 @@
         <v>19</v>
       </c>
       <c r="V1783" s="34" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="1784" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68493,7 +68493,7 @@
         <v>0</v>
       </c>
       <c r="V1787" s="34" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="1788" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68554,7 +68554,7 @@
         <v>0</v>
       </c>
       <c r="V1789" s="34" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="1790" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68615,7 +68615,7 @@
         <v>19</v>
       </c>
       <c r="V1791" s="34" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="1792" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68647,7 +68647,7 @@
         <v>0</v>
       </c>
       <c r="V1792" s="34" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="1793" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -68910,7 +68910,7 @@
         <v>19</v>
       </c>
       <c r="V1801" s="34" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="1802" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69188,7 +69188,7 @@
       <c r="T1810" s="7"/>
       <c r="U1810" s="7"/>
       <c r="V1810" s="34" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="1811" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69225,7 +69225,7 @@
         <v>94</v>
       </c>
       <c r="V1811" s="34" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="1812" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69257,7 +69257,7 @@
         <v>0</v>
       </c>
       <c r="V1812" s="34" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1813" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69289,7 +69289,7 @@
         <v>0</v>
       </c>
       <c r="V1813" s="34" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="1814" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69379,7 +69379,7 @@
         <v>19</v>
       </c>
       <c r="V1816" s="34" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="1817" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69411,7 +69411,7 @@
         <v>0</v>
       </c>
       <c r="V1817" s="34" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="1818" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69446,7 +69446,7 @@
         <v>19</v>
       </c>
       <c r="V1818" s="34" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="1819" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69655,7 +69655,7 @@
         <v>19</v>
       </c>
       <c r="V1825" s="34" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1826" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69745,7 +69745,7 @@
         <v>19</v>
       </c>
       <c r="V1828" s="34" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="1829" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -69873,7 +69873,7 @@
         <v>383</v>
       </c>
       <c r="N1832" s="35" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="V1832" s="34" t="s">
         <v>1169</v>
@@ -70126,13 +70126,13 @@
         <v>391</v>
       </c>
       <c r="N1840" s="35" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="O1840" s="7" t="s">
         <v>0</v>
       </c>
       <c r="V1840" s="34" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1841" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70222,7 +70222,7 @@
         <v>0</v>
       </c>
       <c r="V1843" s="34" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="1844" spans="3:22" ht="20.25" x14ac:dyDescent="0.25">
@@ -70283,7 +70283,7 @@
         <v>19</v>
       </c>
       <c r="V1845" s="34" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="1846" spans="3:22" x14ac:dyDescent="0.25">
